--- a/AAII_Financials/Quarterly/CAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CAN_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="92">
   <si>
     <t>CAN</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,168 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>96200</v>
+        <v>9600</v>
       </c>
       <c r="E8" s="3">
-        <v>34700</v>
+        <v>64800</v>
       </c>
       <c r="F8" s="3">
-        <v>6800</v>
+        <v>93900</v>
       </c>
       <c r="G8" s="3">
-        <v>39800</v>
+        <v>33800</v>
       </c>
       <c r="H8" s="3">
-        <v>68900</v>
+        <v>6600</v>
       </c>
       <c r="I8" s="3">
+        <v>38900</v>
+      </c>
+      <c r="J8" s="3">
+        <v>67300</v>
+      </c>
+      <c r="K8" s="3">
         <v>126000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>153300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>76600</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>75200</v>
+        <v>9200</v>
       </c>
       <c r="E9" s="3">
-        <v>33100</v>
+        <v>159100</v>
       </c>
       <c r="F9" s="3">
-        <v>6700</v>
+        <v>73400</v>
       </c>
       <c r="G9" s="3">
-        <v>38200</v>
+        <v>32300</v>
       </c>
       <c r="H9" s="3">
-        <v>61900</v>
+        <v>6500</v>
       </c>
       <c r="I9" s="3">
+        <v>37200</v>
+      </c>
+      <c r="J9" s="3">
+        <v>60400</v>
+      </c>
+      <c r="K9" s="3">
         <v>174600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>40600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>41600</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>21000</v>
+        <v>300</v>
       </c>
       <c r="E10" s="3">
+        <v>-94300</v>
+      </c>
+      <c r="F10" s="3">
+        <v>20500</v>
+      </c>
+      <c r="G10" s="3">
         <v>1500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>100</v>
       </c>
-      <c r="G10" s="3">
-        <v>1700</v>
-      </c>
-      <c r="H10" s="3">
-        <v>7000</v>
-      </c>
       <c r="I10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J10" s="3">
+        <v>6800</v>
+      </c>
+      <c r="K10" s="3">
         <v>-48500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>112800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,37 +838,45 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E12" s="3">
+        <v>8800</v>
+      </c>
+      <c r="F12" s="3">
+        <v>5200</v>
+      </c>
+      <c r="G12" s="3">
+        <v>5000</v>
+      </c>
+      <c r="H12" s="3">
+        <v>4400</v>
+      </c>
+      <c r="I12" s="3">
+        <v>7200</v>
+      </c>
+      <c r="J12" s="3">
+        <v>9500</v>
+      </c>
+      <c r="K12" s="3">
         <v>5500</v>
       </c>
-      <c r="E12" s="3">
-        <v>5200</v>
-      </c>
-      <c r="F12" s="3">
-        <v>4500</v>
-      </c>
-      <c r="G12" s="3">
-        <v>7300</v>
-      </c>
-      <c r="H12" s="3">
-        <v>9700</v>
-      </c>
-      <c r="I12" s="3">
-        <v>5500</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>4700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -871,8 +904,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -900,37 +939,49 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
+      <c r="D15" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +990,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>85700</v>
+        <v>19500</v>
       </c>
       <c r="E17" s="3">
-        <v>73200</v>
+        <v>177000</v>
       </c>
       <c r="F17" s="3">
-        <v>15100</v>
+        <v>83600</v>
       </c>
       <c r="G17" s="3">
-        <v>50500</v>
+        <v>71400</v>
       </c>
       <c r="H17" s="3">
-        <v>78800</v>
+        <v>14700</v>
       </c>
       <c r="I17" s="3">
+        <v>49300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>76800</v>
+      </c>
+      <c r="K17" s="3">
         <v>188800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>51000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>58400</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>10600</v>
+        <v>-10000</v>
       </c>
       <c r="E18" s="3">
-        <v>-38600</v>
+        <v>-112100</v>
       </c>
       <c r="F18" s="3">
-        <v>-8300</v>
+        <v>10300</v>
       </c>
       <c r="G18" s="3">
-        <v>-10700</v>
+        <v>-37600</v>
       </c>
       <c r="H18" s="3">
-        <v>-9800</v>
+        <v>-8100</v>
       </c>
       <c r="I18" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="K18" s="3">
         <v>-62800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>102400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1010,124 +1075,150 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>3400</v>
+        <v>4500</v>
       </c>
       <c r="E20" s="3">
+        <v>600</v>
+      </c>
+      <c r="F20" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G20" s="3">
         <v>1300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
-        <v>1500</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J20" s="3">
         <v>1700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>9800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>4300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3">
-        <v>16400</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-8500</v>
+      <c r="D21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-111000</v>
+      </c>
+      <c r="F21" s="3">
+        <v>14000</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="K21" s="3">
         <v>-52400</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
+        <v>200</v>
+      </c>
+      <c r="F22" s="3">
         <v>300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>500</v>
       </c>
-      <c r="F22" s="3">
-        <v>1900</v>
-      </c>
-      <c r="G22" s="3">
-        <v>2700</v>
-      </c>
       <c r="H22" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J22" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K22" s="3">
         <v>2400</v>
       </c>
-      <c r="I22" s="3">
-        <v>2400</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>13600</v>
+        <v>-5600</v>
       </c>
       <c r="E23" s="3">
-        <v>-37700</v>
+        <v>-111700</v>
       </c>
       <c r="F23" s="3">
-        <v>-9700</v>
+        <v>13200</v>
       </c>
       <c r="G23" s="3">
-        <v>-11900</v>
+        <v>-36800</v>
       </c>
       <c r="H23" s="3">
-        <v>-10500</v>
+        <v>-9500</v>
       </c>
       <c r="I23" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-55400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>106600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1141,22 +1232,28 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>-8000</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="J24" s="3">
         <v>-900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>6700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>13300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1281,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>13600</v>
+        <v>-5600</v>
       </c>
       <c r="E26" s="3">
-        <v>-37700</v>
+        <v>-111700</v>
       </c>
       <c r="F26" s="3">
-        <v>-9700</v>
+        <v>13200</v>
       </c>
       <c r="G26" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="I26" s="3">
         <v>-3900</v>
       </c>
-      <c r="H26" s="3">
-        <v>-9600</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-62200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>93300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>13600</v>
+        <v>-5600</v>
       </c>
       <c r="E27" s="3">
-        <v>-37700</v>
+        <v>-111700</v>
       </c>
       <c r="F27" s="3">
-        <v>-9700</v>
+        <v>13200</v>
       </c>
       <c r="G27" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="I27" s="3">
         <v>-3900</v>
       </c>
-      <c r="H27" s="3">
-        <v>-9600</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-62200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>93300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1386,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1421,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,66 +1491,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3400</v>
+        <v>-4500</v>
       </c>
       <c r="E32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J32" s="3">
         <v>-1700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-9800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-4300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>13600</v>
+        <v>-5600</v>
       </c>
       <c r="E33" s="3">
-        <v>-37700</v>
+        <v>-111700</v>
       </c>
       <c r="F33" s="3">
-        <v>-9700</v>
+        <v>13200</v>
       </c>
       <c r="G33" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="I33" s="3">
         <v>-3900</v>
       </c>
-      <c r="H33" s="3">
-        <v>-9600</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-62200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>93300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1596,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>13600</v>
+        <v>-5600</v>
       </c>
       <c r="E35" s="3">
-        <v>-37700</v>
+        <v>-111700</v>
       </c>
       <c r="F35" s="3">
-        <v>-9700</v>
+        <v>13200</v>
       </c>
       <c r="G35" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="I35" s="3">
         <v>-3900</v>
       </c>
-      <c r="H35" s="3">
-        <v>-9600</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-62200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>93300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,22 +1705,24 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>47700</v>
+        <v>37000</v>
       </c>
       <c r="E41" s="3">
-        <v>38800</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>16</v>
+        <v>73100</v>
+      </c>
+      <c r="F41" s="3">
+        <v>46600</v>
+      </c>
+      <c r="G41" s="3">
+        <v>37900</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>16</v>
@@ -1563,22 +1736,28 @@
       <c r="K41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>11600</v>
+        <v>24300</v>
       </c>
       <c r="E42" s="3">
-        <v>15900</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>16</v>
+        <v>1500</v>
+      </c>
+      <c r="F42" s="3">
+        <v>11300</v>
+      </c>
+      <c r="G42" s="3">
+        <v>15500</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>16</v>
@@ -1592,22 +1771,28 @@
       <c r="K42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>22100</v>
+        <v>1000</v>
       </c>
       <c r="E43" s="3">
-        <v>24300</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>16</v>
+        <v>22600</v>
+      </c>
+      <c r="F43" s="3">
+        <v>21600</v>
+      </c>
+      <c r="G43" s="3">
+        <v>23700</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>16</v>
@@ -1621,22 +1806,28 @@
       <c r="K43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>56300</v>
+        <v>31700</v>
       </c>
       <c r="E44" s="3">
-        <v>60200</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>16</v>
+        <v>27400</v>
+      </c>
+      <c r="F44" s="3">
+        <v>54900</v>
+      </c>
+      <c r="G44" s="3">
+        <v>58800</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>16</v>
@@ -1650,22 +1841,28 @@
       <c r="K44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>69600</v>
+        <v>36500</v>
       </c>
       <c r="E45" s="3">
-        <v>59600</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>16</v>
+        <v>7000</v>
+      </c>
+      <c r="F45" s="3">
+        <v>67900</v>
+      </c>
+      <c r="G45" s="3">
+        <v>58100</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>16</v>
@@ -1679,22 +1876,28 @@
       <c r="K45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>207400</v>
+        <v>130400</v>
       </c>
       <c r="E46" s="3">
-        <v>198700</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>16</v>
+        <v>131700</v>
+      </c>
+      <c r="F46" s="3">
+        <v>202300</v>
+      </c>
+      <c r="G46" s="3">
+        <v>193900</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>16</v>
@@ -1708,8 +1911,14 @@
       <c r="K46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1737,22 +1946,28 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>19700</v>
+        <v>5600</v>
       </c>
       <c r="E48" s="3">
-        <v>7500</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>16</v>
+        <v>6300</v>
+      </c>
+      <c r="F48" s="3">
+        <v>19300</v>
+      </c>
+      <c r="G48" s="3">
+        <v>7300</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>16</v>
@@ -1766,8 +1981,14 @@
       <c r="K48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1795,8 +2016,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,22 +2086,28 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>300</v>
+      </c>
+      <c r="E52" s="3">
+        <v>700</v>
+      </c>
+      <c r="F52" s="3">
         <v>1900</v>
       </c>
-      <c r="E52" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>16</v>
+      <c r="G52" s="3">
+        <v>900</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>16</v>
@@ -1882,8 +2121,14 @@
       <c r="K52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,22 +2156,28 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>229000</v>
+        <v>136300</v>
       </c>
       <c r="E54" s="3">
-        <v>207200</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>16</v>
+        <v>138800</v>
+      </c>
+      <c r="F54" s="3">
+        <v>223400</v>
+      </c>
+      <c r="G54" s="3">
+        <v>202100</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>16</v>
@@ -1940,8 +2191,14 @@
       <c r="K54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,22 +2225,24 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>10700</v>
+        <v>9200</v>
       </c>
       <c r="E57" s="3">
-        <v>9000</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>16</v>
+        <v>13900</v>
+      </c>
+      <c r="F57" s="3">
+        <v>10400</v>
+      </c>
+      <c r="G57" s="3">
+        <v>8700</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>16</v>
@@ -1995,22 +2256,28 @@
       <c r="K57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>35700</v>
+        <v>26500</v>
       </c>
       <c r="E58" s="3">
-        <v>28300</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>16</v>
+        <v>17800</v>
+      </c>
+      <c r="F58" s="3">
+        <v>34800</v>
+      </c>
+      <c r="G58" s="3">
+        <v>27600</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>16</v>
@@ -2024,22 +2291,28 @@
       <c r="K58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>49500</v>
+        <v>5100</v>
       </c>
       <c r="E59" s="3">
-        <v>50000</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>16</v>
+        <v>8200</v>
+      </c>
+      <c r="F59" s="3">
+        <v>48300</v>
+      </c>
+      <c r="G59" s="3">
+        <v>48800</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>16</v>
@@ -2053,22 +2326,28 @@
       <c r="K59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>95900</v>
+        <v>40900</v>
       </c>
       <c r="E60" s="3">
-        <v>87300</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>16</v>
+        <v>39900</v>
+      </c>
+      <c r="F60" s="3">
+        <v>93600</v>
+      </c>
+      <c r="G60" s="3">
+        <v>85200</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>16</v>
@@ -2082,8 +2361,14 @@
       <c r="K60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2111,22 +2396,28 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F62" s="3">
         <v>2500</v>
       </c>
-      <c r="E62" s="3">
-        <v>2700</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>16</v>
+      <c r="G62" s="3">
+        <v>2600</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>16</v>
@@ -2140,8 +2431,14 @@
       <c r="K62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,22 +2536,28 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>98500</v>
+        <v>43800</v>
       </c>
       <c r="E66" s="3">
-        <v>90000</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>16</v>
+        <v>41800</v>
+      </c>
+      <c r="F66" s="3">
+        <v>96100</v>
+      </c>
+      <c r="G66" s="3">
+        <v>87800</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>16</v>
@@ -2256,8 +2571,14 @@
       <c r="K66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2656,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2691,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,22 +2726,28 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-12200</v>
+        <v>-129200</v>
       </c>
       <c r="E72" s="3">
-        <v>-25800</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>16</v>
+        <v>-123600</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-25100</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>16</v>
@@ -2414,8 +2761,14 @@
       <c r="K72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,22 +2866,28 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>130500</v>
+        <v>92500</v>
       </c>
       <c r="E76" s="3">
-        <v>117200</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>16</v>
+        <v>97000</v>
+      </c>
+      <c r="F76" s="3">
+        <v>127300</v>
+      </c>
+      <c r="G76" s="3">
+        <v>114400</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>16</v>
@@ -2530,8 +2901,14 @@
       <c r="K76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2936,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>13600</v>
+        <v>-5600</v>
       </c>
       <c r="E81" s="3">
-        <v>-37700</v>
+        <v>-111700</v>
       </c>
       <c r="F81" s="3">
-        <v>-9700</v>
+        <v>13200</v>
       </c>
       <c r="G81" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="I81" s="3">
         <v>-3900</v>
       </c>
-      <c r="H81" s="3">
-        <v>-9600</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-62200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>93300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,22 +3030,24 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>2500</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G83" s="3">
-        <v>700</v>
+      <c r="D83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E83" s="3">
+        <v>500</v>
+      </c>
+      <c r="F83" s="3">
+        <v>500</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>16</v>
@@ -2664,8 +3061,14 @@
       <c r="K83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,22 +3236,28 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-37700</v>
+      </c>
+      <c r="F89" s="3">
         <v>-2400</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G89" s="3">
-        <v>21600</v>
+      <c r="G89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>16</v>
@@ -2838,8 +3271,14 @@
       <c r="K89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,22 +3290,24 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-500</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-1200</v>
+      <c r="G91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>16</v>
@@ -2880,8 +3321,14 @@
       <c r="K91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,22 +3391,28 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>4000</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-1000</v>
+      <c r="D94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E94" s="3">
+        <v>9500</v>
+      </c>
+      <c r="F94" s="3">
+        <v>3900</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>16</v>
@@ -2967,8 +3426,14 @@
       <c r="K94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3445,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3476,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,22 +3581,28 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>7100</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G100" s="3">
-        <v>7200</v>
+      <c r="D100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E100" s="3">
+        <v>55600</v>
+      </c>
+      <c r="F100" s="3">
+        <v>6900</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>16</v>
@@ -3125,22 +3616,28 @@
       <c r="K100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
+      <c r="G101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>16</v>
@@ -3154,22 +3651,28 @@
       <c r="K101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>8900</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G102" s="3">
-        <v>27700</v>
+      <c r="D102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E102" s="3">
+        <v>26900</v>
+      </c>
+      <c r="F102" s="3">
+        <v>8700</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>16</v>
@@ -3181,6 +3684,12 @@
         <v>16</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CAN_QTR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9600</v>
+        <v>9900</v>
       </c>
       <c r="E8" s="3">
-        <v>64800</v>
+        <v>67300</v>
       </c>
       <c r="F8" s="3">
-        <v>93900</v>
+        <v>97400</v>
       </c>
       <c r="G8" s="3">
-        <v>33800</v>
+        <v>35100</v>
       </c>
       <c r="H8" s="3">
-        <v>6600</v>
+        <v>6900</v>
       </c>
       <c r="I8" s="3">
-        <v>38900</v>
+        <v>40300</v>
       </c>
       <c r="J8" s="3">
-        <v>67300</v>
+        <v>69800</v>
       </c>
       <c r="K8" s="3">
         <v>126000</v>
@@ -761,25 +761,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9200</v>
+        <v>9600</v>
       </c>
       <c r="E9" s="3">
-        <v>159100</v>
+        <v>165100</v>
       </c>
       <c r="F9" s="3">
-        <v>73400</v>
+        <v>76200</v>
       </c>
       <c r="G9" s="3">
-        <v>32300</v>
+        <v>33500</v>
       </c>
       <c r="H9" s="3">
-        <v>6500</v>
+        <v>6800</v>
       </c>
       <c r="I9" s="3">
-        <v>37200</v>
+        <v>38600</v>
       </c>
       <c r="J9" s="3">
-        <v>60400</v>
+        <v>62700</v>
       </c>
       <c r="K9" s="3">
         <v>174600</v>
@@ -796,25 +796,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E10" s="3">
-        <v>-94300</v>
+        <v>-97800</v>
       </c>
       <c r="F10" s="3">
-        <v>20500</v>
+        <v>21200</v>
       </c>
       <c r="G10" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="H10" s="3">
         <v>100</v>
       </c>
       <c r="I10" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="J10" s="3">
-        <v>6800</v>
+        <v>7100</v>
       </c>
       <c r="K10" s="3">
         <v>-48500</v>
@@ -846,25 +846,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>5800</v>
+        <v>6100</v>
       </c>
       <c r="E12" s="3">
-        <v>8800</v>
+        <v>9100</v>
       </c>
       <c r="F12" s="3">
+        <v>5400</v>
+      </c>
+      <c r="G12" s="3">
         <v>5200</v>
       </c>
-      <c r="G12" s="3">
-        <v>5000</v>
-      </c>
       <c r="H12" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="I12" s="3">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="J12" s="3">
-        <v>9500</v>
+        <v>9800</v>
       </c>
       <c r="K12" s="3">
         <v>5500</v>
@@ -998,25 +998,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>19500</v>
+        <v>20200</v>
       </c>
       <c r="E17" s="3">
-        <v>177000</v>
+        <v>183600</v>
       </c>
       <c r="F17" s="3">
-        <v>83600</v>
+        <v>86700</v>
       </c>
       <c r="G17" s="3">
-        <v>71400</v>
+        <v>74100</v>
       </c>
       <c r="H17" s="3">
-        <v>14700</v>
+        <v>15300</v>
       </c>
       <c r="I17" s="3">
-        <v>49300</v>
+        <v>51200</v>
       </c>
       <c r="J17" s="3">
-        <v>76800</v>
+        <v>79700</v>
       </c>
       <c r="K17" s="3">
         <v>188800</v>
@@ -1033,25 +1033,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-10000</v>
+        <v>-10300</v>
       </c>
       <c r="E18" s="3">
-        <v>-112100</v>
+        <v>-116400</v>
       </c>
       <c r="F18" s="3">
-        <v>10300</v>
+        <v>10700</v>
       </c>
       <c r="G18" s="3">
-        <v>-37600</v>
+        <v>-39100</v>
       </c>
       <c r="H18" s="3">
-        <v>-8100</v>
+        <v>-8400</v>
       </c>
       <c r="I18" s="3">
-        <v>-10400</v>
+        <v>-10800</v>
       </c>
       <c r="J18" s="3">
-        <v>-9600</v>
+        <v>-9900</v>
       </c>
       <c r="K18" s="3">
         <v>-62800</v>
@@ -1083,25 +1083,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="E20" s="3">
         <v>600</v>
       </c>
       <c r="F20" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="G20" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="H20" s="3">
         <v>400</v>
       </c>
       <c r="I20" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="J20" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="K20" s="3">
         <v>9800</v>
@@ -1121,10 +1121,10 @@
         <v>16</v>
       </c>
       <c r="E21" s="3">
-        <v>-111000</v>
+        <v>-115200</v>
       </c>
       <c r="F21" s="3">
-        <v>14000</v>
+        <v>14600</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>16</v>
@@ -1136,7 +1136,7 @@
         <v>16</v>
       </c>
       <c r="J21" s="3">
-        <v>-6700</v>
+        <v>-7000</v>
       </c>
       <c r="K21" s="3">
         <v>-52400</v>
@@ -1165,13 +1165,13 @@
         <v>500</v>
       </c>
       <c r="H22" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="I22" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="J22" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="K22" s="3">
         <v>2400</v>
@@ -1188,25 +1188,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-5600</v>
+        <v>-5800</v>
       </c>
       <c r="E23" s="3">
-        <v>-111700</v>
+        <v>-115900</v>
       </c>
       <c r="F23" s="3">
-        <v>13200</v>
+        <v>13700</v>
       </c>
       <c r="G23" s="3">
-        <v>-36800</v>
+        <v>-38200</v>
       </c>
       <c r="H23" s="3">
-        <v>-9500</v>
+        <v>-9900</v>
       </c>
       <c r="I23" s="3">
-        <v>-11600</v>
+        <v>-12100</v>
       </c>
       <c r="J23" s="3">
-        <v>-10200</v>
+        <v>-10600</v>
       </c>
       <c r="K23" s="3">
         <v>-55400</v>
@@ -1238,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
-        <v>-7800</v>
+        <v>-8100</v>
       </c>
       <c r="J24" s="3">
         <v>-900</v>
@@ -1293,25 +1293,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-5600</v>
+        <v>-5800</v>
       </c>
       <c r="E26" s="3">
-        <v>-111700</v>
+        <v>-115900</v>
       </c>
       <c r="F26" s="3">
-        <v>13200</v>
+        <v>13700</v>
       </c>
       <c r="G26" s="3">
-        <v>-36800</v>
+        <v>-38200</v>
       </c>
       <c r="H26" s="3">
-        <v>-9500</v>
+        <v>-9900</v>
       </c>
       <c r="I26" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="J26" s="3">
-        <v>-9400</v>
+        <v>-9700</v>
       </c>
       <c r="K26" s="3">
         <v>-62200</v>
@@ -1328,25 +1328,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-5600</v>
+        <v>-5800</v>
       </c>
       <c r="E27" s="3">
-        <v>-111700</v>
+        <v>-115900</v>
       </c>
       <c r="F27" s="3">
-        <v>13200</v>
+        <v>13700</v>
       </c>
       <c r="G27" s="3">
-        <v>-36800</v>
+        <v>-38200</v>
       </c>
       <c r="H27" s="3">
-        <v>-9500</v>
+        <v>-9900</v>
       </c>
       <c r="I27" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="J27" s="3">
-        <v>-9400</v>
+        <v>-9700</v>
       </c>
       <c r="K27" s="3">
         <v>-62200</v>
@@ -1503,25 +1503,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-4500</v>
+        <v>-4700</v>
       </c>
       <c r="E32" s="3">
         <v>-600</v>
       </c>
       <c r="F32" s="3">
-        <v>-3300</v>
+        <v>-3400</v>
       </c>
       <c r="G32" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="H32" s="3">
         <v>-400</v>
       </c>
       <c r="I32" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="J32" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="K32" s="3">
         <v>-9800</v>
@@ -1538,25 +1538,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-5600</v>
+        <v>-5800</v>
       </c>
       <c r="E33" s="3">
-        <v>-111700</v>
+        <v>-115900</v>
       </c>
       <c r="F33" s="3">
-        <v>13200</v>
+        <v>13700</v>
       </c>
       <c r="G33" s="3">
-        <v>-36800</v>
+        <v>-38200</v>
       </c>
       <c r="H33" s="3">
-        <v>-9500</v>
+        <v>-9900</v>
       </c>
       <c r="I33" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="J33" s="3">
-        <v>-9400</v>
+        <v>-9700</v>
       </c>
       <c r="K33" s="3">
         <v>-62200</v>
@@ -1608,25 +1608,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-5600</v>
+        <v>-5800</v>
       </c>
       <c r="E35" s="3">
-        <v>-111700</v>
+        <v>-115900</v>
       </c>
       <c r="F35" s="3">
-        <v>13200</v>
+        <v>13700</v>
       </c>
       <c r="G35" s="3">
-        <v>-36800</v>
+        <v>-38200</v>
       </c>
       <c r="H35" s="3">
-        <v>-9500</v>
+        <v>-9900</v>
       </c>
       <c r="I35" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="J35" s="3">
-        <v>-9400</v>
+        <v>-9700</v>
       </c>
       <c r="K35" s="3">
         <v>-62200</v>
@@ -1713,16 +1713,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>37000</v>
+        <v>38400</v>
       </c>
       <c r="E41" s="3">
-        <v>73100</v>
+        <v>75900</v>
       </c>
       <c r="F41" s="3">
-        <v>46600</v>
+        <v>48300</v>
       </c>
       <c r="G41" s="3">
-        <v>37900</v>
+        <v>39300</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>16</v>
@@ -1748,16 +1748,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>24300</v>
+        <v>25200</v>
       </c>
       <c r="E42" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="F42" s="3">
-        <v>11300</v>
+        <v>11800</v>
       </c>
       <c r="G42" s="3">
-        <v>15500</v>
+        <v>16100</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>16</v>
@@ -1786,13 +1786,13 @@
         <v>1000</v>
       </c>
       <c r="E43" s="3">
-        <v>22600</v>
+        <v>23400</v>
       </c>
       <c r="F43" s="3">
-        <v>21600</v>
+        <v>22400</v>
       </c>
       <c r="G43" s="3">
-        <v>23700</v>
+        <v>24600</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>16</v>
@@ -1818,16 +1818,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>31700</v>
+        <v>32900</v>
       </c>
       <c r="E44" s="3">
-        <v>27400</v>
+        <v>28500</v>
       </c>
       <c r="F44" s="3">
-        <v>54900</v>
+        <v>56900</v>
       </c>
       <c r="G44" s="3">
-        <v>58800</v>
+        <v>61000</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>16</v>
@@ -1853,16 +1853,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>36500</v>
+        <v>37800</v>
       </c>
       <c r="E45" s="3">
-        <v>7000</v>
+        <v>7300</v>
       </c>
       <c r="F45" s="3">
-        <v>67900</v>
+        <v>70500</v>
       </c>
       <c r="G45" s="3">
-        <v>58100</v>
+        <v>60300</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>16</v>
@@ -1888,16 +1888,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>130400</v>
+        <v>135300</v>
       </c>
       <c r="E46" s="3">
-        <v>131700</v>
+        <v>136600</v>
       </c>
       <c r="F46" s="3">
-        <v>202300</v>
+        <v>209900</v>
       </c>
       <c r="G46" s="3">
-        <v>193900</v>
+        <v>201200</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>16</v>
@@ -1958,16 +1958,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="E48" s="3">
-        <v>6300</v>
+        <v>6600</v>
       </c>
       <c r="F48" s="3">
-        <v>19300</v>
+        <v>20000</v>
       </c>
       <c r="G48" s="3">
-        <v>7300</v>
+        <v>7600</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>16</v>
@@ -2101,13 +2101,13 @@
         <v>300</v>
       </c>
       <c r="E52" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F52" s="3">
         <v>1900</v>
       </c>
       <c r="G52" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>16</v>
@@ -2168,16 +2168,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>136300</v>
+        <v>141500</v>
       </c>
       <c r="E54" s="3">
-        <v>138800</v>
+        <v>144000</v>
       </c>
       <c r="F54" s="3">
-        <v>223400</v>
+        <v>231800</v>
       </c>
       <c r="G54" s="3">
-        <v>202100</v>
+        <v>209700</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>16</v>
@@ -2233,16 +2233,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9200</v>
+        <v>9600</v>
       </c>
       <c r="E57" s="3">
-        <v>13900</v>
+        <v>14400</v>
       </c>
       <c r="F57" s="3">
-        <v>10400</v>
+        <v>10800</v>
       </c>
       <c r="G57" s="3">
-        <v>8700</v>
+        <v>9100</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>16</v>
@@ -2268,16 +2268,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>26500</v>
+        <v>27500</v>
       </c>
       <c r="E58" s="3">
-        <v>17800</v>
+        <v>18500</v>
       </c>
       <c r="F58" s="3">
-        <v>34800</v>
+        <v>36100</v>
       </c>
       <c r="G58" s="3">
-        <v>27600</v>
+        <v>28600</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>16</v>
@@ -2303,16 +2303,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="E59" s="3">
-        <v>8200</v>
+        <v>8500</v>
       </c>
       <c r="F59" s="3">
-        <v>48300</v>
+        <v>50100</v>
       </c>
       <c r="G59" s="3">
-        <v>48800</v>
+        <v>50700</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>16</v>
@@ -2338,16 +2338,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>40900</v>
+        <v>42400</v>
       </c>
       <c r="E60" s="3">
-        <v>39900</v>
+        <v>41400</v>
       </c>
       <c r="F60" s="3">
-        <v>93600</v>
+        <v>97100</v>
       </c>
       <c r="G60" s="3">
-        <v>85200</v>
+        <v>88400</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>16</v>
@@ -2408,16 +2408,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="E62" s="3">
         <v>1900</v>
       </c>
       <c r="F62" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="G62" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>16</v>
@@ -2548,16 +2548,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>43800</v>
+        <v>45500</v>
       </c>
       <c r="E66" s="3">
-        <v>41800</v>
+        <v>43400</v>
       </c>
       <c r="F66" s="3">
-        <v>96100</v>
+        <v>99700</v>
       </c>
       <c r="G66" s="3">
-        <v>87800</v>
+        <v>91100</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>16</v>
@@ -2738,16 +2738,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-129200</v>
+        <v>-134100</v>
       </c>
       <c r="E72" s="3">
-        <v>-123600</v>
+        <v>-128300</v>
       </c>
       <c r="F72" s="3">
-        <v>-11900</v>
+        <v>-12400</v>
       </c>
       <c r="G72" s="3">
-        <v>-25100</v>
+        <v>-26100</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>16</v>
@@ -2878,16 +2878,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>92500</v>
+        <v>96000</v>
       </c>
       <c r="E76" s="3">
-        <v>97000</v>
+        <v>100600</v>
       </c>
       <c r="F76" s="3">
-        <v>127300</v>
+        <v>132100</v>
       </c>
       <c r="G76" s="3">
-        <v>114400</v>
+        <v>118700</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>16</v>
@@ -2988,25 +2988,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-5600</v>
+        <v>-5800</v>
       </c>
       <c r="E81" s="3">
-        <v>-111700</v>
+        <v>-115900</v>
       </c>
       <c r="F81" s="3">
-        <v>13200</v>
+        <v>13700</v>
       </c>
       <c r="G81" s="3">
-        <v>-36800</v>
+        <v>-38200</v>
       </c>
       <c r="H81" s="3">
-        <v>-9500</v>
+        <v>-9900</v>
       </c>
       <c r="I81" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="J81" s="3">
-        <v>-9400</v>
+        <v>-9700</v>
       </c>
       <c r="K81" s="3">
         <v>-62200</v>
@@ -3251,10 +3251,10 @@
         <v>16</v>
       </c>
       <c r="E89" s="3">
-        <v>-37700</v>
+        <v>-39100</v>
       </c>
       <c r="F89" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>16</v>
@@ -3406,10 +3406,10 @@
         <v>16</v>
       </c>
       <c r="E94" s="3">
-        <v>9500</v>
+        <v>9900</v>
       </c>
       <c r="F94" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>16</v>
@@ -3596,10 +3596,10 @@
         <v>16</v>
       </c>
       <c r="E100" s="3">
-        <v>55600</v>
+        <v>57700</v>
       </c>
       <c r="F100" s="3">
-        <v>6900</v>
+        <v>7200</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>16</v>
@@ -3666,10 +3666,10 @@
         <v>16</v>
       </c>
       <c r="E102" s="3">
-        <v>26900</v>
+        <v>27900</v>
       </c>
       <c r="F102" s="3">
-        <v>8700</v>
+        <v>9000</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>16</v>

--- a/AAII_Financials/Quarterly/CAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="92">
   <si>
     <t>CAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,194 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9900</v>
+        <v>24800</v>
       </c>
       <c r="E8" s="3">
-        <v>67300</v>
+        <v>27100</v>
       </c>
       <c r="F8" s="3">
-        <v>97400</v>
+        <v>10400</v>
       </c>
       <c r="G8" s="3">
-        <v>35100</v>
+        <v>70500</v>
       </c>
       <c r="H8" s="3">
-        <v>6900</v>
+        <v>102000</v>
       </c>
       <c r="I8" s="3">
+        <v>36700</v>
+      </c>
+      <c r="J8" s="3">
+        <v>7200</v>
+      </c>
+      <c r="K8" s="3">
         <v>40300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>69800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>126000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>153300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>76600</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9600</v>
+        <v>27400</v>
       </c>
       <c r="E9" s="3">
-        <v>165100</v>
+        <v>20500</v>
       </c>
       <c r="F9" s="3">
-        <v>76200</v>
+        <v>10000</v>
       </c>
       <c r="G9" s="3">
-        <v>33500</v>
+        <v>172900</v>
       </c>
       <c r="H9" s="3">
-        <v>6800</v>
+        <v>79800</v>
       </c>
       <c r="I9" s="3">
+        <v>35100</v>
+      </c>
+      <c r="J9" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K9" s="3">
         <v>38600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>62700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>174600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>40600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>41600</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F10" s="3">
         <v>400</v>
       </c>
-      <c r="E10" s="3">
-        <v>-97800</v>
-      </c>
-      <c r="F10" s="3">
-        <v>21200</v>
-      </c>
       <c r="G10" s="3">
+        <v>-102400</v>
+      </c>
+      <c r="H10" s="3">
+        <v>22200</v>
+      </c>
+      <c r="I10" s="3">
         <v>1600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>7100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>-48500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>112800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,43 +866,51 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>6100</v>
+        <v>4900</v>
       </c>
       <c r="E12" s="3">
-        <v>9100</v>
+        <v>4000</v>
       </c>
       <c r="F12" s="3">
-        <v>5400</v>
+        <v>6400</v>
       </c>
       <c r="G12" s="3">
-        <v>5200</v>
+        <v>9500</v>
       </c>
       <c r="H12" s="3">
-        <v>4500</v>
+        <v>5700</v>
       </c>
       <c r="I12" s="3">
+        <v>5500</v>
+      </c>
+      <c r="J12" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K12" s="3">
         <v>7400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>9800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>5500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>4700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -910,8 +944,14 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -945,43 +985,55 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="3">
         <v>400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>400</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I15" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1044,92 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>20200</v>
+        <v>38900</v>
       </c>
       <c r="E17" s="3">
-        <v>183600</v>
+        <v>30000</v>
       </c>
       <c r="F17" s="3">
-        <v>86700</v>
+        <v>21200</v>
       </c>
       <c r="G17" s="3">
-        <v>74100</v>
+        <v>192300</v>
       </c>
       <c r="H17" s="3">
-        <v>15300</v>
+        <v>90800</v>
       </c>
       <c r="I17" s="3">
+        <v>77700</v>
+      </c>
+      <c r="J17" s="3">
+        <v>16000</v>
+      </c>
+      <c r="K17" s="3">
         <v>51200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>79700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>188800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>51000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>58400</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-10300</v>
+        <v>-14100</v>
       </c>
       <c r="E18" s="3">
-        <v>-116400</v>
+        <v>-2900</v>
       </c>
       <c r="F18" s="3">
-        <v>10700</v>
+        <v>-10800</v>
       </c>
       <c r="G18" s="3">
-        <v>-39100</v>
+        <v>-121900</v>
       </c>
       <c r="H18" s="3">
-        <v>-8400</v>
+        <v>11200</v>
       </c>
       <c r="I18" s="3">
+        <v>-40900</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="K18" s="3">
         <v>-10800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-9900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-62800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>102400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1077,148 +1143,174 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>4700</v>
+        <v>1100</v>
       </c>
       <c r="E20" s="3">
         <v>600</v>
       </c>
       <c r="F20" s="3">
-        <v>3400</v>
+        <v>4900</v>
       </c>
       <c r="G20" s="3">
+        <v>700</v>
+      </c>
+      <c r="H20" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I20" s="3">
         <v>1400</v>
       </c>
-      <c r="H20" s="3">
-        <v>400</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>500</v>
+      </c>
+      <c r="K20" s="3">
         <v>1500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>1800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>9800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>4300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="3">
-        <v>-115200</v>
-      </c>
-      <c r="F21" s="3">
-        <v>14600</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>16</v>
+      <c r="E21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-120700</v>
+      </c>
+      <c r="H21" s="3">
+        <v>15300</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="3">
         <v>-7000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-52400</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>200</v>
       </c>
       <c r="F22" s="3">
+        <v>200</v>
+      </c>
+      <c r="G22" s="3">
+        <v>200</v>
+      </c>
+      <c r="H22" s="3">
         <v>300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>500</v>
       </c>
-      <c r="H22" s="3">
-        <v>1900</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K22" s="3">
         <v>2700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>2400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>2400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-5800</v>
+        <v>-13100</v>
       </c>
       <c r="E23" s="3">
-        <v>-115900</v>
+        <v>-2500</v>
       </c>
       <c r="F23" s="3">
-        <v>13700</v>
+        <v>-6100</v>
       </c>
       <c r="G23" s="3">
-        <v>-38200</v>
+        <v>-121400</v>
       </c>
       <c r="H23" s="3">
-        <v>-9900</v>
+        <v>14400</v>
       </c>
       <c r="I23" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-12100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-10600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-55400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>106600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1238,22 +1330,28 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-8100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>6700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>13300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1385,96 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-5800</v>
+        <v>-13100</v>
       </c>
       <c r="E26" s="3">
-        <v>-115900</v>
+        <v>-2600</v>
       </c>
       <c r="F26" s="3">
-        <v>13700</v>
+        <v>-6100</v>
       </c>
       <c r="G26" s="3">
-        <v>-38200</v>
+        <v>-121400</v>
       </c>
       <c r="H26" s="3">
-        <v>-9900</v>
+        <v>14400</v>
       </c>
       <c r="I26" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-4000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-9700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-62200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>93300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-5800</v>
+        <v>-13100</v>
       </c>
       <c r="E27" s="3">
-        <v>-115900</v>
+        <v>-2600</v>
       </c>
       <c r="F27" s="3">
-        <v>13700</v>
+        <v>-6100</v>
       </c>
       <c r="G27" s="3">
-        <v>-38200</v>
+        <v>-121400</v>
       </c>
       <c r="H27" s="3">
-        <v>-9900</v>
+        <v>14400</v>
       </c>
       <c r="I27" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-4000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-9700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-62200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>93300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1508,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1549,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1590,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1631,96 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-4700</v>
+        <v>-1100</v>
       </c>
       <c r="E32" s="3">
         <v>-600</v>
       </c>
       <c r="F32" s="3">
-        <v>-3400</v>
+        <v>-4900</v>
       </c>
       <c r="G32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="I32" s="3">
         <v>-1400</v>
       </c>
-      <c r="H32" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-1800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-9800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-4300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-5800</v>
+        <v>-13100</v>
       </c>
       <c r="E33" s="3">
-        <v>-115900</v>
+        <v>-2600</v>
       </c>
       <c r="F33" s="3">
-        <v>13700</v>
+        <v>-6100</v>
       </c>
       <c r="G33" s="3">
-        <v>-38200</v>
+        <v>-121400</v>
       </c>
       <c r="H33" s="3">
-        <v>-9900</v>
+        <v>14400</v>
       </c>
       <c r="I33" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-4000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-9700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-62200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>93300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1754,101 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-5800</v>
+        <v>-13100</v>
       </c>
       <c r="E35" s="3">
-        <v>-115900</v>
+        <v>-2600</v>
       </c>
       <c r="F35" s="3">
-        <v>13700</v>
+        <v>-6100</v>
       </c>
       <c r="G35" s="3">
-        <v>-38200</v>
+        <v>-121400</v>
       </c>
       <c r="H35" s="3">
-        <v>-9900</v>
+        <v>14400</v>
       </c>
       <c r="I35" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-4000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-9700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-62200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>93300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1862,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,28 +1879,30 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>38400</v>
+        <v>27000</v>
       </c>
       <c r="E41" s="3">
-        <v>75900</v>
+        <v>23900</v>
       </c>
       <c r="F41" s="3">
-        <v>48300</v>
+        <v>40200</v>
       </c>
       <c r="G41" s="3">
-        <v>39300</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>16</v>
+        <v>79500</v>
+      </c>
+      <c r="H41" s="3">
+        <v>50600</v>
+      </c>
+      <c r="I41" s="3">
+        <v>41100</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>16</v>
@@ -1742,28 +1916,34 @@
       <c r="M41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>25200</v>
+        <v>31100</v>
       </c>
       <c r="E42" s="3">
-        <v>1600</v>
+        <v>52900</v>
       </c>
       <c r="F42" s="3">
-        <v>11800</v>
+        <v>26400</v>
       </c>
       <c r="G42" s="3">
-        <v>16100</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>16</v>
+        <v>1700</v>
+      </c>
+      <c r="H42" s="3">
+        <v>12300</v>
+      </c>
+      <c r="I42" s="3">
+        <v>16800</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>16</v>
@@ -1777,28 +1957,34 @@
       <c r="M42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F43" s="3">
         <v>1000</v>
       </c>
-      <c r="E43" s="3">
-        <v>23400</v>
-      </c>
-      <c r="F43" s="3">
-        <v>22400</v>
-      </c>
       <c r="G43" s="3">
-        <v>24600</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>16</v>
+        <v>24500</v>
+      </c>
+      <c r="H43" s="3">
+        <v>23500</v>
+      </c>
+      <c r="I43" s="3">
+        <v>25700</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>16</v>
@@ -1812,28 +1998,34 @@
       <c r="M43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>32900</v>
+        <v>8100</v>
       </c>
       <c r="E44" s="3">
-        <v>28500</v>
+        <v>13400</v>
       </c>
       <c r="F44" s="3">
-        <v>56900</v>
+        <v>34500</v>
       </c>
       <c r="G44" s="3">
-        <v>61000</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>16</v>
+        <v>29800</v>
+      </c>
+      <c r="H44" s="3">
+        <v>59600</v>
+      </c>
+      <c r="I44" s="3">
+        <v>63900</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>16</v>
@@ -1847,28 +2039,34 @@
       <c r="M44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>37800</v>
+        <v>38200</v>
       </c>
       <c r="E45" s="3">
-        <v>7300</v>
+        <v>27400</v>
       </c>
       <c r="F45" s="3">
-        <v>70500</v>
+        <v>39600</v>
       </c>
       <c r="G45" s="3">
-        <v>60300</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>16</v>
+        <v>7600</v>
+      </c>
+      <c r="H45" s="3">
+        <v>73800</v>
+      </c>
+      <c r="I45" s="3">
+        <v>63100</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>16</v>
@@ -1882,28 +2080,34 @@
       <c r="M45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>135300</v>
+        <v>104400</v>
       </c>
       <c r="E46" s="3">
-        <v>136600</v>
+        <v>119200</v>
       </c>
       <c r="F46" s="3">
-        <v>209900</v>
+        <v>141700</v>
       </c>
       <c r="G46" s="3">
-        <v>201200</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>16</v>
+        <v>143100</v>
+      </c>
+      <c r="H46" s="3">
+        <v>219800</v>
+      </c>
+      <c r="I46" s="3">
+        <v>210700</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>16</v>
@@ -1917,31 +2121,37 @@
       <c r="M46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -1952,28 +2162,34 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5800</v>
+        <v>5100</v>
       </c>
       <c r="E48" s="3">
-        <v>6600</v>
+        <v>18800</v>
       </c>
       <c r="F48" s="3">
-        <v>20000</v>
+        <v>6100</v>
       </c>
       <c r="G48" s="3">
-        <v>7600</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>16</v>
+        <v>6900</v>
+      </c>
+      <c r="H48" s="3">
+        <v>20900</v>
+      </c>
+      <c r="I48" s="3">
+        <v>8000</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>16</v>
@@ -1987,8 +2203,14 @@
       <c r="M48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2022,8 +2244,14 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2285,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,29 +2326,35 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>400</v>
+      </c>
+      <c r="E52" s="3">
         <v>300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
+        <v>300</v>
+      </c>
+      <c r="G52" s="3">
         <v>800</v>
       </c>
-      <c r="F52" s="3">
-        <v>1900</v>
-      </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I52" s="3">
         <v>1000</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>16</v>
       </c>
@@ -2127,8 +2367,14 @@
       <c r="M52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,28 +2408,34 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>141500</v>
+        <v>110300</v>
       </c>
       <c r="E54" s="3">
-        <v>144000</v>
+        <v>138300</v>
       </c>
       <c r="F54" s="3">
-        <v>231800</v>
+        <v>148200</v>
       </c>
       <c r="G54" s="3">
-        <v>209700</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>16</v>
+        <v>150800</v>
+      </c>
+      <c r="H54" s="3">
+        <v>242800</v>
+      </c>
+      <c r="I54" s="3">
+        <v>219700</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>16</v>
@@ -2197,8 +2449,14 @@
       <c r="M54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2470,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,28 +2487,30 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9600</v>
+        <v>1600</v>
       </c>
       <c r="E57" s="3">
-        <v>14400</v>
+        <v>2500</v>
       </c>
       <c r="F57" s="3">
-        <v>10800</v>
+        <v>10000</v>
       </c>
       <c r="G57" s="3">
-        <v>9100</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>16</v>
+        <v>15100</v>
+      </c>
+      <c r="H57" s="3">
+        <v>11300</v>
+      </c>
+      <c r="I57" s="3">
+        <v>9500</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>16</v>
@@ -2262,28 +2524,34 @@
       <c r="M57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>27500</v>
+        <v>7400</v>
       </c>
       <c r="E58" s="3">
-        <v>18500</v>
+        <v>29800</v>
       </c>
       <c r="F58" s="3">
-        <v>36100</v>
+        <v>28800</v>
       </c>
       <c r="G58" s="3">
-        <v>28600</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>16</v>
+        <v>19400</v>
+      </c>
+      <c r="H58" s="3">
+        <v>37900</v>
+      </c>
+      <c r="I58" s="3">
+        <v>30000</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>16</v>
@@ -2297,28 +2565,34 @@
       <c r="M58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5300</v>
+        <v>16300</v>
       </c>
       <c r="E59" s="3">
-        <v>8500</v>
+        <v>5200</v>
       </c>
       <c r="F59" s="3">
-        <v>50100</v>
+        <v>5600</v>
       </c>
       <c r="G59" s="3">
-        <v>50700</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>16</v>
+        <v>8900</v>
+      </c>
+      <c r="H59" s="3">
+        <v>52500</v>
+      </c>
+      <c r="I59" s="3">
+        <v>53100</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>16</v>
@@ -2332,28 +2606,34 @@
       <c r="M59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>42400</v>
+        <v>25300</v>
       </c>
       <c r="E60" s="3">
-        <v>41400</v>
+        <v>37500</v>
       </c>
       <c r="F60" s="3">
-        <v>97100</v>
+        <v>44400</v>
       </c>
       <c r="G60" s="3">
-        <v>88400</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>16</v>
+        <v>43400</v>
+      </c>
+      <c r="H60" s="3">
+        <v>101700</v>
+      </c>
+      <c r="I60" s="3">
+        <v>92600</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>16</v>
@@ -2367,8 +2647,14 @@
       <c r="M60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2402,28 +2688,34 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3100</v>
+        <v>2300</v>
       </c>
       <c r="E62" s="3">
-        <v>1900</v>
+        <v>2600</v>
       </c>
       <c r="F62" s="3">
-        <v>2600</v>
+        <v>3200</v>
       </c>
       <c r="G62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H62" s="3">
         <v>2700</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>16</v>
+      <c r="I62" s="3">
+        <v>2800</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>16</v>
@@ -2437,8 +2729,14 @@
       <c r="M62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2770,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2811,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,28 +2852,34 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>45500</v>
+        <v>27600</v>
       </c>
       <c r="E66" s="3">
-        <v>43400</v>
+        <v>40100</v>
       </c>
       <c r="F66" s="3">
-        <v>99700</v>
+        <v>47600</v>
       </c>
       <c r="G66" s="3">
-        <v>91100</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>16</v>
+        <v>45400</v>
+      </c>
+      <c r="H66" s="3">
+        <v>104400</v>
+      </c>
+      <c r="I66" s="3">
+        <v>95400</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>16</v>
@@ -2577,8 +2893,14 @@
       <c r="M66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2914,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2951,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2992,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +3033,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,28 +3074,34 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-134100</v>
+        <v>-156100</v>
       </c>
       <c r="E72" s="3">
-        <v>-128300</v>
+        <v>-143000</v>
       </c>
       <c r="F72" s="3">
-        <v>-12400</v>
+        <v>-140400</v>
       </c>
       <c r="G72" s="3">
-        <v>-26100</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>16</v>
+        <v>-134400</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-27300</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>16</v>
@@ -2767,8 +3115,14 @@
       <c r="M72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +3156,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3197,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,28 +3238,34 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>96000</v>
+        <v>82700</v>
       </c>
       <c r="E76" s="3">
+        <v>98100</v>
+      </c>
+      <c r="F76" s="3">
         <v>100600</v>
       </c>
-      <c r="F76" s="3">
-        <v>132100</v>
-      </c>
       <c r="G76" s="3">
-        <v>118700</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>16</v>
+        <v>105400</v>
+      </c>
+      <c r="H76" s="3">
+        <v>138400</v>
+      </c>
+      <c r="I76" s="3">
+        <v>124300</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>16</v>
@@ -2907,8 +3279,14 @@
       <c r="M76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3320,101 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-5800</v>
+        <v>-13100</v>
       </c>
       <c r="E81" s="3">
-        <v>-115900</v>
+        <v>-2600</v>
       </c>
       <c r="F81" s="3">
-        <v>13700</v>
+        <v>-6100</v>
       </c>
       <c r="G81" s="3">
-        <v>-38200</v>
+        <v>-121400</v>
       </c>
       <c r="H81" s="3">
-        <v>-9900</v>
+        <v>14400</v>
       </c>
       <c r="I81" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-4000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-9700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-62200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>93300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,26 +3428,28 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G83" s="3">
         <v>500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>500</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>16</v>
       </c>
@@ -3067,8 +3465,14 @@
       <c r="M83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3506,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3547,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3588,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3629,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,25 +3670,31 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E89" s="3">
-        <v>-39100</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>16</v>
+      <c r="E89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-2600</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>16</v>
@@ -3277,8 +3711,14 @@
       <c r="M89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,26 +3732,28 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-500</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>16</v>
       </c>
@@ -3327,8 +3769,14 @@
       <c r="M91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3810,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,25 +3851,31 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E94" s="3">
-        <v>9900</v>
-      </c>
-      <c r="F94" s="3">
-        <v>4000</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>16</v>
+      <c r="E94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G94" s="3">
+        <v>10400</v>
+      </c>
+      <c r="H94" s="3">
+        <v>4200</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>16</v>
@@ -3432,8 +3892,14 @@
       <c r="M94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3913,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3950,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3991,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +4032,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,25 +4073,31 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E100" s="3">
-        <v>57700</v>
-      </c>
-      <c r="F100" s="3">
-        <v>7200</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>16</v>
+      <c r="E100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G100" s="3">
+        <v>60500</v>
+      </c>
+      <c r="H100" s="3">
+        <v>7500</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>16</v>
@@ -3622,25 +4114,31 @@
       <c r="M100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E101" s="3">
-        <v>-500</v>
-      </c>
-      <c r="F101" s="3">
-        <v>200</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>16</v>
+      <c r="E101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H101" s="3">
+        <v>300</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>16</v>
@@ -3657,25 +4155,31 @@
       <c r="M101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E102" s="3">
-        <v>27900</v>
-      </c>
-      <c r="F102" s="3">
-        <v>9000</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>16</v>
+      <c r="E102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G102" s="3">
+        <v>29200</v>
+      </c>
+      <c r="H102" s="3">
+        <v>9500</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>16</v>
@@ -3690,6 +4194,12 @@
         <v>16</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CAN_QTR_FIN.xlsx
@@ -734,22 +734,22 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>24800</v>
+        <v>24900</v>
       </c>
       <c r="E8" s="3">
-        <v>27100</v>
+        <v>27200</v>
       </c>
       <c r="F8" s="3">
         <v>10400</v>
       </c>
       <c r="G8" s="3">
-        <v>70500</v>
+        <v>70800</v>
       </c>
       <c r="H8" s="3">
-        <v>102000</v>
+        <v>102500</v>
       </c>
       <c r="I8" s="3">
-        <v>36700</v>
+        <v>36900</v>
       </c>
       <c r="J8" s="3">
         <v>7200</v>
@@ -775,22 +775,22 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>27400</v>
+        <v>27500</v>
       </c>
       <c r="E9" s="3">
-        <v>20500</v>
+        <v>20600</v>
       </c>
       <c r="F9" s="3">
-        <v>10000</v>
+        <v>10100</v>
       </c>
       <c r="G9" s="3">
-        <v>172900</v>
+        <v>173700</v>
       </c>
       <c r="H9" s="3">
-        <v>79800</v>
+        <v>80100</v>
       </c>
       <c r="I9" s="3">
-        <v>35100</v>
+        <v>35300</v>
       </c>
       <c r="J9" s="3">
         <v>7100</v>
@@ -825,10 +825,10 @@
         <v>400</v>
       </c>
       <c r="G10" s="3">
-        <v>-102400</v>
+        <v>-102900</v>
       </c>
       <c r="H10" s="3">
-        <v>22200</v>
+        <v>22300</v>
       </c>
       <c r="I10" s="3">
         <v>1600</v>
@@ -883,7 +883,7 @@
         <v>6400</v>
       </c>
       <c r="G12" s="3">
-        <v>9500</v>
+        <v>9600</v>
       </c>
       <c r="H12" s="3">
         <v>5700</v>
@@ -1052,25 +1052,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>38900</v>
+        <v>39100</v>
       </c>
       <c r="E17" s="3">
-        <v>30000</v>
+        <v>30100</v>
       </c>
       <c r="F17" s="3">
-        <v>21200</v>
+        <v>21300</v>
       </c>
       <c r="G17" s="3">
-        <v>192300</v>
+        <v>193200</v>
       </c>
       <c r="H17" s="3">
-        <v>90800</v>
+        <v>91200</v>
       </c>
       <c r="I17" s="3">
-        <v>77700</v>
+        <v>78000</v>
       </c>
       <c r="J17" s="3">
-        <v>16000</v>
+        <v>16100</v>
       </c>
       <c r="K17" s="3">
         <v>51200</v>
@@ -1093,25 +1093,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-14100</v>
+        <v>-14200</v>
       </c>
       <c r="E18" s="3">
         <v>-2900</v>
       </c>
       <c r="F18" s="3">
-        <v>-10800</v>
+        <v>-10900</v>
       </c>
       <c r="G18" s="3">
-        <v>-121900</v>
+        <v>-122400</v>
       </c>
       <c r="H18" s="3">
         <v>11200</v>
       </c>
       <c r="I18" s="3">
-        <v>-40900</v>
+        <v>-41100</v>
       </c>
       <c r="J18" s="3">
-        <v>-8800</v>
+        <v>-8900</v>
       </c>
       <c r="K18" s="3">
         <v>-10800</v>
@@ -1201,7 +1201,7 @@
         <v>16</v>
       </c>
       <c r="G21" s="3">
-        <v>-120700</v>
+        <v>-121200</v>
       </c>
       <c r="H21" s="3">
         <v>15300</v>
@@ -1274,25 +1274,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-13100</v>
+        <v>-13200</v>
       </c>
       <c r="E23" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="F23" s="3">
         <v>-6100</v>
       </c>
       <c r="G23" s="3">
-        <v>-121400</v>
+        <v>-122000</v>
       </c>
       <c r="H23" s="3">
-        <v>14400</v>
+        <v>14500</v>
       </c>
       <c r="I23" s="3">
-        <v>-40000</v>
+        <v>-40200</v>
       </c>
       <c r="J23" s="3">
-        <v>-10300</v>
+        <v>-10400</v>
       </c>
       <c r="K23" s="3">
         <v>-12100</v>
@@ -1397,7 +1397,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-13100</v>
+        <v>-13200</v>
       </c>
       <c r="E26" s="3">
         <v>-2600</v>
@@ -1406,16 +1406,16 @@
         <v>-6100</v>
       </c>
       <c r="G26" s="3">
-        <v>-121400</v>
+        <v>-122000</v>
       </c>
       <c r="H26" s="3">
-        <v>14400</v>
+        <v>14500</v>
       </c>
       <c r="I26" s="3">
-        <v>-40000</v>
+        <v>-40200</v>
       </c>
       <c r="J26" s="3">
-        <v>-10300</v>
+        <v>-10400</v>
       </c>
       <c r="K26" s="3">
         <v>-4000</v>
@@ -1438,7 +1438,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-13100</v>
+        <v>-13200</v>
       </c>
       <c r="E27" s="3">
         <v>-2600</v>
@@ -1447,16 +1447,16 @@
         <v>-6100</v>
       </c>
       <c r="G27" s="3">
-        <v>-121400</v>
+        <v>-122000</v>
       </c>
       <c r="H27" s="3">
-        <v>14400</v>
+        <v>14500</v>
       </c>
       <c r="I27" s="3">
-        <v>-40000</v>
+        <v>-40200</v>
       </c>
       <c r="J27" s="3">
-        <v>-10300</v>
+        <v>-10400</v>
       </c>
       <c r="K27" s="3">
         <v>-4000</v>
@@ -1684,7 +1684,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-13100</v>
+        <v>-13200</v>
       </c>
       <c r="E33" s="3">
         <v>-2600</v>
@@ -1693,16 +1693,16 @@
         <v>-6100</v>
       </c>
       <c r="G33" s="3">
-        <v>-121400</v>
+        <v>-122000</v>
       </c>
       <c r="H33" s="3">
-        <v>14400</v>
+        <v>14500</v>
       </c>
       <c r="I33" s="3">
-        <v>-40000</v>
+        <v>-40200</v>
       </c>
       <c r="J33" s="3">
-        <v>-10300</v>
+        <v>-10400</v>
       </c>
       <c r="K33" s="3">
         <v>-4000</v>
@@ -1766,7 +1766,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-13100</v>
+        <v>-13200</v>
       </c>
       <c r="E35" s="3">
         <v>-2600</v>
@@ -1775,16 +1775,16 @@
         <v>-6100</v>
       </c>
       <c r="G35" s="3">
-        <v>-121400</v>
+        <v>-122000</v>
       </c>
       <c r="H35" s="3">
-        <v>14400</v>
+        <v>14500</v>
       </c>
       <c r="I35" s="3">
-        <v>-40000</v>
+        <v>-40200</v>
       </c>
       <c r="J35" s="3">
-        <v>-10300</v>
+        <v>-10400</v>
       </c>
       <c r="K35" s="3">
         <v>-4000</v>
@@ -1887,22 +1887,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>27000</v>
+        <v>27100</v>
       </c>
       <c r="E41" s="3">
-        <v>23900</v>
+        <v>24000</v>
       </c>
       <c r="F41" s="3">
-        <v>40200</v>
+        <v>40400</v>
       </c>
       <c r="G41" s="3">
-        <v>79500</v>
+        <v>79800</v>
       </c>
       <c r="H41" s="3">
-        <v>50600</v>
+        <v>50800</v>
       </c>
       <c r="I41" s="3">
-        <v>41100</v>
+        <v>41300</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>16</v>
@@ -1928,22 +1928,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>31100</v>
+        <v>31300</v>
       </c>
       <c r="E42" s="3">
-        <v>52900</v>
+        <v>53100</v>
       </c>
       <c r="F42" s="3">
-        <v>26400</v>
+        <v>26500</v>
       </c>
       <c r="G42" s="3">
         <v>1700</v>
       </c>
       <c r="H42" s="3">
-        <v>12300</v>
+        <v>12400</v>
       </c>
       <c r="I42" s="3">
-        <v>16800</v>
+        <v>16900</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>16</v>
@@ -1972,19 +1972,19 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="F43" s="3">
         <v>1000</v>
       </c>
       <c r="G43" s="3">
-        <v>24500</v>
+        <v>24600</v>
       </c>
       <c r="H43" s="3">
-        <v>23500</v>
+        <v>23600</v>
       </c>
       <c r="I43" s="3">
-        <v>25700</v>
+        <v>25900</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>16</v>
@@ -2013,19 +2013,19 @@
         <v>8100</v>
       </c>
       <c r="E44" s="3">
-        <v>13400</v>
+        <v>13500</v>
       </c>
       <c r="F44" s="3">
-        <v>34500</v>
+        <v>34600</v>
       </c>
       <c r="G44" s="3">
-        <v>29800</v>
+        <v>30000</v>
       </c>
       <c r="H44" s="3">
-        <v>59600</v>
+        <v>59900</v>
       </c>
       <c r="I44" s="3">
-        <v>63900</v>
+        <v>64100</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>16</v>
@@ -2051,22 +2051,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>38200</v>
+        <v>38300</v>
       </c>
       <c r="E45" s="3">
-        <v>27400</v>
+        <v>27600</v>
       </c>
       <c r="F45" s="3">
-        <v>39600</v>
+        <v>39800</v>
       </c>
       <c r="G45" s="3">
-        <v>7600</v>
+        <v>7700</v>
       </c>
       <c r="H45" s="3">
-        <v>73800</v>
+        <v>74200</v>
       </c>
       <c r="I45" s="3">
-        <v>63100</v>
+        <v>63400</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>16</v>
@@ -2092,22 +2092,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>104400</v>
+        <v>104900</v>
       </c>
       <c r="E46" s="3">
-        <v>119200</v>
+        <v>119700</v>
       </c>
       <c r="F46" s="3">
-        <v>141700</v>
+        <v>142400</v>
       </c>
       <c r="G46" s="3">
-        <v>143100</v>
+        <v>143700</v>
       </c>
       <c r="H46" s="3">
-        <v>219800</v>
+        <v>220800</v>
       </c>
       <c r="I46" s="3">
-        <v>210700</v>
+        <v>211600</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>16</v>
@@ -2186,7 +2186,7 @@
         <v>6900</v>
       </c>
       <c r="H48" s="3">
-        <v>20900</v>
+        <v>21000</v>
       </c>
       <c r="I48" s="3">
         <v>8000</v>
@@ -2420,22 +2420,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>110300</v>
+        <v>110700</v>
       </c>
       <c r="E54" s="3">
-        <v>138300</v>
+        <v>138900</v>
       </c>
       <c r="F54" s="3">
-        <v>148200</v>
+        <v>148800</v>
       </c>
       <c r="G54" s="3">
-        <v>150800</v>
+        <v>151500</v>
       </c>
       <c r="H54" s="3">
-        <v>242800</v>
+        <v>243900</v>
       </c>
       <c r="I54" s="3">
-        <v>219700</v>
+        <v>220700</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>16</v>
@@ -2501,13 +2501,13 @@
         <v>2500</v>
       </c>
       <c r="F57" s="3">
-        <v>10000</v>
+        <v>10100</v>
       </c>
       <c r="G57" s="3">
         <v>15100</v>
       </c>
       <c r="H57" s="3">
-        <v>11300</v>
+        <v>11400</v>
       </c>
       <c r="I57" s="3">
         <v>9500</v>
@@ -2539,19 +2539,19 @@
         <v>7400</v>
       </c>
       <c r="E58" s="3">
-        <v>29800</v>
+        <v>29900</v>
       </c>
       <c r="F58" s="3">
-        <v>28800</v>
+        <v>29000</v>
       </c>
       <c r="G58" s="3">
-        <v>19400</v>
+        <v>19500</v>
       </c>
       <c r="H58" s="3">
-        <v>37900</v>
+        <v>38000</v>
       </c>
       <c r="I58" s="3">
-        <v>30000</v>
+        <v>30100</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>16</v>
@@ -2586,13 +2586,13 @@
         <v>5600</v>
       </c>
       <c r="G59" s="3">
-        <v>8900</v>
+        <v>9000</v>
       </c>
       <c r="H59" s="3">
-        <v>52500</v>
+        <v>52700</v>
       </c>
       <c r="I59" s="3">
-        <v>53100</v>
+        <v>53300</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>16</v>
@@ -2618,22 +2618,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>25300</v>
+        <v>25400</v>
       </c>
       <c r="E60" s="3">
-        <v>37500</v>
+        <v>37700</v>
       </c>
       <c r="F60" s="3">
-        <v>44400</v>
+        <v>44600</v>
       </c>
       <c r="G60" s="3">
-        <v>43400</v>
+        <v>43600</v>
       </c>
       <c r="H60" s="3">
-        <v>101700</v>
+        <v>102200</v>
       </c>
       <c r="I60" s="3">
-        <v>92600</v>
+        <v>93000</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>16</v>
@@ -2703,7 +2703,7 @@
         <v>2300</v>
       </c>
       <c r="E62" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="F62" s="3">
         <v>3200</v>
@@ -2715,7 +2715,7 @@
         <v>2700</v>
       </c>
       <c r="I62" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>16</v>
@@ -2864,22 +2864,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>27600</v>
+        <v>27700</v>
       </c>
       <c r="E66" s="3">
-        <v>40100</v>
+        <v>40300</v>
       </c>
       <c r="F66" s="3">
-        <v>47600</v>
+        <v>47800</v>
       </c>
       <c r="G66" s="3">
-        <v>45400</v>
+        <v>45600</v>
       </c>
       <c r="H66" s="3">
-        <v>104400</v>
+        <v>104900</v>
       </c>
       <c r="I66" s="3">
-        <v>95400</v>
+        <v>95800</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>16</v>
@@ -3086,22 +3086,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-156100</v>
+        <v>-156800</v>
       </c>
       <c r="E72" s="3">
-        <v>-143000</v>
+        <v>-143600</v>
       </c>
       <c r="F72" s="3">
-        <v>-140400</v>
+        <v>-141000</v>
       </c>
       <c r="G72" s="3">
-        <v>-134400</v>
+        <v>-134900</v>
       </c>
       <c r="H72" s="3">
-        <v>-12900</v>
+        <v>-13000</v>
       </c>
       <c r="I72" s="3">
-        <v>-27300</v>
+        <v>-27500</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>16</v>
@@ -3250,22 +3250,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>82700</v>
+        <v>83000</v>
       </c>
       <c r="E76" s="3">
-        <v>98100</v>
+        <v>98500</v>
       </c>
       <c r="F76" s="3">
-        <v>100600</v>
+        <v>101000</v>
       </c>
       <c r="G76" s="3">
-        <v>105400</v>
+        <v>105800</v>
       </c>
       <c r="H76" s="3">
-        <v>138400</v>
+        <v>139000</v>
       </c>
       <c r="I76" s="3">
-        <v>124300</v>
+        <v>124800</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>16</v>
@@ -3378,7 +3378,7 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-13100</v>
+        <v>-13200</v>
       </c>
       <c r="E81" s="3">
         <v>-2600</v>
@@ -3387,16 +3387,16 @@
         <v>-6100</v>
       </c>
       <c r="G81" s="3">
-        <v>-121400</v>
+        <v>-122000</v>
       </c>
       <c r="H81" s="3">
-        <v>14400</v>
+        <v>14500</v>
       </c>
       <c r="I81" s="3">
-        <v>-40000</v>
+        <v>-40200</v>
       </c>
       <c r="J81" s="3">
-        <v>-10300</v>
+        <v>-10400</v>
       </c>
       <c r="K81" s="3">
         <v>-4000</v>
@@ -3691,7 +3691,7 @@
         <v>16</v>
       </c>
       <c r="G89" s="3">
-        <v>-41000</v>
+        <v>-41200</v>
       </c>
       <c r="H89" s="3">
         <v>-2600</v>
@@ -4094,10 +4094,10 @@
         <v>16</v>
       </c>
       <c r="G100" s="3">
-        <v>60500</v>
+        <v>60700</v>
       </c>
       <c r="H100" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>16</v>
@@ -4176,7 +4176,7 @@
         <v>16</v>
       </c>
       <c r="G102" s="3">
-        <v>29200</v>
+        <v>29400</v>
       </c>
       <c r="H102" s="3">
         <v>9500</v>

--- a/AAII_Financials/Quarterly/CAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="92">
   <si>
     <t>CAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,194 +665,206 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>24900</v>
+        <v>6000</v>
       </c>
       <c r="E8" s="3">
-        <v>27200</v>
+        <v>25400</v>
       </c>
       <c r="F8" s="3">
-        <v>10400</v>
+        <v>27800</v>
       </c>
       <c r="G8" s="3">
-        <v>70800</v>
+        <v>10700</v>
       </c>
       <c r="H8" s="3">
-        <v>102500</v>
+        <v>72300</v>
       </c>
       <c r="I8" s="3">
-        <v>36900</v>
+        <v>104600</v>
       </c>
       <c r="J8" s="3">
+        <v>37700</v>
+      </c>
+      <c r="K8" s="3">
         <v>7200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>40300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>69800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>126000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>153300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>76600</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>27500</v>
+        <v>4500</v>
       </c>
       <c r="E9" s="3">
-        <v>20600</v>
+        <v>28100</v>
       </c>
       <c r="F9" s="3">
-        <v>10100</v>
+        <v>21000</v>
       </c>
       <c r="G9" s="3">
-        <v>173700</v>
+        <v>10300</v>
       </c>
       <c r="H9" s="3">
-        <v>80100</v>
+        <v>177300</v>
       </c>
       <c r="I9" s="3">
-        <v>35300</v>
+        <v>81800</v>
       </c>
       <c r="J9" s="3">
+        <v>36000</v>
+      </c>
+      <c r="K9" s="3">
         <v>7100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>38600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>62700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>174600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>40600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>41600</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-2600</v>
+        <v>1400</v>
       </c>
       <c r="E10" s="3">
-        <v>6600</v>
+        <v>-2700</v>
       </c>
       <c r="F10" s="3">
+        <v>6700</v>
+      </c>
+      <c r="G10" s="3">
         <v>400</v>
       </c>
-      <c r="G10" s="3">
-        <v>-102900</v>
-      </c>
       <c r="H10" s="3">
-        <v>22300</v>
+        <v>-105100</v>
       </c>
       <c r="I10" s="3">
-        <v>1600</v>
+        <v>22800</v>
       </c>
       <c r="J10" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K10" s="3">
         <v>100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-48500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>112800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -868,49 +880,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>4900</v>
+        <v>6200</v>
       </c>
       <c r="E12" s="3">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="F12" s="3">
-        <v>6400</v>
+        <v>4100</v>
       </c>
       <c r="G12" s="3">
-        <v>9600</v>
+        <v>6500</v>
       </c>
       <c r="H12" s="3">
-        <v>5700</v>
+        <v>9800</v>
       </c>
       <c r="I12" s="3">
+        <v>5800</v>
+      </c>
+      <c r="J12" s="3">
+        <v>5600</v>
+      </c>
+      <c r="K12" s="3">
+        <v>4800</v>
+      </c>
+      <c r="L12" s="3">
+        <v>7400</v>
+      </c>
+      <c r="M12" s="3">
+        <v>9800</v>
+      </c>
+      <c r="N12" s="3">
         <v>5500</v>
       </c>
-      <c r="J12" s="3">
-        <v>4800</v>
-      </c>
-      <c r="K12" s="3">
-        <v>7400</v>
-      </c>
-      <c r="L12" s="3">
-        <v>9800</v>
-      </c>
-      <c r="M12" s="3">
-        <v>5500</v>
-      </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>4700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -950,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -991,8 +1010,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1005,15 +1027,15 @@
       <c r="F15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="3">
+        <v>500</v>
+      </c>
+      <c r="I15" s="3">
         <v>400</v>
       </c>
-      <c r="H15" s="3">
-        <v>400</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J15" s="3" t="s">
         <v>16</v>
       </c>
@@ -1023,8 +1045,8 @@
       <c r="L15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1032,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>39100</v>
+        <v>17000</v>
       </c>
       <c r="E17" s="3">
-        <v>30100</v>
+        <v>39900</v>
       </c>
       <c r="F17" s="3">
-        <v>21300</v>
+        <v>30700</v>
       </c>
       <c r="G17" s="3">
-        <v>193200</v>
+        <v>21700</v>
       </c>
       <c r="H17" s="3">
-        <v>91200</v>
+        <v>197300</v>
       </c>
       <c r="I17" s="3">
-        <v>78000</v>
+        <v>93100</v>
       </c>
       <c r="J17" s="3">
+        <v>79600</v>
+      </c>
+      <c r="K17" s="3">
         <v>16100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>51200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>79700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>188800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>51000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>58400</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-14200</v>
+        <v>-11100</v>
       </c>
       <c r="E18" s="3">
-        <v>-2900</v>
+        <v>-14500</v>
       </c>
       <c r="F18" s="3">
-        <v>-10900</v>
+        <v>-3000</v>
       </c>
       <c r="G18" s="3">
-        <v>-122400</v>
+        <v>-11100</v>
       </c>
       <c r="H18" s="3">
-        <v>11200</v>
+        <v>-125000</v>
       </c>
       <c r="I18" s="3">
-        <v>-41100</v>
+        <v>11500</v>
       </c>
       <c r="J18" s="3">
+        <v>-42000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-8900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-10800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-9900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-62800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>102400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1145,49 +1177,53 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E20" s="3">
         <v>1100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>600</v>
       </c>
-      <c r="F20" s="3">
-        <v>4900</v>
-      </c>
       <c r="G20" s="3">
+        <v>5000</v>
+      </c>
+      <c r="H20" s="3">
         <v>700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3600</v>
       </c>
-      <c r="I20" s="3">
-        <v>1400</v>
-      </c>
       <c r="J20" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>9800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>4300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1200,43 +1236,46 @@
       <c r="F21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="3">
-        <v>-121200</v>
+      <c r="G21" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="H21" s="3">
-        <v>15300</v>
+        <v>-123800</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>16</v>
+      <c r="J21" s="3">
+        <v>-39400</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="3">
         <v>-7000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-52400</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
-      </c>
-      <c r="E22" s="3">
-        <v>200</v>
       </c>
       <c r="F22" s="3">
         <v>200</v>
@@ -1245,72 +1284,78 @@
         <v>200</v>
       </c>
       <c r="H22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I22" s="3">
+        <v>400</v>
+      </c>
+      <c r="J22" s="3">
         <v>500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2700</v>
-      </c>
-      <c r="L22" s="3">
-        <v>2400</v>
       </c>
       <c r="M22" s="3">
         <v>2400</v>
       </c>
       <c r="N22" s="3">
+        <v>2400</v>
+      </c>
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-13200</v>
+        <v>-11200</v>
       </c>
       <c r="E23" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2600</v>
       </c>
-      <c r="F23" s="3">
-        <v>-6100</v>
-      </c>
       <c r="G23" s="3">
-        <v>-122000</v>
+        <v>-6200</v>
       </c>
       <c r="H23" s="3">
-        <v>14500</v>
+        <v>-124500</v>
       </c>
       <c r="I23" s="3">
-        <v>-40200</v>
+        <v>14800</v>
       </c>
       <c r="J23" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="K23" s="3">
         <v>-10400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-12100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-10600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-55400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>106600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1336,22 +1381,25 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-8100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>6700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>13300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-13200</v>
+        <v>-11200</v>
       </c>
       <c r="E26" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2600</v>
       </c>
-      <c r="F26" s="3">
-        <v>-6100</v>
-      </c>
       <c r="G26" s="3">
-        <v>-122000</v>
+        <v>-6200</v>
       </c>
       <c r="H26" s="3">
-        <v>14500</v>
+        <v>-124500</v>
       </c>
       <c r="I26" s="3">
-        <v>-40200</v>
+        <v>14800</v>
       </c>
       <c r="J26" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="K26" s="3">
         <v>-10400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-9700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-62200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>93300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-13200</v>
+        <v>-11200</v>
       </c>
       <c r="E27" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2600</v>
       </c>
-      <c r="F27" s="3">
-        <v>-6100</v>
-      </c>
       <c r="G27" s="3">
-        <v>-122000</v>
+        <v>-6200</v>
       </c>
       <c r="H27" s="3">
-        <v>14500</v>
+        <v>-124500</v>
       </c>
       <c r="I27" s="3">
-        <v>-40200</v>
+        <v>14800</v>
       </c>
       <c r="J27" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="K27" s="3">
         <v>-10400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-9700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-62200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>93300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,90 +1703,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-600</v>
       </c>
-      <c r="F32" s="3">
-        <v>-4900</v>
-      </c>
       <c r="G32" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="H32" s="3">
         <v>-700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3600</v>
       </c>
-      <c r="I32" s="3">
-        <v>-1400</v>
-      </c>
       <c r="J32" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-9800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-4300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-13200</v>
+        <v>-11200</v>
       </c>
       <c r="E33" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2600</v>
       </c>
-      <c r="F33" s="3">
-        <v>-6100</v>
-      </c>
       <c r="G33" s="3">
-        <v>-122000</v>
+        <v>-6200</v>
       </c>
       <c r="H33" s="3">
-        <v>14500</v>
+        <v>-124500</v>
       </c>
       <c r="I33" s="3">
-        <v>-40200</v>
+        <v>14800</v>
       </c>
       <c r="J33" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="K33" s="3">
         <v>-10400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-9700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-62200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>93300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-13200</v>
+        <v>-11200</v>
       </c>
       <c r="E35" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2600</v>
       </c>
-      <c r="F35" s="3">
-        <v>-6100</v>
-      </c>
       <c r="G35" s="3">
-        <v>-122000</v>
+        <v>-6200</v>
       </c>
       <c r="H35" s="3">
-        <v>14500</v>
+        <v>-124500</v>
       </c>
       <c r="I35" s="3">
-        <v>-40200</v>
+        <v>14800</v>
       </c>
       <c r="J35" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="K35" s="3">
         <v>-10400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-9700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-62200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>93300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,31 +1966,32 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>27100</v>
+        <v>61000</v>
       </c>
       <c r="E41" s="3">
-        <v>24000</v>
+        <v>27700</v>
       </c>
       <c r="F41" s="3">
-        <v>40400</v>
+        <v>24500</v>
       </c>
       <c r="G41" s="3">
-        <v>79800</v>
+        <v>41300</v>
       </c>
       <c r="H41" s="3">
-        <v>50800</v>
+        <v>81500</v>
       </c>
       <c r="I41" s="3">
-        <v>41300</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>16</v>
+        <v>51900</v>
+      </c>
+      <c r="J41" s="3">
+        <v>42200</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>16</v>
@@ -1922,31 +2008,34 @@
       <c r="O41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>31300</v>
+        <v>9700</v>
       </c>
       <c r="E42" s="3">
-        <v>53100</v>
+        <v>31900</v>
       </c>
       <c r="F42" s="3">
-        <v>26500</v>
+        <v>54200</v>
       </c>
       <c r="G42" s="3">
+        <v>27100</v>
+      </c>
+      <c r="H42" s="3">
         <v>1700</v>
       </c>
-      <c r="H42" s="3">
-        <v>12400</v>
-      </c>
       <c r="I42" s="3">
-        <v>16900</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>16</v>
+        <v>12600</v>
+      </c>
+      <c r="J42" s="3">
+        <v>17200</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>16</v>
@@ -1963,31 +2052,34 @@
       <c r="O42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1600</v>
       </c>
-      <c r="F43" s="3">
-        <v>1000</v>
-      </c>
       <c r="G43" s="3">
-        <v>24600</v>
+        <v>1100</v>
       </c>
       <c r="H43" s="3">
-        <v>23600</v>
+        <v>25100</v>
       </c>
       <c r="I43" s="3">
-        <v>25900</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>16</v>
+        <v>24100</v>
+      </c>
+      <c r="J43" s="3">
+        <v>26400</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>16</v>
@@ -2004,31 +2096,34 @@
       <c r="O43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8100</v>
+        <v>35200</v>
       </c>
       <c r="E44" s="3">
-        <v>13500</v>
+        <v>8300</v>
       </c>
       <c r="F44" s="3">
-        <v>34600</v>
+        <v>13700</v>
       </c>
       <c r="G44" s="3">
-        <v>30000</v>
+        <v>35400</v>
       </c>
       <c r="H44" s="3">
-        <v>59900</v>
+        <v>30600</v>
       </c>
       <c r="I44" s="3">
-        <v>64100</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>16</v>
+        <v>61200</v>
+      </c>
+      <c r="J44" s="3">
+        <v>65500</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>16</v>
@@ -2045,31 +2140,34 @@
       <c r="O44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>38300</v>
+        <v>35500</v>
       </c>
       <c r="E45" s="3">
-        <v>27600</v>
+        <v>39100</v>
       </c>
       <c r="F45" s="3">
-        <v>39800</v>
+        <v>28200</v>
       </c>
       <c r="G45" s="3">
-        <v>7700</v>
+        <v>40600</v>
       </c>
       <c r="H45" s="3">
-        <v>74200</v>
+        <v>7800</v>
       </c>
       <c r="I45" s="3">
-        <v>63400</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>16</v>
+        <v>75700</v>
+      </c>
+      <c r="J45" s="3">
+        <v>64800</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>16</v>
@@ -2086,31 +2184,34 @@
       <c r="O45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>104900</v>
+        <v>157100</v>
       </c>
       <c r="E46" s="3">
-        <v>119700</v>
+        <v>107100</v>
       </c>
       <c r="F46" s="3">
-        <v>142400</v>
+        <v>122200</v>
       </c>
       <c r="G46" s="3">
-        <v>143700</v>
+        <v>145400</v>
       </c>
       <c r="H46" s="3">
-        <v>220800</v>
+        <v>146800</v>
       </c>
       <c r="I46" s="3">
-        <v>211600</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>16</v>
+        <v>225500</v>
+      </c>
+      <c r="J46" s="3">
+        <v>216100</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>16</v>
@@ -2127,17 +2228,20 @@
       <c r="O46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
         <v>400</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F47" s="3" t="s">
         <v>16</v>
       </c>
@@ -2153,8 +2257,8 @@
       <c r="J47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2168,31 +2272,34 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5100</v>
+        <v>4200</v>
       </c>
       <c r="E48" s="3">
-        <v>18800</v>
+        <v>5200</v>
       </c>
       <c r="F48" s="3">
-        <v>6100</v>
+        <v>19200</v>
       </c>
       <c r="G48" s="3">
-        <v>6900</v>
+        <v>6300</v>
       </c>
       <c r="H48" s="3">
-        <v>21000</v>
+        <v>7100</v>
       </c>
       <c r="I48" s="3">
-        <v>8000</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>16</v>
+        <v>21500</v>
+      </c>
+      <c r="J48" s="3">
+        <v>8200</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>16</v>
@@ -2209,8 +2316,11 @@
       <c r="O48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2250,8 +2360,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,8 +2448,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2341,23 +2460,23 @@
         <v>400</v>
       </c>
       <c r="E52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F52" s="3">
         <v>300</v>
       </c>
       <c r="G52" s="3">
+        <v>300</v>
+      </c>
+      <c r="H52" s="3">
         <v>800</v>
       </c>
-      <c r="H52" s="3">
-        <v>2000</v>
-      </c>
       <c r="I52" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J52" s="3">
         <v>1000</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>16</v>
       </c>
@@ -2373,8 +2492,11 @@
       <c r="O52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,31 +2536,34 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>110700</v>
+        <v>161700</v>
       </c>
       <c r="E54" s="3">
-        <v>138900</v>
+        <v>113100</v>
       </c>
       <c r="F54" s="3">
-        <v>148800</v>
+        <v>141800</v>
       </c>
       <c r="G54" s="3">
-        <v>151500</v>
+        <v>152000</v>
       </c>
       <c r="H54" s="3">
-        <v>243900</v>
+        <v>154700</v>
       </c>
       <c r="I54" s="3">
-        <v>220700</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>16</v>
+        <v>249000</v>
+      </c>
+      <c r="J54" s="3">
+        <v>225300</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>16</v>
@@ -2455,8 +2580,11 @@
       <c r="O54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,31 +2618,32 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E57" s="3">
         <v>1600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2500</v>
       </c>
-      <c r="F57" s="3">
-        <v>10100</v>
-      </c>
       <c r="G57" s="3">
-        <v>15100</v>
+        <v>10300</v>
       </c>
       <c r="H57" s="3">
-        <v>11400</v>
+        <v>15500</v>
       </c>
       <c r="I57" s="3">
-        <v>9500</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>16</v>
+        <v>11600</v>
+      </c>
+      <c r="J57" s="3">
+        <v>9700</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>16</v>
@@ -2530,31 +2660,34 @@
       <c r="O57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7400</v>
+        <v>7600</v>
       </c>
       <c r="E58" s="3">
-        <v>29900</v>
+        <v>7600</v>
       </c>
       <c r="F58" s="3">
-        <v>29000</v>
+        <v>30600</v>
       </c>
       <c r="G58" s="3">
-        <v>19500</v>
+        <v>29600</v>
       </c>
       <c r="H58" s="3">
-        <v>38000</v>
+        <v>19900</v>
       </c>
       <c r="I58" s="3">
-        <v>30100</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>16</v>
+        <v>38800</v>
+      </c>
+      <c r="J58" s="3">
+        <v>30800</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>16</v>
@@ -2571,31 +2704,34 @@
       <c r="O58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>16300</v>
+        <v>79000</v>
       </c>
       <c r="E59" s="3">
-        <v>5200</v>
+        <v>16700</v>
       </c>
       <c r="F59" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="G59" s="3">
-        <v>9000</v>
+        <v>5700</v>
       </c>
       <c r="H59" s="3">
-        <v>52700</v>
+        <v>9200</v>
       </c>
       <c r="I59" s="3">
-        <v>53300</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>16</v>
+        <v>53900</v>
+      </c>
+      <c r="J59" s="3">
+        <v>54400</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>16</v>
@@ -2612,31 +2748,34 @@
       <c r="O59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>25400</v>
+        <v>92400</v>
       </c>
       <c r="E60" s="3">
-        <v>37700</v>
+        <v>25900</v>
       </c>
       <c r="F60" s="3">
-        <v>44600</v>
+        <v>38500</v>
       </c>
       <c r="G60" s="3">
-        <v>43600</v>
+        <v>45500</v>
       </c>
       <c r="H60" s="3">
-        <v>102200</v>
+        <v>44500</v>
       </c>
       <c r="I60" s="3">
-        <v>93000</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>16</v>
+        <v>104300</v>
+      </c>
+      <c r="J60" s="3">
+        <v>94900</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>16</v>
@@ -2653,8 +2792,11 @@
       <c r="O60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2694,32 +2836,35 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2300</v>
+        <v>1800</v>
       </c>
       <c r="E62" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F62" s="3">
         <v>2700</v>
       </c>
-      <c r="F62" s="3">
-        <v>3200</v>
-      </c>
       <c r="G62" s="3">
-        <v>2000</v>
+        <v>3300</v>
       </c>
       <c r="H62" s="3">
-        <v>2700</v>
+        <v>2100</v>
       </c>
       <c r="I62" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J62" s="3">
         <v>2900</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>16</v>
       </c>
@@ -2735,8 +2880,11 @@
       <c r="O62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,31 +3012,34 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>27700</v>
+        <v>94200</v>
       </c>
       <c r="E66" s="3">
-        <v>40300</v>
+        <v>28300</v>
       </c>
       <c r="F66" s="3">
-        <v>47800</v>
+        <v>41200</v>
       </c>
       <c r="G66" s="3">
-        <v>45600</v>
+        <v>48800</v>
       </c>
       <c r="H66" s="3">
-        <v>104900</v>
+        <v>46600</v>
       </c>
       <c r="I66" s="3">
-        <v>95800</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>16</v>
+        <v>107100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>97800</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>16</v>
@@ -2899,8 +3056,11 @@
       <c r="O66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,31 +3250,34 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-156800</v>
+        <v>-171400</v>
       </c>
       <c r="E72" s="3">
-        <v>-143600</v>
+        <v>-160100</v>
       </c>
       <c r="F72" s="3">
-        <v>-141000</v>
+        <v>-146600</v>
       </c>
       <c r="G72" s="3">
-        <v>-134900</v>
+        <v>-144000</v>
       </c>
       <c r="H72" s="3">
-        <v>-13000</v>
+        <v>-137800</v>
       </c>
       <c r="I72" s="3">
-        <v>-27500</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>16</v>
+        <v>-13300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-28000</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>16</v>
@@ -3121,8 +3294,11 @@
       <c r="O72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,31 +3426,34 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>83000</v>
+        <v>67500</v>
       </c>
       <c r="E76" s="3">
-        <v>98500</v>
+        <v>84800</v>
       </c>
       <c r="F76" s="3">
-        <v>101000</v>
+        <v>100600</v>
       </c>
       <c r="G76" s="3">
-        <v>105800</v>
+        <v>103100</v>
       </c>
       <c r="H76" s="3">
-        <v>139000</v>
+        <v>108100</v>
       </c>
       <c r="I76" s="3">
-        <v>124800</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>16</v>
+        <v>141900</v>
+      </c>
+      <c r="J76" s="3">
+        <v>127500</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>16</v>
@@ -3285,8 +3470,11 @@
       <c r="O76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-13200</v>
+        <v>-11200</v>
       </c>
       <c r="E81" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2600</v>
       </c>
-      <c r="F81" s="3">
-        <v>-6100</v>
-      </c>
       <c r="G81" s="3">
-        <v>-122000</v>
+        <v>-6200</v>
       </c>
       <c r="H81" s="3">
-        <v>14500</v>
+        <v>-124500</v>
       </c>
       <c r="I81" s="3">
-        <v>-40200</v>
+        <v>14800</v>
       </c>
       <c r="J81" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="K81" s="3">
         <v>-10400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-9700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-62200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>93300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,8 +3627,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3444,8 +3642,8 @@
       <c r="F83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G83" s="3">
-        <v>500</v>
+      <c r="G83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="H83" s="3">
         <v>500</v>
@@ -3471,8 +3669,11 @@
       <c r="O83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,8 +3889,11 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3690,11 +3906,11 @@
       <c r="F89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G89" s="3">
-        <v>-41200</v>
+      <c r="G89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="H89" s="3">
-        <v>-2600</v>
+        <v>-42000</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>16</v>
@@ -3717,8 +3933,11 @@
       <c r="O89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,8 +3953,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3748,12 +3968,12 @@
       <c r="F91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G91" s="3">
+      <c r="G91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
-        <v>-500</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>16</v>
       </c>
@@ -3775,8 +3995,11 @@
       <c r="O91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,8 +4083,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3871,11 +4100,11 @@
       <c r="F94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G94" s="3">
-        <v>10400</v>
+      <c r="G94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="H94" s="3">
-        <v>4200</v>
+        <v>10600</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>16</v>
@@ -3898,8 +4127,11 @@
       <c r="O94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,8 +4321,11 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4093,11 +4338,11 @@
       <c r="F100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G100" s="3">
-        <v>60700</v>
+      <c r="G100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="H100" s="3">
-        <v>7600</v>
+        <v>62000</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>16</v>
@@ -4120,8 +4365,11 @@
       <c r="O100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4134,12 +4382,12 @@
       <c r="F101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G101" s="3">
+      <c r="G101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H101" s="3">
         <v>-600</v>
       </c>
-      <c r="H101" s="3">
-        <v>300</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>16</v>
       </c>
@@ -4161,8 +4409,11 @@
       <c r="O101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4175,11 +4426,11 @@
       <c r="F102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G102" s="3">
-        <v>29400</v>
+      <c r="G102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="H102" s="3">
-        <v>9500</v>
+        <v>30000</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>16</v>
@@ -4200,6 +4451,9 @@
         <v>16</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="92">
   <si>
     <t>CAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6000</v>
+        <v>62000</v>
       </c>
       <c r="E8" s="3">
-        <v>25400</v>
+        <v>5900</v>
       </c>
       <c r="F8" s="3">
-        <v>27800</v>
+        <v>25100</v>
       </c>
       <c r="G8" s="3">
-        <v>10700</v>
+        <v>27400</v>
       </c>
       <c r="H8" s="3">
-        <v>72300</v>
+        <v>10500</v>
       </c>
       <c r="I8" s="3">
-        <v>104600</v>
+        <v>71300</v>
       </c>
       <c r="J8" s="3">
+        <v>103300</v>
+      </c>
+      <c r="K8" s="3">
         <v>37700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>40300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>69800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>126000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>153300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>76600</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>32100</v>
+      </c>
+      <c r="E9" s="3">
         <v>4500</v>
       </c>
-      <c r="E9" s="3">
-        <v>28100</v>
-      </c>
       <c r="F9" s="3">
-        <v>21000</v>
+        <v>27700</v>
       </c>
       <c r="G9" s="3">
-        <v>10300</v>
+        <v>20800</v>
       </c>
       <c r="H9" s="3">
-        <v>177300</v>
+        <v>10100</v>
       </c>
       <c r="I9" s="3">
-        <v>81800</v>
+        <v>175000</v>
       </c>
       <c r="J9" s="3">
+        <v>80700</v>
+      </c>
+      <c r="K9" s="3">
         <v>36000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>38600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>62700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>174600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>40600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>41600</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>29900</v>
+      </c>
+      <c r="E10" s="3">
         <v>1400</v>
       </c>
-      <c r="E10" s="3">
-        <v>-2700</v>
-      </c>
       <c r="F10" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="G10" s="3">
         <v>6700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>400</v>
       </c>
-      <c r="H10" s="3">
-        <v>-105100</v>
-      </c>
       <c r="I10" s="3">
-        <v>22800</v>
+        <v>-103700</v>
       </c>
       <c r="J10" s="3">
+        <v>22500</v>
+      </c>
+      <c r="K10" s="3">
         <v>1700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-48500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>112800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +894,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E12" s="3">
         <v>6200</v>
       </c>
-      <c r="E12" s="3">
-        <v>5000</v>
-      </c>
       <c r="F12" s="3">
-        <v>4100</v>
+        <v>4900</v>
       </c>
       <c r="G12" s="3">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="H12" s="3">
+        <v>6400</v>
+      </c>
+      <c r="I12" s="3">
+        <v>9600</v>
+      </c>
+      <c r="J12" s="3">
+        <v>5700</v>
+      </c>
+      <c r="K12" s="3">
+        <v>5600</v>
+      </c>
+      <c r="L12" s="3">
+        <v>4800</v>
+      </c>
+      <c r="M12" s="3">
+        <v>7400</v>
+      </c>
+      <c r="N12" s="3">
         <v>9800</v>
       </c>
-      <c r="I12" s="3">
-        <v>5800</v>
-      </c>
-      <c r="J12" s="3">
-        <v>5600</v>
-      </c>
-      <c r="K12" s="3">
-        <v>4800</v>
-      </c>
-      <c r="L12" s="3">
-        <v>7400</v>
-      </c>
-      <c r="M12" s="3">
-        <v>9800</v>
-      </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>5500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>4700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1013,8 +1033,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1030,15 +1053,15 @@
       <c r="G15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="3">
         <v>500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>400</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K15" s="3" t="s">
         <v>16</v>
       </c>
@@ -1048,8 +1071,8 @@
       <c r="M15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>17000</v>
+        <v>64100</v>
       </c>
       <c r="E17" s="3">
-        <v>39900</v>
+        <v>16800</v>
       </c>
       <c r="F17" s="3">
-        <v>30700</v>
+        <v>39400</v>
       </c>
       <c r="G17" s="3">
-        <v>21700</v>
+        <v>30300</v>
       </c>
       <c r="H17" s="3">
-        <v>197300</v>
+        <v>21500</v>
       </c>
       <c r="I17" s="3">
-        <v>93100</v>
+        <v>194700</v>
       </c>
       <c r="J17" s="3">
+        <v>91900</v>
+      </c>
+      <c r="K17" s="3">
         <v>79600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>16100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>51200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>79700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>188800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>51000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>58400</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-11100</v>
+        <v>-2100</v>
       </c>
       <c r="E18" s="3">
-        <v>-14500</v>
+        <v>-10900</v>
       </c>
       <c r="F18" s="3">
-        <v>-3000</v>
+        <v>-14300</v>
       </c>
       <c r="G18" s="3">
-        <v>-11100</v>
+        <v>-2900</v>
       </c>
       <c r="H18" s="3">
-        <v>-125000</v>
+        <v>-10900</v>
       </c>
       <c r="I18" s="3">
-        <v>11500</v>
+        <v>-123400</v>
       </c>
       <c r="J18" s="3">
+        <v>11300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-42000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-8900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-10800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-9900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-62800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>102400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1178,52 +1211,56 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>5000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>9800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>4300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1239,35 +1276,38 @@
       <c r="G21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="3">
-        <v>-123800</v>
+      <c r="H21" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J21" s="3">
+        <v>16500</v>
+      </c>
+      <c r="K21" s="3">
         <v>-39400</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N21" s="3">
         <v>-7000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-52400</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1275,10 +1315,10 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>100</v>
-      </c>
-      <c r="F22" s="3">
-        <v>200</v>
       </c>
       <c r="G22" s="3">
         <v>200</v>
@@ -1287,75 +1327,81 @@
         <v>200</v>
       </c>
       <c r="I22" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="J22" s="3">
+        <v>300</v>
+      </c>
+      <c r="K22" s="3">
         <v>500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2700</v>
-      </c>
-      <c r="M22" s="3">
-        <v>2400</v>
       </c>
       <c r="N22" s="3">
         <v>2400</v>
       </c>
       <c r="O22" s="3">
+        <v>2400</v>
+      </c>
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-11200</v>
+        <v>200</v>
       </c>
       <c r="E23" s="3">
-        <v>-13500</v>
+        <v>-11100</v>
       </c>
       <c r="F23" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="G23" s="3">
         <v>-2600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-6200</v>
       </c>
-      <c r="H23" s="3">
-        <v>-124500</v>
-      </c>
       <c r="I23" s="3">
-        <v>14800</v>
+        <v>-122900</v>
       </c>
       <c r="J23" s="3">
+        <v>14600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-41000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-10400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-12100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-10600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-55400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>106600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1384,22 +1430,25 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-8100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>6700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>13300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-11200</v>
+        <v>200</v>
       </c>
       <c r="E26" s="3">
-        <v>-13500</v>
+        <v>-11100</v>
       </c>
       <c r="F26" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="G26" s="3">
         <v>-2600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-6200</v>
       </c>
-      <c r="H26" s="3">
-        <v>-124500</v>
-      </c>
       <c r="I26" s="3">
-        <v>14800</v>
+        <v>-122900</v>
       </c>
       <c r="J26" s="3">
+        <v>14600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-41000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-10400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-9700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-62200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>93300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-11200</v>
+        <v>200</v>
       </c>
       <c r="E27" s="3">
-        <v>-13500</v>
+        <v>-11100</v>
       </c>
       <c r="F27" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="G27" s="3">
         <v>-2600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-6200</v>
       </c>
-      <c r="H27" s="3">
-        <v>-124500</v>
-      </c>
       <c r="I27" s="3">
-        <v>14800</v>
+        <v>-122900</v>
       </c>
       <c r="J27" s="3">
+        <v>14600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-41000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-10400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-9700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-62200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>93300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-5000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-9800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-4300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-11200</v>
+        <v>200</v>
       </c>
       <c r="E33" s="3">
-        <v>-13500</v>
+        <v>-11100</v>
       </c>
       <c r="F33" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="G33" s="3">
         <v>-2600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-6200</v>
       </c>
-      <c r="H33" s="3">
-        <v>-124500</v>
-      </c>
       <c r="I33" s="3">
-        <v>14800</v>
+        <v>-122900</v>
       </c>
       <c r="J33" s="3">
+        <v>14600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-41000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-10400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-9700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-62200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>93300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-11200</v>
+        <v>200</v>
       </c>
       <c r="E35" s="3">
-        <v>-13500</v>
+        <v>-11100</v>
       </c>
       <c r="F35" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="G35" s="3">
         <v>-2600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-6200</v>
       </c>
-      <c r="H35" s="3">
-        <v>-124500</v>
-      </c>
       <c r="I35" s="3">
-        <v>14800</v>
+        <v>-122900</v>
       </c>
       <c r="J35" s="3">
+        <v>14600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-41000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-10400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-9700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-62200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>93300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,35 +2053,36 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>61000</v>
+        <v>206000</v>
       </c>
       <c r="E41" s="3">
-        <v>27700</v>
+        <v>60300</v>
       </c>
       <c r="F41" s="3">
-        <v>24500</v>
+        <v>27300</v>
       </c>
       <c r="G41" s="3">
-        <v>41300</v>
+        <v>24200</v>
       </c>
       <c r="H41" s="3">
-        <v>81500</v>
+        <v>40700</v>
       </c>
       <c r="I41" s="3">
-        <v>51900</v>
+        <v>80400</v>
       </c>
       <c r="J41" s="3">
+        <v>51200</v>
+      </c>
+      <c r="K41" s="3">
         <v>42200</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2011,35 +2098,38 @@
       <c r="P41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>9700</v>
+        <v>1300</v>
       </c>
       <c r="E42" s="3">
-        <v>31900</v>
+        <v>9600</v>
       </c>
       <c r="F42" s="3">
-        <v>54200</v>
+        <v>31500</v>
       </c>
       <c r="G42" s="3">
-        <v>27100</v>
+        <v>53500</v>
       </c>
       <c r="H42" s="3">
+        <v>26700</v>
+      </c>
+      <c r="I42" s="3">
         <v>1700</v>
       </c>
-      <c r="I42" s="3">
-        <v>12600</v>
-      </c>
       <c r="J42" s="3">
+        <v>12500</v>
+      </c>
+      <c r="K42" s="3">
         <v>17200</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2055,35 +2145,38 @@
       <c r="P42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>15700</v>
+        <v>1100</v>
       </c>
       <c r="E43" s="3">
+        <v>15500</v>
+      </c>
+      <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1600</v>
       </c>
-      <c r="G43" s="3">
-        <v>1100</v>
-      </c>
       <c r="H43" s="3">
-        <v>25100</v>
+        <v>1000</v>
       </c>
       <c r="I43" s="3">
-        <v>24100</v>
+        <v>24800</v>
       </c>
       <c r="J43" s="3">
+        <v>23700</v>
+      </c>
+      <c r="K43" s="3">
         <v>26400</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2099,35 +2192,38 @@
       <c r="P43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>35200</v>
+        <v>57900</v>
       </c>
       <c r="E44" s="3">
-        <v>8300</v>
+        <v>34700</v>
       </c>
       <c r="F44" s="3">
-        <v>13700</v>
+        <v>8200</v>
       </c>
       <c r="G44" s="3">
-        <v>35400</v>
+        <v>13600</v>
       </c>
       <c r="H44" s="3">
-        <v>30600</v>
+        <v>34900</v>
       </c>
       <c r="I44" s="3">
-        <v>61200</v>
+        <v>30200</v>
       </c>
       <c r="J44" s="3">
+        <v>60400</v>
+      </c>
+      <c r="K44" s="3">
         <v>65500</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>16</v>
       </c>
@@ -2143,35 +2239,38 @@
       <c r="P44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>35500</v>
+        <v>91600</v>
       </c>
       <c r="E45" s="3">
-        <v>39100</v>
+        <v>35000</v>
       </c>
       <c r="F45" s="3">
-        <v>28200</v>
+        <v>38600</v>
       </c>
       <c r="G45" s="3">
-        <v>40600</v>
+        <v>27800</v>
       </c>
       <c r="H45" s="3">
-        <v>7800</v>
+        <v>40100</v>
       </c>
       <c r="I45" s="3">
-        <v>75700</v>
+        <v>7700</v>
       </c>
       <c r="J45" s="3">
+        <v>74700</v>
+      </c>
+      <c r="K45" s="3">
         <v>64800</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2187,35 +2286,38 @@
       <c r="P45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>157100</v>
+        <v>357900</v>
       </c>
       <c r="E46" s="3">
-        <v>107100</v>
+        <v>155100</v>
       </c>
       <c r="F46" s="3">
-        <v>122200</v>
+        <v>105700</v>
       </c>
       <c r="G46" s="3">
-        <v>145400</v>
+        <v>120600</v>
       </c>
       <c r="H46" s="3">
-        <v>146800</v>
+        <v>143500</v>
       </c>
       <c r="I46" s="3">
-        <v>225500</v>
+        <v>144900</v>
       </c>
       <c r="J46" s="3">
+        <v>222500</v>
+      </c>
+      <c r="K46" s="3">
         <v>216100</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2231,8 +2333,11 @@
       <c r="P46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2240,11 +2345,11 @@
         <v>0</v>
       </c>
       <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
         <v>400</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>16</v>
       </c>
@@ -2260,8 +2365,8 @@
       <c r="K47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2275,35 +2380,38 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4200</v>
+        <v>5400</v>
       </c>
       <c r="E48" s="3">
-        <v>5200</v>
+        <v>4100</v>
       </c>
       <c r="F48" s="3">
-        <v>19200</v>
+        <v>5100</v>
       </c>
       <c r="G48" s="3">
-        <v>6300</v>
+        <v>19000</v>
       </c>
       <c r="H48" s="3">
-        <v>7100</v>
+        <v>6200</v>
       </c>
       <c r="I48" s="3">
-        <v>21500</v>
+        <v>7000</v>
       </c>
       <c r="J48" s="3">
+        <v>21200</v>
+      </c>
+      <c r="K48" s="3">
         <v>8200</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2319,8 +2427,11 @@
       <c r="P48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2568,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2463,23 +2583,23 @@
         <v>400</v>
       </c>
       <c r="F52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G52" s="3">
         <v>300</v>
       </c>
       <c r="H52" s="3">
+        <v>300</v>
+      </c>
+      <c r="I52" s="3">
         <v>800</v>
       </c>
-      <c r="I52" s="3">
-        <v>2100</v>
-      </c>
       <c r="J52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K52" s="3">
         <v>1000</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>16</v>
       </c>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,35 +2662,38 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>161700</v>
+        <v>363600</v>
       </c>
       <c r="E54" s="3">
-        <v>113100</v>
+        <v>159600</v>
       </c>
       <c r="F54" s="3">
-        <v>141800</v>
+        <v>111600</v>
       </c>
       <c r="G54" s="3">
-        <v>152000</v>
+        <v>139900</v>
       </c>
       <c r="H54" s="3">
-        <v>154700</v>
+        <v>150000</v>
       </c>
       <c r="I54" s="3">
-        <v>249000</v>
+        <v>152700</v>
       </c>
       <c r="J54" s="3">
+        <v>245800</v>
+      </c>
+      <c r="K54" s="3">
         <v>225300</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>16</v>
       </c>
@@ -2583,8 +2709,11 @@
       <c r="P54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,35 +2749,36 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E57" s="3">
         <v>5800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2500</v>
       </c>
-      <c r="G57" s="3">
-        <v>10300</v>
-      </c>
       <c r="H57" s="3">
-        <v>15500</v>
+        <v>10100</v>
       </c>
       <c r="I57" s="3">
-        <v>11600</v>
+        <v>15300</v>
       </c>
       <c r="J57" s="3">
+        <v>11500</v>
+      </c>
+      <c r="K57" s="3">
         <v>9700</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>16</v>
       </c>
@@ -2663,35 +2794,38 @@
       <c r="P57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7600</v>
+        <v>5000</v>
       </c>
       <c r="E58" s="3">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="F58" s="3">
-        <v>30600</v>
+        <v>7500</v>
       </c>
       <c r="G58" s="3">
-        <v>29600</v>
+        <v>30200</v>
       </c>
       <c r="H58" s="3">
-        <v>19900</v>
+        <v>29200</v>
       </c>
       <c r="I58" s="3">
-        <v>38800</v>
+        <v>19600</v>
       </c>
       <c r="J58" s="3">
+        <v>38300</v>
+      </c>
+      <c r="K58" s="3">
         <v>30800</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>16</v>
       </c>
@@ -2707,35 +2841,38 @@
       <c r="P58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>79000</v>
+        <v>261400</v>
       </c>
       <c r="E59" s="3">
-        <v>16700</v>
+        <v>78000</v>
       </c>
       <c r="F59" s="3">
-        <v>5400</v>
+        <v>16500</v>
       </c>
       <c r="G59" s="3">
-        <v>5700</v>
+        <v>5300</v>
       </c>
       <c r="H59" s="3">
-        <v>9200</v>
+        <v>5600</v>
       </c>
       <c r="I59" s="3">
-        <v>53900</v>
+        <v>9100</v>
       </c>
       <c r="J59" s="3">
+        <v>53200</v>
+      </c>
+      <c r="K59" s="3">
         <v>54400</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>16</v>
       </c>
@@ -2751,35 +2888,38 @@
       <c r="P59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>92400</v>
+        <v>273300</v>
       </c>
       <c r="E60" s="3">
-        <v>25900</v>
+        <v>91200</v>
       </c>
       <c r="F60" s="3">
-        <v>38500</v>
+        <v>25600</v>
       </c>
       <c r="G60" s="3">
-        <v>45500</v>
+        <v>38000</v>
       </c>
       <c r="H60" s="3">
-        <v>44500</v>
+        <v>45000</v>
       </c>
       <c r="I60" s="3">
-        <v>104300</v>
+        <v>43900</v>
       </c>
       <c r="J60" s="3">
+        <v>103000</v>
+      </c>
+      <c r="K60" s="3">
         <v>94900</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>16</v>
       </c>
@@ -2795,8 +2935,11 @@
       <c r="P60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,35 +2982,38 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1800</v>
+        <v>1300</v>
       </c>
       <c r="E62" s="3">
-        <v>2400</v>
+        <v>1700</v>
       </c>
       <c r="F62" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G62" s="3">
         <v>2700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2100</v>
       </c>
-      <c r="I62" s="3">
-        <v>2800</v>
-      </c>
       <c r="J62" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K62" s="3">
         <v>2900</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>16</v>
       </c>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,35 +3170,38 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>94200</v>
+        <v>274600</v>
       </c>
       <c r="E66" s="3">
-        <v>28300</v>
+        <v>93000</v>
       </c>
       <c r="F66" s="3">
-        <v>41200</v>
+        <v>27900</v>
       </c>
       <c r="G66" s="3">
-        <v>48800</v>
+        <v>40600</v>
       </c>
       <c r="H66" s="3">
-        <v>46600</v>
+        <v>48200</v>
       </c>
       <c r="I66" s="3">
-        <v>107100</v>
+        <v>46000</v>
       </c>
       <c r="J66" s="3">
+        <v>105700</v>
+      </c>
+      <c r="K66" s="3">
         <v>97800</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>16</v>
       </c>
@@ -3059,8 +3217,11 @@
       <c r="P66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,35 +3424,38 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-171400</v>
+        <v>-168900</v>
       </c>
       <c r="E72" s="3">
-        <v>-160100</v>
+        <v>-169100</v>
       </c>
       <c r="F72" s="3">
-        <v>-146600</v>
+        <v>-158000</v>
       </c>
       <c r="G72" s="3">
-        <v>-144000</v>
+        <v>-144700</v>
       </c>
       <c r="H72" s="3">
-        <v>-137800</v>
+        <v>-142200</v>
       </c>
       <c r="I72" s="3">
-        <v>-13300</v>
+        <v>-136000</v>
       </c>
       <c r="J72" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-28000</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>16</v>
       </c>
@@ -3297,8 +3471,11 @@
       <c r="P72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,35 +3612,38 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>67500</v>
+        <v>89000</v>
       </c>
       <c r="E76" s="3">
-        <v>84800</v>
+        <v>66600</v>
       </c>
       <c r="F76" s="3">
-        <v>100600</v>
+        <v>83700</v>
       </c>
       <c r="G76" s="3">
-        <v>103100</v>
+        <v>99300</v>
       </c>
       <c r="H76" s="3">
-        <v>108100</v>
+        <v>101800</v>
       </c>
       <c r="I76" s="3">
-        <v>141900</v>
+        <v>106700</v>
       </c>
       <c r="J76" s="3">
+        <v>140100</v>
+      </c>
+      <c r="K76" s="3">
         <v>127500</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>16</v>
       </c>
@@ -3473,8 +3659,11 @@
       <c r="P76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-11200</v>
+        <v>200</v>
       </c>
       <c r="E81" s="3">
-        <v>-13500</v>
+        <v>-11100</v>
       </c>
       <c r="F81" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="G81" s="3">
         <v>-2600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-6200</v>
       </c>
-      <c r="H81" s="3">
-        <v>-124500</v>
-      </c>
       <c r="I81" s="3">
-        <v>14800</v>
+        <v>-122900</v>
       </c>
       <c r="J81" s="3">
+        <v>14600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-41000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-10400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-9700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-62200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>93300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,31 +3826,32 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>16</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
       </c>
       <c r="H83" s="3">
-        <v>500</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>16</v>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,31 +4106,34 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>16</v>
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>-42000</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>16</v>
@@ -3936,8 +4153,11 @@
       <c r="P89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,31 +4174,32 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>16</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>16</v>
@@ -3998,8 +4219,11 @@
       <c r="P91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,31 +4313,34 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>16</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3">
-        <v>10600</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>16</v>
@@ -4130,8 +4360,11 @@
       <c r="P94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,31 +4567,34 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>16</v>
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>62000</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>16</v>
@@ -4368,31 +4614,34 @@
       <c r="P100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>16</v>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
       </c>
       <c r="H101" s="3">
-        <v>-600</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>16</v>
@@ -4412,31 +4661,34 @@
       <c r="P101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>16</v>
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
       </c>
       <c r="H102" s="3">
-        <v>30000</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>16</v>
@@ -4454,6 +4706,9 @@
         <v>16</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="92">
   <si>
     <t>CAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,245 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>62000</v>
+        <v>206300</v>
       </c>
       <c r="E8" s="3">
-        <v>5900</v>
+        <v>169400</v>
       </c>
       <c r="F8" s="3">
-        <v>25100</v>
+        <v>63100</v>
       </c>
       <c r="G8" s="3">
-        <v>27400</v>
+        <v>6000</v>
       </c>
       <c r="H8" s="3">
-        <v>10500</v>
+        <v>25500</v>
       </c>
       <c r="I8" s="3">
+        <v>27900</v>
+      </c>
+      <c r="J8" s="3">
+        <v>10700</v>
+      </c>
+      <c r="K8" s="3">
         <v>71300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>103300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>37700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>7200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>40300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>69800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>126000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>153300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>76600</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>32100</v>
+        <v>90200</v>
       </c>
       <c r="E9" s="3">
-        <v>4500</v>
+        <v>102400</v>
       </c>
       <c r="F9" s="3">
-        <v>27700</v>
+        <v>32700</v>
       </c>
       <c r="G9" s="3">
-        <v>20800</v>
+        <v>4600</v>
       </c>
       <c r="H9" s="3">
-        <v>10100</v>
+        <v>28200</v>
       </c>
       <c r="I9" s="3">
+        <v>21100</v>
+      </c>
+      <c r="J9" s="3">
+        <v>10300</v>
+      </c>
+      <c r="K9" s="3">
         <v>175000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>80700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>36000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>7100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>38600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>62700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>174600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>40600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>41600</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>29900</v>
+        <v>116100</v>
       </c>
       <c r="E10" s="3">
+        <v>67000</v>
+      </c>
+      <c r="F10" s="3">
+        <v>30400</v>
+      </c>
+      <c r="G10" s="3">
         <v>1400</v>
       </c>
-      <c r="F10" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="G10" s="3">
-        <v>6700</v>
-      </c>
       <c r="H10" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="I10" s="3">
+        <v>6800</v>
+      </c>
+      <c r="J10" s="3">
         <v>400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>-103700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>22500</v>
-      </c>
-      <c r="K10" s="3">
-        <v>1700</v>
-      </c>
-      <c r="L10" s="3">
-        <v>100</v>
       </c>
       <c r="M10" s="3">
         <v>1700</v>
       </c>
       <c r="N10" s="3">
+        <v>100</v>
+      </c>
+      <c r="O10" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P10" s="3">
         <v>7100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>-48500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>112800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,55 +921,63 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>9000</v>
+        <v>14500</v>
       </c>
       <c r="E12" s="3">
-        <v>6200</v>
+        <v>10900</v>
       </c>
       <c r="F12" s="3">
-        <v>4900</v>
+        <v>9100</v>
       </c>
       <c r="G12" s="3">
-        <v>4000</v>
+        <v>6300</v>
       </c>
       <c r="H12" s="3">
-        <v>6400</v>
+        <v>5000</v>
       </c>
       <c r="I12" s="3">
+        <v>4100</v>
+      </c>
+      <c r="J12" s="3">
+        <v>6500</v>
+      </c>
+      <c r="K12" s="3">
         <v>9600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>5700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>5600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>4800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>7400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>9800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>5500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>4700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -989,8 +1023,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1036,8 +1076,14 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1056,35 +1102,41 @@
       <c r="H15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="3">
         <v>500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>400</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M15" s="3" t="s">
         <v>16</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1151,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>64100</v>
+        <v>133800</v>
       </c>
       <c r="E17" s="3">
-        <v>16800</v>
+        <v>143500</v>
       </c>
       <c r="F17" s="3">
-        <v>39400</v>
+        <v>65200</v>
       </c>
       <c r="G17" s="3">
-        <v>30300</v>
+        <v>17100</v>
       </c>
       <c r="H17" s="3">
-        <v>21500</v>
+        <v>40100</v>
       </c>
       <c r="I17" s="3">
+        <v>30800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>21800</v>
+      </c>
+      <c r="K17" s="3">
         <v>194700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>91900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>79600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>16100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>51200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>79700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>188800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>51000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>58400</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>72500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>25900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2100</v>
       </c>
-      <c r="E18" s="3">
-        <v>-10900</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-14300</v>
-      </c>
       <c r="G18" s="3">
-        <v>-2900</v>
+        <v>-11100</v>
       </c>
       <c r="H18" s="3">
-        <v>-10900</v>
+        <v>-14500</v>
       </c>
       <c r="I18" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-123400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>11300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-42000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-8900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-10800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-9900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-62800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>102400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1212,55 +1278,63 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>2300</v>
+        <v>600</v>
       </c>
       <c r="E20" s="3">
+        <v>500</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>1100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>600</v>
       </c>
-      <c r="H20" s="3">
-        <v>5000</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>5100</v>
+      </c>
+      <c r="K20" s="3">
         <v>700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>3600</v>
-      </c>
-      <c r="K20" s="3">
-        <v>1500</v>
-      </c>
-      <c r="L20" s="3">
-        <v>500</v>
       </c>
       <c r="M20" s="3">
         <v>1500</v>
       </c>
       <c r="N20" s="3">
+        <v>500</v>
+      </c>
+      <c r="O20" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P20" s="3">
         <v>1800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>9800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>4300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1282,32 +1356,38 @@
       <c r="I21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="3">
         <v>16500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-39400</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P21" s="3">
         <v>-7000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-52400</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1318,90 +1398,102 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>100</v>
-      </c>
-      <c r="G22" s="3">
-        <v>200</v>
-      </c>
-      <c r="H22" s="3">
-        <v>200</v>
       </c>
       <c r="I22" s="3">
         <v>200</v>
       </c>
       <c r="J22" s="3">
+        <v>200</v>
+      </c>
+      <c r="K22" s="3">
+        <v>200</v>
+      </c>
+      <c r="L22" s="3">
         <v>300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>2000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>2700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>2400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>2400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>100</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>73200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>26400</v>
+      </c>
+      <c r="F23" s="3">
         <v>200</v>
       </c>
-      <c r="E23" s="3">
-        <v>-11100</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-13300</v>
-      </c>
       <c r="G23" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="I23" s="3">
         <v>-2600</v>
       </c>
-      <c r="H23" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-122900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>14600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-41000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-10400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-12100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-10600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-55400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>106600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1409,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1433,22 +1525,28 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-8100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>6700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>13300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1592,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>73100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>26300</v>
+      </c>
+      <c r="F26" s="3">
         <v>200</v>
       </c>
-      <c r="E26" s="3">
-        <v>-11100</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-13300</v>
-      </c>
       <c r="G26" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="I26" s="3">
         <v>-2600</v>
       </c>
-      <c r="H26" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-122900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>14600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-41000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-10400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-4000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-9700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-62200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>93300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>73100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>26300</v>
+      </c>
+      <c r="F27" s="3">
         <v>200</v>
       </c>
-      <c r="E27" s="3">
-        <v>-11100</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-13300</v>
-      </c>
       <c r="G27" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="I27" s="3">
         <v>-2600</v>
       </c>
-      <c r="H27" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-122900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>14600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-41000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-10400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-4000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-9700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-62200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>93300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1751,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1804,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1857,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1910,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2300</v>
+        <v>-600</v>
       </c>
       <c r="E32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-1100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-600</v>
       </c>
-      <c r="H32" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-3600</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-500</v>
       </c>
       <c r="M32" s="3">
         <v>-1500</v>
       </c>
       <c r="N32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O32" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="P32" s="3">
         <v>-1800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-9800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>73100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>26300</v>
+      </c>
+      <c r="F33" s="3">
         <v>200</v>
       </c>
-      <c r="E33" s="3">
-        <v>-11100</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-13300</v>
-      </c>
       <c r="G33" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="I33" s="3">
         <v>-2600</v>
       </c>
-      <c r="H33" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-122900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>14600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-41000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-10400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-4000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-9700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-62200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>93300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +2069,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>73100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>26300</v>
+      </c>
+      <c r="F35" s="3">
         <v>200</v>
       </c>
-      <c r="E35" s="3">
-        <v>-11100</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-13300</v>
-      </c>
       <c r="G35" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="I35" s="3">
         <v>-2600</v>
       </c>
-      <c r="H35" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-122900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>14600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-41000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-10400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-4000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-9700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-62200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>93300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2205,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,41 +2226,43 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>206000</v>
+        <v>265900</v>
       </c>
       <c r="E41" s="3">
-        <v>60300</v>
+        <v>191000</v>
       </c>
       <c r="F41" s="3">
-        <v>27300</v>
+        <v>209400</v>
       </c>
       <c r="G41" s="3">
-        <v>24200</v>
+        <v>61300</v>
       </c>
       <c r="H41" s="3">
-        <v>40700</v>
+        <v>27800</v>
       </c>
       <c r="I41" s="3">
+        <v>24600</v>
+      </c>
+      <c r="J41" s="3">
+        <v>41400</v>
+      </c>
+      <c r="K41" s="3">
         <v>80400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>51200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>42200</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2101,41 +2275,47 @@
       <c r="Q41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
         <v>1300</v>
       </c>
-      <c r="E42" s="3">
-        <v>9600</v>
-      </c>
-      <c r="F42" s="3">
-        <v>31500</v>
-      </c>
       <c r="G42" s="3">
-        <v>53500</v>
+        <v>9800</v>
       </c>
       <c r="H42" s="3">
-        <v>26700</v>
+        <v>32000</v>
       </c>
       <c r="I42" s="3">
+        <v>54400</v>
+      </c>
+      <c r="J42" s="3">
+        <v>27100</v>
+      </c>
+      <c r="K42" s="3">
         <v>1700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>12500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>17200</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2148,41 +2328,47 @@
       <c r="Q42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>100</v>
+      </c>
+      <c r="F43" s="3">
         <v>1100</v>
       </c>
-      <c r="E43" s="3">
-        <v>15500</v>
-      </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
+        <v>15700</v>
+      </c>
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1600</v>
       </c>
-      <c r="H43" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K43" s="3">
         <v>24800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>23700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>26400</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2195,41 +2381,47 @@
       <c r="Q43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>57900</v>
+        <v>130400</v>
       </c>
       <c r="E44" s="3">
-        <v>34700</v>
+        <v>91900</v>
       </c>
       <c r="F44" s="3">
-        <v>8200</v>
+        <v>58900</v>
       </c>
       <c r="G44" s="3">
-        <v>13600</v>
+        <v>35300</v>
       </c>
       <c r="H44" s="3">
-        <v>34900</v>
+        <v>8300</v>
       </c>
       <c r="I44" s="3">
+        <v>13800</v>
+      </c>
+      <c r="J44" s="3">
+        <v>35500</v>
+      </c>
+      <c r="K44" s="3">
         <v>30200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>60400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>65500</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>16</v>
       </c>
@@ -2242,41 +2434,47 @@
       <c r="Q44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>91600</v>
+        <v>205100</v>
       </c>
       <c r="E45" s="3">
-        <v>35000</v>
+        <v>222300</v>
       </c>
       <c r="F45" s="3">
-        <v>38600</v>
+        <v>93100</v>
       </c>
       <c r="G45" s="3">
-        <v>27800</v>
+        <v>35600</v>
       </c>
       <c r="H45" s="3">
-        <v>40100</v>
+        <v>39300</v>
       </c>
       <c r="I45" s="3">
+        <v>28300</v>
+      </c>
+      <c r="J45" s="3">
+        <v>40800</v>
+      </c>
+      <c r="K45" s="3">
         <v>7700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>74700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>64800</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2289,41 +2487,47 @@
       <c r="Q45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>357900</v>
+        <v>601600</v>
       </c>
       <c r="E46" s="3">
-        <v>155100</v>
+        <v>505300</v>
       </c>
       <c r="F46" s="3">
-        <v>105700</v>
+        <v>363900</v>
       </c>
       <c r="G46" s="3">
-        <v>120600</v>
+        <v>157700</v>
       </c>
       <c r="H46" s="3">
-        <v>143500</v>
+        <v>107500</v>
       </c>
       <c r="I46" s="3">
+        <v>122600</v>
+      </c>
+      <c r="J46" s="3">
+        <v>145900</v>
+      </c>
+      <c r="K46" s="3">
         <v>144900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>222500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>216100</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2336,26 +2540,32 @@
       <c r="Q46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>3100</v>
       </c>
       <c r="E47" s="3">
         <v>0</v>
       </c>
       <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
         <v>400</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>16</v>
       </c>
@@ -2368,11 +2578,11 @@
       <c r="L47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2383,41 +2593,47 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F48" s="3">
         <v>5400</v>
       </c>
-      <c r="E48" s="3">
-        <v>4100</v>
-      </c>
-      <c r="F48" s="3">
-        <v>5100</v>
-      </c>
       <c r="G48" s="3">
-        <v>19000</v>
+        <v>4200</v>
       </c>
       <c r="H48" s="3">
-        <v>6200</v>
+        <v>5200</v>
       </c>
       <c r="I48" s="3">
+        <v>19300</v>
+      </c>
+      <c r="J48" s="3">
+        <v>6300</v>
+      </c>
+      <c r="K48" s="3">
         <v>7000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>21200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>8200</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2430,8 +2646,14 @@
       <c r="Q48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2699,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2752,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,41 +2805,47 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>400</v>
+        <v>1400</v>
       </c>
       <c r="E52" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F52" s="3">
         <v>400</v>
       </c>
       <c r="G52" s="3">
+        <v>400</v>
+      </c>
+      <c r="H52" s="3">
+        <v>400</v>
+      </c>
+      <c r="I52" s="3">
         <v>300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>2000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1000</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>16</v>
       </c>
@@ -2618,8 +2858,14 @@
       <c r="Q52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,41 +2911,47 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>363600</v>
+        <v>615000</v>
       </c>
       <c r="E54" s="3">
-        <v>159600</v>
+        <v>513100</v>
       </c>
       <c r="F54" s="3">
-        <v>111600</v>
+        <v>369700</v>
       </c>
       <c r="G54" s="3">
-        <v>139900</v>
+        <v>162300</v>
       </c>
       <c r="H54" s="3">
-        <v>150000</v>
+        <v>113500</v>
       </c>
       <c r="I54" s="3">
+        <v>142300</v>
+      </c>
+      <c r="J54" s="3">
+        <v>152500</v>
+      </c>
+      <c r="K54" s="3">
         <v>152700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>245800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>225300</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>16</v>
       </c>
@@ -2712,8 +2964,14 @@
       <c r="Q54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2989,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,41 +3010,43 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7000</v>
+        <v>18900</v>
       </c>
       <c r="E57" s="3">
-        <v>5800</v>
+        <v>16900</v>
       </c>
       <c r="F57" s="3">
-        <v>1600</v>
+        <v>7100</v>
       </c>
       <c r="G57" s="3">
+        <v>5900</v>
+      </c>
+      <c r="H57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I57" s="3">
         <v>2500</v>
       </c>
-      <c r="H57" s="3">
-        <v>10100</v>
-      </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
+        <v>10300</v>
+      </c>
+      <c r="K57" s="3">
         <v>15300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>11500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>9700</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>16</v>
       </c>
@@ -2797,41 +3059,47 @@
       <c r="Q57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>7500</v>
+        <v>5100</v>
       </c>
       <c r="G58" s="3">
-        <v>30200</v>
+        <v>7600</v>
       </c>
       <c r="H58" s="3">
-        <v>29200</v>
+        <v>7600</v>
       </c>
       <c r="I58" s="3">
+        <v>30700</v>
+      </c>
+      <c r="J58" s="3">
+        <v>29700</v>
+      </c>
+      <c r="K58" s="3">
         <v>19600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>38300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>30800</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>16</v>
       </c>
@@ -2844,41 +3112,47 @@
       <c r="Q58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>261400</v>
+        <v>207700</v>
       </c>
       <c r="E59" s="3">
-        <v>78000</v>
+        <v>194000</v>
       </c>
       <c r="F59" s="3">
-        <v>16500</v>
+        <v>265800</v>
       </c>
       <c r="G59" s="3">
-        <v>5300</v>
+        <v>79300</v>
       </c>
       <c r="H59" s="3">
-        <v>5600</v>
+        <v>16700</v>
       </c>
       <c r="I59" s="3">
+        <v>5400</v>
+      </c>
+      <c r="J59" s="3">
+        <v>5700</v>
+      </c>
+      <c r="K59" s="3">
         <v>9100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>53200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>54400</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>16</v>
       </c>
@@ -2891,41 +3165,47 @@
       <c r="Q59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>273300</v>
+        <v>226500</v>
       </c>
       <c r="E60" s="3">
-        <v>91200</v>
+        <v>210800</v>
       </c>
       <c r="F60" s="3">
-        <v>25600</v>
+        <v>277900</v>
       </c>
       <c r="G60" s="3">
-        <v>38000</v>
+        <v>92800</v>
       </c>
       <c r="H60" s="3">
-        <v>45000</v>
+        <v>26000</v>
       </c>
       <c r="I60" s="3">
+        <v>38600</v>
+      </c>
+      <c r="J60" s="3">
+        <v>45700</v>
+      </c>
+      <c r="K60" s="3">
         <v>43900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>103000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>94900</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>16</v>
       </c>
@@ -2938,8 +3218,14 @@
       <c r="Q60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,41 +3271,47 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>11600</v>
+      </c>
+      <c r="F62" s="3">
         <v>1300</v>
       </c>
-      <c r="E62" s="3">
-        <v>1700</v>
-      </c>
-      <c r="F62" s="3">
-        <v>2300</v>
-      </c>
       <c r="G62" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H62" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I62" s="3">
         <v>2700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>3300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>2100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>2900</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>16</v>
       </c>
@@ -3032,8 +3324,14 @@
       <c r="Q62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3377,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3430,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,41 +3483,47 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>274600</v>
+        <v>229500</v>
       </c>
       <c r="E66" s="3">
-        <v>93000</v>
+        <v>222400</v>
       </c>
       <c r="F66" s="3">
-        <v>27900</v>
+        <v>279200</v>
       </c>
       <c r="G66" s="3">
-        <v>40600</v>
+        <v>94500</v>
       </c>
       <c r="H66" s="3">
-        <v>48200</v>
+        <v>28400</v>
       </c>
       <c r="I66" s="3">
+        <v>41300</v>
+      </c>
+      <c r="J66" s="3">
+        <v>49000</v>
+      </c>
+      <c r="K66" s="3">
         <v>46000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>105700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>97800</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>16</v>
       </c>
@@ -3220,8 +3536,14 @@
       <c r="Q66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3561,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3610,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3663,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3716,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,41 +3769,47 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-168900</v>
+        <v>-72400</v>
       </c>
       <c r="E72" s="3">
-        <v>-169100</v>
+        <v>-133400</v>
       </c>
       <c r="F72" s="3">
-        <v>-158000</v>
+        <v>-171800</v>
       </c>
       <c r="G72" s="3">
-        <v>-144700</v>
+        <v>-172000</v>
       </c>
       <c r="H72" s="3">
-        <v>-142200</v>
+        <v>-160700</v>
       </c>
       <c r="I72" s="3">
+        <v>-147200</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-144500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-136000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-13100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-28000</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>16</v>
       </c>
@@ -3474,8 +3822,14 @@
       <c r="Q72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3875,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3928,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,41 +3981,47 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>89000</v>
+        <v>385600</v>
       </c>
       <c r="E76" s="3">
-        <v>66600</v>
+        <v>290700</v>
       </c>
       <c r="F76" s="3">
-        <v>83700</v>
+        <v>90500</v>
       </c>
       <c r="G76" s="3">
-        <v>99300</v>
+        <v>67700</v>
       </c>
       <c r="H76" s="3">
-        <v>101800</v>
+        <v>85100</v>
       </c>
       <c r="I76" s="3">
+        <v>101000</v>
+      </c>
+      <c r="J76" s="3">
+        <v>103500</v>
+      </c>
+      <c r="K76" s="3">
         <v>106700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>140100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>127500</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>16</v>
       </c>
@@ -3662,8 +4034,14 @@
       <c r="Q76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +4087,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>73100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>26300</v>
+      </c>
+      <c r="F81" s="3">
         <v>200</v>
       </c>
-      <c r="E81" s="3">
-        <v>-11100</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-13300</v>
-      </c>
       <c r="G81" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="I81" s="3">
         <v>-2600</v>
       </c>
-      <c r="H81" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-122900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>14600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-41000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-10400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-4000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-9700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-62200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>93300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4223,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3853,11 +4251,11 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>16</v>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>16</v>
@@ -3874,8 +4272,14 @@
       <c r="Q83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4325,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4378,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4431,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4484,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,8 +4537,14 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4135,11 +4569,11 @@
       <c r="J89" s="3">
         <v>0</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>16</v>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>16</v>
@@ -4156,8 +4590,14 @@
       <c r="Q89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4615,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4201,11 +4643,11 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>16</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>16</v>
@@ -4222,8 +4664,14 @@
       <c r="Q91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4717,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4770,14 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4342,11 +4802,11 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>16</v>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>16</v>
@@ -4363,8 +4823,14 @@
       <c r="Q94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4848,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4897,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4950,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5003,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,8 +5056,14 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4596,11 +5088,11 @@
       <c r="J100" s="3">
         <v>0</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>16</v>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>16</v>
@@ -4617,8 +5109,14 @@
       <c r="Q100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4643,11 +5141,11 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>16</v>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>16</v>
@@ -4664,8 +5162,14 @@
       <c r="Q101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4690,11 +5194,11 @@
       <c r="J102" s="3">
         <v>0</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>16</v>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>16</v>
@@ -4709,6 +5213,12 @@
         <v>16</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="92">
   <si>
     <t>CAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,257 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>206300</v>
+        <v>344600</v>
       </c>
       <c r="E8" s="3">
-        <v>169400</v>
+        <v>442100</v>
       </c>
       <c r="F8" s="3">
-        <v>63100</v>
+        <v>170700</v>
       </c>
       <c r="G8" s="3">
+        <v>63500</v>
+      </c>
+      <c r="H8" s="3">
         <v>6000</v>
       </c>
-      <c r="H8" s="3">
-        <v>25500</v>
-      </c>
       <c r="I8" s="3">
-        <v>27900</v>
+        <v>25700</v>
       </c>
       <c r="J8" s="3">
+        <v>28100</v>
+      </c>
+      <c r="K8" s="3">
         <v>10700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>71300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>103300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>37700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>40300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>69800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>126000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>153300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>76600</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>90200</v>
+        <v>110100</v>
       </c>
       <c r="E9" s="3">
-        <v>102400</v>
+        <v>317800</v>
       </c>
       <c r="F9" s="3">
-        <v>32700</v>
+        <v>103200</v>
       </c>
       <c r="G9" s="3">
+        <v>32900</v>
+      </c>
+      <c r="H9" s="3">
         <v>4600</v>
       </c>
-      <c r="H9" s="3">
-        <v>28200</v>
-      </c>
       <c r="I9" s="3">
-        <v>21100</v>
+        <v>28400</v>
       </c>
       <c r="J9" s="3">
+        <v>21300</v>
+      </c>
+      <c r="K9" s="3">
         <v>10300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>175000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>80700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>36000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>38600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>62700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>174600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>40600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>41600</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>116100</v>
+        <v>234600</v>
       </c>
       <c r="E10" s="3">
-        <v>67000</v>
+        <v>124300</v>
       </c>
       <c r="F10" s="3">
-        <v>30400</v>
+        <v>67500</v>
       </c>
       <c r="G10" s="3">
+        <v>30600</v>
+      </c>
+      <c r="H10" s="3">
         <v>1400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-2700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>6800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-103700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>22500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>7100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-48500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>112800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -923,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>14500</v>
+        <v>17700</v>
       </c>
       <c r="E12" s="3">
-        <v>10900</v>
+        <v>49500</v>
       </c>
       <c r="F12" s="3">
-        <v>9100</v>
+        <v>11000</v>
       </c>
       <c r="G12" s="3">
+        <v>9200</v>
+      </c>
+      <c r="H12" s="3">
         <v>6300</v>
       </c>
-      <c r="H12" s="3">
-        <v>5000</v>
-      </c>
       <c r="I12" s="3">
+        <v>5100</v>
+      </c>
+      <c r="J12" s="3">
         <v>4100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>6500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>9600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>5700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>5600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>4800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>7400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>9800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>5500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>4700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1029,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1082,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1108,15 +1130,15 @@
       <c r="J15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="3">
         <v>500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>400</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N15" s="3" t="s">
         <v>16</v>
       </c>
@@ -1126,8 +1148,8 @@
       <c r="P15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1135,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>133800</v>
+        <v>153200</v>
       </c>
       <c r="E17" s="3">
-        <v>143500</v>
+        <v>345000</v>
       </c>
       <c r="F17" s="3">
-        <v>65200</v>
+        <v>144600</v>
       </c>
       <c r="G17" s="3">
-        <v>17100</v>
+        <v>65700</v>
       </c>
       <c r="H17" s="3">
-        <v>40100</v>
+        <v>17200</v>
       </c>
       <c r="I17" s="3">
-        <v>30800</v>
+        <v>40400</v>
       </c>
       <c r="J17" s="3">
+        <v>31100</v>
+      </c>
+      <c r="K17" s="3">
         <v>21800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>194700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>91900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>79600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>16100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>51200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>79700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>188800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>51000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>58400</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>72500</v>
+        <v>191400</v>
       </c>
       <c r="E18" s="3">
-        <v>25900</v>
+        <v>97000</v>
       </c>
       <c r="F18" s="3">
-        <v>-2100</v>
+        <v>26100</v>
       </c>
       <c r="G18" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-11100</v>
       </c>
-      <c r="H18" s="3">
-        <v>-14500</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-11100</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-123400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>11300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-42000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-8900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-10800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-9900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-62800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>102400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1280,61 +1312,65 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>29800</v>
+      </c>
+      <c r="F20" s="3">
+        <v>500</v>
+      </c>
+      <c r="G20" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J20" s="3">
         <v>600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="K20" s="3">
+        <v>5100</v>
+      </c>
+      <c r="L20" s="3">
+        <v>700</v>
+      </c>
+      <c r="M20" s="3">
+        <v>3600</v>
+      </c>
+      <c r="N20" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
-        <v>2400</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>600</v>
-      </c>
-      <c r="J20" s="3">
-        <v>5100</v>
-      </c>
-      <c r="K20" s="3">
-        <v>700</v>
-      </c>
-      <c r="L20" s="3">
-        <v>3600</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="P20" s="3">
         <v>1500</v>
       </c>
-      <c r="N20" s="3">
-        <v>500</v>
-      </c>
-      <c r="O20" s="3">
-        <v>1500</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>9800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>4300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1362,37 +1398,40 @@
       <c r="K21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="3">
         <v>16500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-39400</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-52400</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1404,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>100</v>
-      </c>
-      <c r="I22" s="3">
-        <v>200</v>
       </c>
       <c r="J22" s="3">
         <v>200</v>
@@ -1416,95 +1455,101 @@
         <v>200</v>
       </c>
       <c r="L22" s="3">
+        <v>200</v>
+      </c>
+      <c r="M22" s="3">
         <v>300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2700</v>
-      </c>
-      <c r="P22" s="3">
-        <v>2400</v>
       </c>
       <c r="Q22" s="3">
         <v>2400</v>
       </c>
       <c r="R22" s="3">
+        <v>2400</v>
+      </c>
+      <c r="S22" s="3">
         <v>100</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>73200</v>
+        <v>196600</v>
       </c>
       <c r="E23" s="3">
-        <v>26400</v>
+        <v>126900</v>
       </c>
       <c r="F23" s="3">
+        <v>26600</v>
+      </c>
+      <c r="G23" s="3">
         <v>200</v>
       </c>
-      <c r="G23" s="3">
-        <v>-11300</v>
-      </c>
       <c r="H23" s="3">
-        <v>-13500</v>
+        <v>-11400</v>
       </c>
       <c r="I23" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="J23" s="3">
         <v>-2600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-122900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>14600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-41000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-10400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-12100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-10600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-55400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>106600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>7800</v>
       </c>
       <c r="E24" s="3">
         <v>100</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1531,22 +1576,25 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>-8100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>6700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>13300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>73100</v>
+        <v>188800</v>
       </c>
       <c r="E26" s="3">
-        <v>26300</v>
+        <v>126800</v>
       </c>
       <c r="F26" s="3">
+        <v>26500</v>
+      </c>
+      <c r="G26" s="3">
         <v>200</v>
       </c>
-      <c r="G26" s="3">
-        <v>-11300</v>
-      </c>
       <c r="H26" s="3">
-        <v>-13500</v>
+        <v>-11400</v>
       </c>
       <c r="I26" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="J26" s="3">
         <v>-2600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-122900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>14600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-41000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-10400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-9700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-62200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>93300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>73100</v>
+        <v>188800</v>
       </c>
       <c r="E27" s="3">
-        <v>26300</v>
+        <v>126800</v>
       </c>
       <c r="F27" s="3">
+        <v>26500</v>
+      </c>
+      <c r="G27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
-        <v>-11300</v>
-      </c>
       <c r="H27" s="3">
-        <v>-13500</v>
+        <v>-11400</v>
       </c>
       <c r="I27" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="J27" s="3">
         <v>-2600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-6300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-122900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>14600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-41000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-10400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-9700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-62200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>93300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-29800</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="H32" s="3">
+        <v>100</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J32" s="3">
         <v>-600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="K32" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="G32" s="3">
-        <v>100</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-600</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-5100</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-700</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="P32" s="3">
         <v>-1500</v>
       </c>
-      <c r="N32" s="3">
-        <v>-500</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-9800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-4300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>73100</v>
+        <v>188800</v>
       </c>
       <c r="E33" s="3">
-        <v>26300</v>
+        <v>126800</v>
       </c>
       <c r="F33" s="3">
+        <v>26500</v>
+      </c>
+      <c r="G33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
-        <v>-11300</v>
-      </c>
       <c r="H33" s="3">
-        <v>-13500</v>
+        <v>-11400</v>
       </c>
       <c r="I33" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="J33" s="3">
         <v>-2600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-6300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-122900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>14600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-41000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-10400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-9700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-62200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>93300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>73100</v>
+        <v>188800</v>
       </c>
       <c r="E35" s="3">
-        <v>26300</v>
+        <v>126800</v>
       </c>
       <c r="F35" s="3">
+        <v>26500</v>
+      </c>
+      <c r="G35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
-        <v>-11300</v>
-      </c>
       <c r="H35" s="3">
-        <v>-13500</v>
+        <v>-11400</v>
       </c>
       <c r="I35" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="J35" s="3">
         <v>-2600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-6300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-122900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>14600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-41000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-10400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-9700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-62200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>93300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,44 +2313,45 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>265900</v>
+        <v>423500</v>
       </c>
       <c r="E41" s="3">
-        <v>191000</v>
+        <v>267900</v>
       </c>
       <c r="F41" s="3">
-        <v>209400</v>
+        <v>192500</v>
       </c>
       <c r="G41" s="3">
-        <v>61300</v>
+        <v>211100</v>
       </c>
       <c r="H41" s="3">
-        <v>27800</v>
+        <v>61700</v>
       </c>
       <c r="I41" s="3">
-        <v>24600</v>
+        <v>28000</v>
       </c>
       <c r="J41" s="3">
+        <v>24800</v>
+      </c>
+      <c r="K41" s="3">
         <v>41400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>80400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>51200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>42200</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2281,44 +2367,47 @@
       <c r="S41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
       </c>
       <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
         <v>1300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>9800</v>
       </c>
-      <c r="H42" s="3">
-        <v>32000</v>
-      </c>
       <c r="I42" s="3">
-        <v>54400</v>
+        <v>32300</v>
       </c>
       <c r="J42" s="3">
+        <v>54800</v>
+      </c>
+      <c r="K42" s="3">
         <v>27100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>12500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>17200</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2334,8 +2423,11 @@
       <c r="S42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2346,32 +2438,32 @@
         <v>100</v>
       </c>
       <c r="F43" s="3">
+        <v>100</v>
+      </c>
+      <c r="G43" s="3">
         <v>1100</v>
       </c>
-      <c r="G43" s="3">
-        <v>15700</v>
-      </c>
       <c r="H43" s="3">
+        <v>15900</v>
+      </c>
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>24800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>23700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>26400</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2387,44 +2479,47 @@
       <c r="S43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>130400</v>
+        <v>128200</v>
       </c>
       <c r="E44" s="3">
-        <v>91900</v>
+        <v>131400</v>
       </c>
       <c r="F44" s="3">
-        <v>58900</v>
+        <v>92600</v>
       </c>
       <c r="G44" s="3">
-        <v>35300</v>
+        <v>59300</v>
       </c>
       <c r="H44" s="3">
-        <v>8300</v>
+        <v>35600</v>
       </c>
       <c r="I44" s="3">
-        <v>13800</v>
+        <v>8400</v>
       </c>
       <c r="J44" s="3">
+        <v>13900</v>
+      </c>
+      <c r="K44" s="3">
         <v>35500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>30200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>60400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>65500</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>16</v>
       </c>
@@ -2440,44 +2535,47 @@
       <c r="S44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>205100</v>
+        <v>280200</v>
       </c>
       <c r="E45" s="3">
-        <v>222300</v>
+        <v>206600</v>
       </c>
       <c r="F45" s="3">
-        <v>93100</v>
+        <v>224000</v>
       </c>
       <c r="G45" s="3">
-        <v>35600</v>
+        <v>93800</v>
       </c>
       <c r="H45" s="3">
-        <v>39300</v>
+        <v>35900</v>
       </c>
       <c r="I45" s="3">
-        <v>28300</v>
+        <v>39600</v>
       </c>
       <c r="J45" s="3">
+        <v>28500</v>
+      </c>
+      <c r="K45" s="3">
         <v>40800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>74700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>64800</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2493,44 +2591,47 @@
       <c r="S45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>601600</v>
+        <v>831900</v>
       </c>
       <c r="E46" s="3">
-        <v>505300</v>
+        <v>606200</v>
       </c>
       <c r="F46" s="3">
-        <v>363900</v>
+        <v>509200</v>
       </c>
       <c r="G46" s="3">
-        <v>157700</v>
+        <v>366700</v>
       </c>
       <c r="H46" s="3">
-        <v>107500</v>
+        <v>158900</v>
       </c>
       <c r="I46" s="3">
-        <v>122600</v>
+        <v>108300</v>
       </c>
       <c r="J46" s="3">
+        <v>123600</v>
+      </c>
+      <c r="K46" s="3">
         <v>145900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>144900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>222500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>216100</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2546,16 +2647,19 @@
       <c r="S46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
@@ -2564,11 +2668,11 @@
         <v>0</v>
       </c>
       <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
         <v>400</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>16</v>
       </c>
@@ -2584,8 +2688,8 @@
       <c r="N47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -2599,44 +2703,47 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>34200</v>
+      </c>
+      <c r="E48" s="3">
         <v>9000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7300</v>
       </c>
-      <c r="F48" s="3">
-        <v>5400</v>
-      </c>
       <c r="G48" s="3">
+        <v>5500</v>
+      </c>
+      <c r="H48" s="3">
         <v>4200</v>
       </c>
-      <c r="H48" s="3">
-        <v>5200</v>
-      </c>
       <c r="I48" s="3">
-        <v>19300</v>
+        <v>5300</v>
       </c>
       <c r="J48" s="3">
+        <v>19500</v>
+      </c>
+      <c r="K48" s="3">
         <v>6300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>21200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>8200</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2652,8 +2759,11 @@
       <c r="S48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2705,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,19 +2927,22 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E52" s="3">
         <v>1400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>600</v>
-      </c>
-      <c r="F52" s="3">
-        <v>400</v>
       </c>
       <c r="G52" s="3">
         <v>400</v>
@@ -2832,23 +2951,23 @@
         <v>400</v>
       </c>
       <c r="I52" s="3">
+        <v>400</v>
+      </c>
+      <c r="J52" s="3">
+        <v>400</v>
+      </c>
+      <c r="K52" s="3">
         <v>300</v>
       </c>
-      <c r="J52" s="3">
-        <v>300</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1000</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>16</v>
       </c>
@@ -2864,8 +2983,11 @@
       <c r="S52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,44 +3039,47 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>615000</v>
+        <v>888500</v>
       </c>
       <c r="E54" s="3">
-        <v>513100</v>
+        <v>619700</v>
       </c>
       <c r="F54" s="3">
-        <v>369700</v>
+        <v>517100</v>
       </c>
       <c r="G54" s="3">
-        <v>162300</v>
+        <v>372600</v>
       </c>
       <c r="H54" s="3">
-        <v>113500</v>
+        <v>163500</v>
       </c>
       <c r="I54" s="3">
-        <v>142300</v>
+        <v>114300</v>
       </c>
       <c r="J54" s="3">
+        <v>143400</v>
+      </c>
+      <c r="K54" s="3">
         <v>152500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>152700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>245800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>225300</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>16</v>
       </c>
@@ -2970,8 +3095,11 @@
       <c r="S54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,44 +3141,45 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>18900</v>
+        <v>22600</v>
       </c>
       <c r="E57" s="3">
-        <v>16900</v>
+        <v>19000</v>
       </c>
       <c r="F57" s="3">
+        <v>17000</v>
+      </c>
+      <c r="G57" s="3">
         <v>7100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>10300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>15300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>11500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9700</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>16</v>
       </c>
@@ -3065,44 +3195,47 @@
       <c r="S57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>5100</v>
       </c>
-      <c r="G58" s="3">
-        <v>7600</v>
-      </c>
       <c r="H58" s="3">
-        <v>7600</v>
+        <v>7700</v>
       </c>
       <c r="I58" s="3">
-        <v>30700</v>
+        <v>7700</v>
       </c>
       <c r="J58" s="3">
+        <v>30900</v>
+      </c>
+      <c r="K58" s="3">
         <v>29700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>19600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>38300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>30800</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>16</v>
       </c>
@@ -3118,44 +3251,47 @@
       <c r="S58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>207700</v>
+        <v>306300</v>
       </c>
       <c r="E59" s="3">
-        <v>194000</v>
+        <v>209300</v>
       </c>
       <c r="F59" s="3">
-        <v>265800</v>
+        <v>195400</v>
       </c>
       <c r="G59" s="3">
-        <v>79300</v>
+        <v>267800</v>
       </c>
       <c r="H59" s="3">
-        <v>16700</v>
+        <v>79900</v>
       </c>
       <c r="I59" s="3">
+        <v>16900</v>
+      </c>
+      <c r="J59" s="3">
         <v>5400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>53200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>54400</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3171,44 +3307,47 @@
       <c r="S59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>226500</v>
+        <v>328900</v>
       </c>
       <c r="E60" s="3">
-        <v>210800</v>
+        <v>228300</v>
       </c>
       <c r="F60" s="3">
-        <v>277900</v>
+        <v>212400</v>
       </c>
       <c r="G60" s="3">
-        <v>92800</v>
+        <v>280100</v>
       </c>
       <c r="H60" s="3">
-        <v>26000</v>
+        <v>93500</v>
       </c>
       <c r="I60" s="3">
-        <v>38600</v>
+        <v>26200</v>
       </c>
       <c r="J60" s="3">
+        <v>38900</v>
+      </c>
+      <c r="K60" s="3">
         <v>45700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>43900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>103000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>94900</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3224,8 +3363,11 @@
       <c r="S60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3277,44 +3419,47 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F62" s="3">
+        <v>11700</v>
+      </c>
+      <c r="G62" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H62" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I62" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J62" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K62" s="3">
+        <v>3300</v>
+      </c>
+      <c r="L62" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M62" s="3">
+        <v>2700</v>
+      </c>
+      <c r="N62" s="3">
         <v>2900</v>
       </c>
-      <c r="E62" s="3">
-        <v>11600</v>
-      </c>
-      <c r="F62" s="3">
-        <v>1300</v>
-      </c>
-      <c r="G62" s="3">
-        <v>1800</v>
-      </c>
-      <c r="H62" s="3">
-        <v>2400</v>
-      </c>
-      <c r="I62" s="3">
-        <v>2700</v>
-      </c>
-      <c r="J62" s="3">
-        <v>3300</v>
-      </c>
-      <c r="K62" s="3">
-        <v>2100</v>
-      </c>
-      <c r="L62" s="3">
-        <v>2700</v>
-      </c>
-      <c r="M62" s="3">
-        <v>2900</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>16</v>
       </c>
@@ -3330,8 +3475,11 @@
       <c r="S62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,44 +3643,47 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>229500</v>
+        <v>342900</v>
       </c>
       <c r="E66" s="3">
-        <v>222400</v>
+        <v>231200</v>
       </c>
       <c r="F66" s="3">
-        <v>279200</v>
+        <v>224100</v>
       </c>
       <c r="G66" s="3">
-        <v>94500</v>
+        <v>281400</v>
       </c>
       <c r="H66" s="3">
-        <v>28400</v>
+        <v>95300</v>
       </c>
       <c r="I66" s="3">
-        <v>41300</v>
+        <v>28600</v>
       </c>
       <c r="J66" s="3">
+        <v>41600</v>
+      </c>
+      <c r="K66" s="3">
         <v>49000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>46000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>105700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>97800</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>16</v>
       </c>
@@ -3542,8 +3699,11 @@
       <c r="S66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,44 +3945,47 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-72400</v>
+        <v>142300</v>
       </c>
       <c r="E72" s="3">
-        <v>-133400</v>
+        <v>-73000</v>
       </c>
       <c r="F72" s="3">
-        <v>-171800</v>
+        <v>-134400</v>
       </c>
       <c r="G72" s="3">
-        <v>-172000</v>
+        <v>-173100</v>
       </c>
       <c r="H72" s="3">
-        <v>-160700</v>
+        <v>-173300</v>
       </c>
       <c r="I72" s="3">
-        <v>-147200</v>
+        <v>-161900</v>
       </c>
       <c r="J72" s="3">
+        <v>-148300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-144500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-136000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-13100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-28000</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>16</v>
       </c>
@@ -3828,8 +4001,11 @@
       <c r="S72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,44 +4169,47 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>385600</v>
+        <v>545600</v>
       </c>
       <c r="E76" s="3">
-        <v>290700</v>
+        <v>388500</v>
       </c>
       <c r="F76" s="3">
-        <v>90500</v>
+        <v>293000</v>
       </c>
       <c r="G76" s="3">
-        <v>67700</v>
+        <v>91200</v>
       </c>
       <c r="H76" s="3">
-        <v>85100</v>
+        <v>68200</v>
       </c>
       <c r="I76" s="3">
-        <v>101000</v>
+        <v>85700</v>
       </c>
       <c r="J76" s="3">
+        <v>101700</v>
+      </c>
+      <c r="K76" s="3">
         <v>103500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>106700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>140100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>127500</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>16</v>
       </c>
@@ -4040,8 +4225,11 @@
       <c r="S76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>73100</v>
+        <v>188800</v>
       </c>
       <c r="E81" s="3">
-        <v>26300</v>
+        <v>126800</v>
       </c>
       <c r="F81" s="3">
+        <v>26500</v>
+      </c>
+      <c r="G81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
-        <v>-11300</v>
-      </c>
       <c r="H81" s="3">
-        <v>-13500</v>
+        <v>-11400</v>
       </c>
       <c r="I81" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="J81" s="3">
         <v>-2600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-6300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-122900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>14600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-41000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-10400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-9700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-62200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>93300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4257,8 +4455,8 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>16</v>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>16</v>
@@ -4278,8 +4476,11 @@
       <c r="S83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4575,8 +4791,8 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>16</v>
+      <c r="M89" s="3">
+        <v>0</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>16</v>
@@ -4596,8 +4812,11 @@
       <c r="S89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4649,8 +4869,8 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>16</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>16</v>
@@ -4670,8 +4890,11 @@
       <c r="S91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4808,8 +5037,8 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>16</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>16</v>
@@ -4829,8 +5058,11 @@
       <c r="S94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5094,8 +5339,8 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>16</v>
+      <c r="M100" s="3">
+        <v>0</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>16</v>
@@ -5115,8 +5360,11 @@
       <c r="S100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5147,8 +5395,8 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>16</v>
+      <c r="M101" s="3">
+        <v>0</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>16</v>
@@ -5168,8 +5416,11 @@
       <c r="S101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5200,8 +5451,8 @@
       <c r="L102" s="3">
         <v>0</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>16</v>
+      <c r="M102" s="3">
+        <v>0</v>
       </c>
       <c r="N102" s="3" t="s">
         <v>16</v>
@@ -5219,6 +5470,9 @@
         <v>16</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CAN_QTR_FIN.xlsx
@@ -752,25 +752,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>344600</v>
+        <v>321900</v>
       </c>
       <c r="E8" s="3">
-        <v>442100</v>
+        <v>412900</v>
       </c>
       <c r="F8" s="3">
-        <v>170700</v>
+        <v>159400</v>
       </c>
       <c r="G8" s="3">
-        <v>63500</v>
+        <v>59400</v>
       </c>
       <c r="H8" s="3">
-        <v>6000</v>
+        <v>5600</v>
       </c>
       <c r="I8" s="3">
-        <v>25700</v>
+        <v>24000</v>
       </c>
       <c r="J8" s="3">
-        <v>28100</v>
+        <v>26200</v>
       </c>
       <c r="K8" s="3">
         <v>10700</v>
@@ -808,25 +808,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>110100</v>
+        <v>102800</v>
       </c>
       <c r="E9" s="3">
-        <v>317800</v>
+        <v>296800</v>
       </c>
       <c r="F9" s="3">
-        <v>103200</v>
+        <v>96400</v>
       </c>
       <c r="G9" s="3">
-        <v>32900</v>
+        <v>30700</v>
       </c>
       <c r="H9" s="3">
-        <v>4600</v>
+        <v>4300</v>
       </c>
       <c r="I9" s="3">
-        <v>28400</v>
+        <v>26500</v>
       </c>
       <c r="J9" s="3">
-        <v>21300</v>
+        <v>19900</v>
       </c>
       <c r="K9" s="3">
         <v>10300</v>
@@ -864,25 +864,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>234600</v>
+        <v>219100</v>
       </c>
       <c r="E10" s="3">
-        <v>124300</v>
+        <v>116100</v>
       </c>
       <c r="F10" s="3">
-        <v>67500</v>
+        <v>63100</v>
       </c>
       <c r="G10" s="3">
-        <v>30600</v>
+        <v>28600</v>
       </c>
       <c r="H10" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="I10" s="3">
-        <v>-2700</v>
+        <v>-2500</v>
       </c>
       <c r="J10" s="3">
-        <v>6800</v>
+        <v>6400</v>
       </c>
       <c r="K10" s="3">
         <v>400</v>
@@ -942,25 +942,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>17700</v>
+        <v>16500</v>
       </c>
       <c r="E12" s="3">
-        <v>49500</v>
+        <v>46200</v>
       </c>
       <c r="F12" s="3">
-        <v>11000</v>
+        <v>10300</v>
       </c>
       <c r="G12" s="3">
-        <v>9200</v>
+        <v>8600</v>
       </c>
       <c r="H12" s="3">
-        <v>6300</v>
+        <v>5900</v>
       </c>
       <c r="I12" s="3">
-        <v>5100</v>
+        <v>4700</v>
       </c>
       <c r="J12" s="3">
-        <v>4100</v>
+        <v>3800</v>
       </c>
       <c r="K12" s="3">
         <v>6500</v>
@@ -1185,25 +1185,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>153200</v>
+        <v>143100</v>
       </c>
       <c r="E17" s="3">
-        <v>345000</v>
+        <v>322300</v>
       </c>
       <c r="F17" s="3">
-        <v>144600</v>
+        <v>135000</v>
       </c>
       <c r="G17" s="3">
-        <v>65700</v>
+        <v>61400</v>
       </c>
       <c r="H17" s="3">
-        <v>17200</v>
+        <v>16100</v>
       </c>
       <c r="I17" s="3">
-        <v>40400</v>
+        <v>37700</v>
       </c>
       <c r="J17" s="3">
-        <v>31100</v>
+        <v>29000</v>
       </c>
       <c r="K17" s="3">
         <v>21800</v>
@@ -1241,25 +1241,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>191400</v>
+        <v>178800</v>
       </c>
       <c r="E18" s="3">
-        <v>97000</v>
+        <v>90600</v>
       </c>
       <c r="F18" s="3">
-        <v>26100</v>
+        <v>24400</v>
       </c>
       <c r="G18" s="3">
-        <v>-2200</v>
+        <v>-2000</v>
       </c>
       <c r="H18" s="3">
-        <v>-11200</v>
+        <v>-10500</v>
       </c>
       <c r="I18" s="3">
-        <v>-14700</v>
+        <v>-13700</v>
       </c>
       <c r="J18" s="3">
-        <v>-3000</v>
+        <v>-2800</v>
       </c>
       <c r="K18" s="3">
         <v>-11100</v>
@@ -1319,22 +1319,22 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>5200</v>
+        <v>4900</v>
       </c>
       <c r="E20" s="3">
-        <v>29800</v>
+        <v>27800</v>
       </c>
       <c r="F20" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G20" s="3">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="H20" s="3">
         <v>-100</v>
       </c>
       <c r="I20" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="J20" s="3">
         <v>600</v>
@@ -1487,25 +1487,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>196600</v>
+        <v>183700</v>
       </c>
       <c r="E23" s="3">
-        <v>126900</v>
+        <v>118500</v>
       </c>
       <c r="F23" s="3">
-        <v>26600</v>
+        <v>24800</v>
       </c>
       <c r="G23" s="3">
         <v>200</v>
       </c>
       <c r="H23" s="3">
-        <v>-11400</v>
+        <v>-10600</v>
       </c>
       <c r="I23" s="3">
-        <v>-13600</v>
+        <v>-12700</v>
       </c>
       <c r="J23" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="K23" s="3">
         <v>-6300</v>
@@ -1543,13 +1543,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>7800</v>
+        <v>7300</v>
       </c>
       <c r="E24" s="3">
         <v>100</v>
       </c>
       <c r="F24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>188800</v>
+        <v>176300</v>
       </c>
       <c r="E26" s="3">
-        <v>126800</v>
+        <v>118400</v>
       </c>
       <c r="F26" s="3">
-        <v>26500</v>
+        <v>24800</v>
       </c>
       <c r="G26" s="3">
         <v>200</v>
       </c>
       <c r="H26" s="3">
-        <v>-11400</v>
+        <v>-10600</v>
       </c>
       <c r="I26" s="3">
-        <v>-13600</v>
+        <v>-12700</v>
       </c>
       <c r="J26" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="K26" s="3">
         <v>-6300</v>
@@ -1711,25 +1711,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>188800</v>
+        <v>176300</v>
       </c>
       <c r="E27" s="3">
-        <v>126800</v>
+        <v>118400</v>
       </c>
       <c r="F27" s="3">
-        <v>26500</v>
+        <v>24800</v>
       </c>
       <c r="G27" s="3">
         <v>200</v>
       </c>
       <c r="H27" s="3">
-        <v>-11400</v>
+        <v>-10600</v>
       </c>
       <c r="I27" s="3">
-        <v>-13600</v>
+        <v>-12700</v>
       </c>
       <c r="J27" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="K27" s="3">
         <v>-6300</v>
@@ -1991,22 +1991,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5200</v>
+        <v>-4900</v>
       </c>
       <c r="E32" s="3">
-        <v>-29800</v>
+        <v>-27800</v>
       </c>
       <c r="F32" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="G32" s="3">
-        <v>-2400</v>
+        <v>-2200</v>
       </c>
       <c r="H32" s="3">
         <v>100</v>
       </c>
       <c r="I32" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="J32" s="3">
         <v>-600</v>
@@ -2047,25 +2047,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>188800</v>
+        <v>176300</v>
       </c>
       <c r="E33" s="3">
-        <v>126800</v>
+        <v>118400</v>
       </c>
       <c r="F33" s="3">
-        <v>26500</v>
+        <v>24800</v>
       </c>
       <c r="G33" s="3">
         <v>200</v>
       </c>
       <c r="H33" s="3">
-        <v>-11400</v>
+        <v>-10600</v>
       </c>
       <c r="I33" s="3">
-        <v>-13600</v>
+        <v>-12700</v>
       </c>
       <c r="J33" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="K33" s="3">
         <v>-6300</v>
@@ -2159,25 +2159,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>188800</v>
+        <v>176300</v>
       </c>
       <c r="E35" s="3">
-        <v>126800</v>
+        <v>118400</v>
       </c>
       <c r="F35" s="3">
-        <v>26500</v>
+        <v>24800</v>
       </c>
       <c r="G35" s="3">
         <v>200</v>
       </c>
       <c r="H35" s="3">
-        <v>-11400</v>
+        <v>-10600</v>
       </c>
       <c r="I35" s="3">
-        <v>-13600</v>
+        <v>-12700</v>
       </c>
       <c r="J35" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="K35" s="3">
         <v>-6300</v>
@@ -2320,25 +2320,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>423500</v>
+        <v>395600</v>
       </c>
       <c r="E41" s="3">
-        <v>267900</v>
+        <v>250300</v>
       </c>
       <c r="F41" s="3">
-        <v>192500</v>
+        <v>179800</v>
       </c>
       <c r="G41" s="3">
-        <v>211100</v>
+        <v>197100</v>
       </c>
       <c r="H41" s="3">
-        <v>61700</v>
+        <v>57700</v>
       </c>
       <c r="I41" s="3">
-        <v>28000</v>
+        <v>26100</v>
       </c>
       <c r="J41" s="3">
-        <v>24800</v>
+        <v>23100</v>
       </c>
       <c r="K41" s="3">
         <v>41400</v>
@@ -2388,13 +2388,13 @@
         <v>1300</v>
       </c>
       <c r="H42" s="3">
-        <v>9800</v>
+        <v>9200</v>
       </c>
       <c r="I42" s="3">
-        <v>32300</v>
+        <v>30100</v>
       </c>
       <c r="J42" s="3">
-        <v>54800</v>
+        <v>51200</v>
       </c>
       <c r="K42" s="3">
         <v>27100</v>
@@ -2441,16 +2441,16 @@
         <v>100</v>
       </c>
       <c r="G43" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="H43" s="3">
-        <v>15900</v>
+        <v>14800</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K43" s="3">
         <v>1100</v>
@@ -2488,25 +2488,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>128200</v>
+        <v>119700</v>
       </c>
       <c r="E44" s="3">
-        <v>131400</v>
+        <v>122800</v>
       </c>
       <c r="F44" s="3">
-        <v>92600</v>
+        <v>86500</v>
       </c>
       <c r="G44" s="3">
-        <v>59300</v>
+        <v>55400</v>
       </c>
       <c r="H44" s="3">
-        <v>35600</v>
+        <v>33200</v>
       </c>
       <c r="I44" s="3">
-        <v>8400</v>
+        <v>7900</v>
       </c>
       <c r="J44" s="3">
-        <v>13900</v>
+        <v>13000</v>
       </c>
       <c r="K44" s="3">
         <v>35500</v>
@@ -2544,25 +2544,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>280200</v>
+        <v>261800</v>
       </c>
       <c r="E45" s="3">
-        <v>206600</v>
+        <v>193000</v>
       </c>
       <c r="F45" s="3">
-        <v>224000</v>
+        <v>209200</v>
       </c>
       <c r="G45" s="3">
-        <v>93800</v>
+        <v>87600</v>
       </c>
       <c r="H45" s="3">
-        <v>35900</v>
+        <v>33500</v>
       </c>
       <c r="I45" s="3">
-        <v>39600</v>
+        <v>37000</v>
       </c>
       <c r="J45" s="3">
-        <v>28500</v>
+        <v>26600</v>
       </c>
       <c r="K45" s="3">
         <v>40800</v>
@@ -2600,25 +2600,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>831900</v>
+        <v>777100</v>
       </c>
       <c r="E46" s="3">
-        <v>606200</v>
+        <v>566200</v>
       </c>
       <c r="F46" s="3">
-        <v>509200</v>
+        <v>475600</v>
       </c>
       <c r="G46" s="3">
-        <v>366700</v>
+        <v>342500</v>
       </c>
       <c r="H46" s="3">
-        <v>158900</v>
+        <v>148400</v>
       </c>
       <c r="I46" s="3">
-        <v>108300</v>
+        <v>101100</v>
       </c>
       <c r="J46" s="3">
-        <v>123600</v>
+        <v>115400</v>
       </c>
       <c r="K46" s="3">
         <v>145900</v>
@@ -2656,10 +2656,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3200</v>
+        <v>2900</v>
       </c>
       <c r="E47" s="3">
-        <v>3200</v>
+        <v>2900</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
@@ -2712,25 +2712,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>34200</v>
+        <v>31900</v>
       </c>
       <c r="E48" s="3">
-        <v>9000</v>
+        <v>8400</v>
       </c>
       <c r="F48" s="3">
-        <v>7300</v>
+        <v>6900</v>
       </c>
       <c r="G48" s="3">
-        <v>5500</v>
+        <v>5100</v>
       </c>
       <c r="H48" s="3">
-        <v>4200</v>
+        <v>3900</v>
       </c>
       <c r="I48" s="3">
-        <v>5300</v>
+        <v>4900</v>
       </c>
       <c r="J48" s="3">
-        <v>19500</v>
+        <v>18200</v>
       </c>
       <c r="K48" s="3">
         <v>6300</v>
@@ -2936,13 +2936,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>19300</v>
+        <v>18000</v>
       </c>
       <c r="E52" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="F52" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G52" s="3">
         <v>400</v>
@@ -2954,7 +2954,7 @@
         <v>400</v>
       </c>
       <c r="J52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K52" s="3">
         <v>300</v>
@@ -3048,25 +3048,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>888500</v>
+        <v>830000</v>
       </c>
       <c r="E54" s="3">
-        <v>619700</v>
+        <v>578900</v>
       </c>
       <c r="F54" s="3">
-        <v>517100</v>
+        <v>483000</v>
       </c>
       <c r="G54" s="3">
-        <v>372600</v>
+        <v>348000</v>
       </c>
       <c r="H54" s="3">
-        <v>163500</v>
+        <v>152700</v>
       </c>
       <c r="I54" s="3">
-        <v>114300</v>
+        <v>106800</v>
       </c>
       <c r="J54" s="3">
-        <v>143400</v>
+        <v>133900</v>
       </c>
       <c r="K54" s="3">
         <v>152500</v>
@@ -3148,25 +3148,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>22600</v>
+        <v>21100</v>
       </c>
       <c r="E57" s="3">
-        <v>19000</v>
+        <v>17700</v>
       </c>
       <c r="F57" s="3">
-        <v>17000</v>
+        <v>15900</v>
       </c>
       <c r="G57" s="3">
-        <v>7100</v>
+        <v>6700</v>
       </c>
       <c r="H57" s="3">
-        <v>5900</v>
+        <v>5500</v>
       </c>
       <c r="I57" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="J57" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="K57" s="3">
         <v>10300</v>
@@ -3213,16 +3213,16 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>5100</v>
+        <v>4800</v>
       </c>
       <c r="H58" s="3">
-        <v>7700</v>
+        <v>7200</v>
       </c>
       <c r="I58" s="3">
-        <v>7700</v>
+        <v>7200</v>
       </c>
       <c r="J58" s="3">
-        <v>30900</v>
+        <v>28900</v>
       </c>
       <c r="K58" s="3">
         <v>29700</v>
@@ -3260,25 +3260,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>306300</v>
+        <v>286100</v>
       </c>
       <c r="E59" s="3">
-        <v>209300</v>
+        <v>195500</v>
       </c>
       <c r="F59" s="3">
-        <v>195400</v>
+        <v>182600</v>
       </c>
       <c r="G59" s="3">
-        <v>267800</v>
+        <v>250200</v>
       </c>
       <c r="H59" s="3">
-        <v>79900</v>
+        <v>74600</v>
       </c>
       <c r="I59" s="3">
-        <v>16900</v>
+        <v>15800</v>
       </c>
       <c r="J59" s="3">
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="K59" s="3">
         <v>5700</v>
@@ -3316,25 +3316,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>328900</v>
+        <v>307300</v>
       </c>
       <c r="E60" s="3">
-        <v>228300</v>
+        <v>213200</v>
       </c>
       <c r="F60" s="3">
-        <v>212400</v>
+        <v>198400</v>
       </c>
       <c r="G60" s="3">
-        <v>280100</v>
+        <v>261600</v>
       </c>
       <c r="H60" s="3">
-        <v>93500</v>
+        <v>87300</v>
       </c>
       <c r="I60" s="3">
-        <v>26200</v>
+        <v>24500</v>
       </c>
       <c r="J60" s="3">
-        <v>38900</v>
+        <v>36300</v>
       </c>
       <c r="K60" s="3">
         <v>45700</v>
@@ -3428,25 +3428,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="E62" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="F62" s="3">
-        <v>11700</v>
+        <v>10900</v>
       </c>
       <c r="G62" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="H62" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="I62" s="3">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="J62" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="K62" s="3">
         <v>3300</v>
@@ -3652,25 +3652,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>342900</v>
+        <v>320300</v>
       </c>
       <c r="E66" s="3">
-        <v>231200</v>
+        <v>216000</v>
       </c>
       <c r="F66" s="3">
-        <v>224100</v>
+        <v>209300</v>
       </c>
       <c r="G66" s="3">
-        <v>281400</v>
+        <v>262800</v>
       </c>
       <c r="H66" s="3">
-        <v>95300</v>
+        <v>89000</v>
       </c>
       <c r="I66" s="3">
-        <v>28600</v>
+        <v>26700</v>
       </c>
       <c r="J66" s="3">
-        <v>41600</v>
+        <v>38900</v>
       </c>
       <c r="K66" s="3">
         <v>49000</v>
@@ -3954,25 +3954,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>142300</v>
+        <v>132900</v>
       </c>
       <c r="E72" s="3">
-        <v>-73000</v>
+        <v>-68200</v>
       </c>
       <c r="F72" s="3">
-        <v>-134400</v>
+        <v>-125600</v>
       </c>
       <c r="G72" s="3">
-        <v>-173100</v>
+        <v>-161700</v>
       </c>
       <c r="H72" s="3">
-        <v>-173300</v>
+        <v>-161900</v>
       </c>
       <c r="I72" s="3">
-        <v>-161900</v>
+        <v>-151300</v>
       </c>
       <c r="J72" s="3">
-        <v>-148300</v>
+        <v>-138500</v>
       </c>
       <c r="K72" s="3">
         <v>-144500</v>
@@ -4178,25 +4178,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>545600</v>
+        <v>509700</v>
       </c>
       <c r="E76" s="3">
-        <v>388500</v>
+        <v>362900</v>
       </c>
       <c r="F76" s="3">
-        <v>293000</v>
+        <v>273600</v>
       </c>
       <c r="G76" s="3">
-        <v>91200</v>
+        <v>85200</v>
       </c>
       <c r="H76" s="3">
-        <v>68200</v>
+        <v>63700</v>
       </c>
       <c r="I76" s="3">
-        <v>85700</v>
+        <v>80100</v>
       </c>
       <c r="J76" s="3">
-        <v>101700</v>
+        <v>95000</v>
       </c>
       <c r="K76" s="3">
         <v>103500</v>
@@ -4351,25 +4351,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>188800</v>
+        <v>176300</v>
       </c>
       <c r="E81" s="3">
-        <v>126800</v>
+        <v>118400</v>
       </c>
       <c r="F81" s="3">
-        <v>26500</v>
+        <v>24800</v>
       </c>
       <c r="G81" s="3">
         <v>200</v>
       </c>
       <c r="H81" s="3">
-        <v>-11400</v>
+        <v>-10600</v>
       </c>
       <c r="I81" s="3">
-        <v>-13600</v>
+        <v>-12700</v>
       </c>
       <c r="J81" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="K81" s="3">
         <v>-6300</v>

--- a/AAII_Financials/Quarterly/CAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="92">
   <si>
     <t>CAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,283 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>321900</v>
+        <v>241300</v>
       </c>
       <c r="E8" s="3">
-        <v>412900</v>
+        <v>198000</v>
       </c>
       <c r="F8" s="3">
-        <v>159400</v>
+        <v>319000</v>
       </c>
       <c r="G8" s="3">
-        <v>59400</v>
+        <v>192400</v>
       </c>
       <c r="H8" s="3">
+        <v>158000</v>
+      </c>
+      <c r="I8" s="3">
+        <v>58800</v>
+      </c>
+      <c r="J8" s="3">
         <v>5600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>24000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>26200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>10700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>71300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>103300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>37700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>7200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>40300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>69800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>126000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>153300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>76600</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>102800</v>
+        <v>105600</v>
       </c>
       <c r="E9" s="3">
-        <v>296800</v>
+        <v>76900</v>
       </c>
       <c r="F9" s="3">
-        <v>96400</v>
+        <v>101800</v>
       </c>
       <c r="G9" s="3">
-        <v>30700</v>
+        <v>84100</v>
       </c>
       <c r="H9" s="3">
+        <v>95500</v>
+      </c>
+      <c r="I9" s="3">
+        <v>30500</v>
+      </c>
+      <c r="J9" s="3">
         <v>4300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>26500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>19900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>10300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>175000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>80700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>36000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>7100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>38600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>62700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>174600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>40600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>41600</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>219100</v>
+        <v>135800</v>
       </c>
       <c r="E10" s="3">
-        <v>116100</v>
+        <v>121200</v>
       </c>
       <c r="F10" s="3">
-        <v>63100</v>
+        <v>217300</v>
       </c>
       <c r="G10" s="3">
-        <v>28600</v>
+        <v>108300</v>
       </c>
       <c r="H10" s="3">
+        <v>62500</v>
+      </c>
+      <c r="I10" s="3">
+        <v>28400</v>
+      </c>
+      <c r="J10" s="3">
         <v>1300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>-2500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>6400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>-103700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>22500</v>
-      </c>
-      <c r="N10" s="3">
-        <v>1700</v>
-      </c>
-      <c r="O10" s="3">
-        <v>100</v>
       </c>
       <c r="P10" s="3">
         <v>1700</v>
       </c>
       <c r="Q10" s="3">
+        <v>100</v>
+      </c>
+      <c r="R10" s="3">
+        <v>1700</v>
+      </c>
+      <c r="S10" s="3">
         <v>7100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>-48500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>112800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,64 +962,72 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>16500</v>
+        <v>15200</v>
       </c>
       <c r="E12" s="3">
-        <v>46200</v>
+        <v>14800</v>
       </c>
       <c r="F12" s="3">
-        <v>10300</v>
+        <v>17200</v>
       </c>
       <c r="G12" s="3">
-        <v>8600</v>
+        <v>13500</v>
       </c>
       <c r="H12" s="3">
-        <v>5900</v>
+        <v>10200</v>
       </c>
       <c r="I12" s="3">
+        <v>8500</v>
+      </c>
+      <c r="J12" s="3">
+        <v>5800</v>
+      </c>
+      <c r="K12" s="3">
         <v>4700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>3800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>6500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>9600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>5700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>5600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>4800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>7400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>9800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>5500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>4700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,31 +1082,37 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>4400</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1104,8 +1144,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1133,35 +1179,41 @@
       <c r="K15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N15" s="3">
         <v>500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>400</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P15" s="3" t="s">
         <v>16</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
-      </c>
-      <c r="S15" s="3">
-        <v>0</v>
+      <c r="R15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1231,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>143100</v>
+        <v>149500</v>
       </c>
       <c r="E17" s="3">
-        <v>322300</v>
+        <v>113600</v>
       </c>
       <c r="F17" s="3">
-        <v>135000</v>
+        <v>141800</v>
       </c>
       <c r="G17" s="3">
-        <v>61400</v>
+        <v>124800</v>
       </c>
       <c r="H17" s="3">
+        <v>133800</v>
+      </c>
+      <c r="I17" s="3">
+        <v>60800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>16000</v>
+      </c>
+      <c r="K17" s="3">
+        <v>37700</v>
+      </c>
+      <c r="L17" s="3">
+        <v>29000</v>
+      </c>
+      <c r="M17" s="3">
+        <v>21800</v>
+      </c>
+      <c r="N17" s="3">
+        <v>194700</v>
+      </c>
+      <c r="O17" s="3">
+        <v>91900</v>
+      </c>
+      <c r="P17" s="3">
+        <v>79600</v>
+      </c>
+      <c r="Q17" s="3">
         <v>16100</v>
       </c>
-      <c r="I17" s="3">
-        <v>37700</v>
-      </c>
-      <c r="J17" s="3">
-        <v>29000</v>
-      </c>
-      <c r="K17" s="3">
-        <v>21800</v>
-      </c>
-      <c r="L17" s="3">
-        <v>194700</v>
-      </c>
-      <c r="M17" s="3">
-        <v>91900</v>
-      </c>
-      <c r="N17" s="3">
-        <v>79600</v>
-      </c>
-      <c r="O17" s="3">
-        <v>16100</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>51200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>79700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>188800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>51000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>58400</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>178800</v>
+        <v>91900</v>
       </c>
       <c r="E18" s="3">
-        <v>90600</v>
+        <v>84400</v>
       </c>
       <c r="F18" s="3">
-        <v>24400</v>
+        <v>177200</v>
       </c>
       <c r="G18" s="3">
+        <v>67700</v>
+      </c>
+      <c r="H18" s="3">
+        <v>24200</v>
+      </c>
+      <c r="I18" s="3">
         <v>-2000</v>
       </c>
-      <c r="H18" s="3">
-        <v>-10500</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-13700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-2800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-11100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-123400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>11300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-42000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-8900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-10800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-9900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-62800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>102400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1313,64 +1379,72 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>4900</v>
+        <v>21500</v>
       </c>
       <c r="E20" s="3">
-        <v>27800</v>
+        <v>600</v>
       </c>
       <c r="F20" s="3">
+        <v>18000</v>
+      </c>
+      <c r="G20" s="3">
+        <v>600</v>
+      </c>
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>2200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>1100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>5100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>3600</v>
-      </c>
-      <c r="N20" s="3">
-        <v>1500</v>
-      </c>
-      <c r="O20" s="3">
-        <v>500</v>
       </c>
       <c r="P20" s="3">
         <v>1500</v>
       </c>
       <c r="Q20" s="3">
+        <v>500</v>
+      </c>
+      <c r="R20" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S20" s="3">
         <v>1800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>9800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>4300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1401,43 +1475,49 @@
       <c r="L21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O21" s="3">
         <v>16500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-39400</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S21" s="3">
         <v>-7000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-52400</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>16</v>
+      <c r="D22" s="3">
+        <v>0</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1446,111 +1526,123 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>100</v>
-      </c>
-      <c r="J22" s="3">
-        <v>200</v>
-      </c>
-      <c r="K22" s="3">
-        <v>200</v>
       </c>
       <c r="L22" s="3">
         <v>200</v>
       </c>
       <c r="M22" s="3">
+        <v>200</v>
+      </c>
+      <c r="N22" s="3">
+        <v>200</v>
+      </c>
+      <c r="O22" s="3">
         <v>300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>2000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>2700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>2400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>2400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>100</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>183700</v>
+        <v>113400</v>
       </c>
       <c r="E23" s="3">
-        <v>118500</v>
+        <v>85000</v>
       </c>
       <c r="F23" s="3">
-        <v>24800</v>
+        <v>195200</v>
       </c>
       <c r="G23" s="3">
+        <v>68200</v>
+      </c>
+      <c r="H23" s="3">
+        <v>24600</v>
+      </c>
+      <c r="I23" s="3">
         <v>200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-122900</v>
+      </c>
+      <c r="O23" s="3">
+        <v>14600</v>
+      </c>
+      <c r="P23" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="R23" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="S23" s="3">
         <v>-10600</v>
       </c>
-      <c r="I23" s="3">
-        <v>-12700</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-6300</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-122900</v>
-      </c>
-      <c r="M23" s="3">
-        <v>14600</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-41000</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-10400</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-12100</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-10600</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-55400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>106600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E24" s="3">
+        <v>20600</v>
+      </c>
+      <c r="F24" s="3">
         <v>7300</v>
       </c>
-      <c r="E24" s="3">
-        <v>100</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -1579,22 +1671,28 @@
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>-8100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>6700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>13300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1747,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>176300</v>
+        <v>88900</v>
       </c>
       <c r="E26" s="3">
-        <v>118400</v>
+        <v>64500</v>
       </c>
       <c r="F26" s="3">
-        <v>24800</v>
+        <v>187900</v>
       </c>
       <c r="G26" s="3">
+        <v>68200</v>
+      </c>
+      <c r="H26" s="3">
+        <v>24600</v>
+      </c>
+      <c r="I26" s="3">
         <v>200</v>
       </c>
-      <c r="H26" s="3">
-        <v>-10600</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-12700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-2500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-6300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-122900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>14600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-41000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-10400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-9700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-62200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>93300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>176300</v>
+        <v>88900</v>
       </c>
       <c r="E27" s="3">
-        <v>118400</v>
+        <v>64500</v>
       </c>
       <c r="F27" s="3">
-        <v>24800</v>
+        <v>187900</v>
       </c>
       <c r="G27" s="3">
+        <v>68200</v>
+      </c>
+      <c r="H27" s="3">
+        <v>24600</v>
+      </c>
+      <c r="I27" s="3">
         <v>200</v>
       </c>
-      <c r="H27" s="3">
-        <v>-10600</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-12700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-2500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-6300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-122900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>14600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-41000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-10400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-9700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-62200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>93300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1933,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1995,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2057,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2119,138 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-4900</v>
+        <v>-21500</v>
       </c>
       <c r="E32" s="3">
-        <v>-27800</v>
+        <v>-600</v>
       </c>
       <c r="F32" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-2200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-1100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-5100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-3600</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-500</v>
       </c>
       <c r="P32" s="3">
         <v>-1500</v>
       </c>
       <c r="Q32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R32" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="S32" s="3">
         <v>-1800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-9800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-4300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>176300</v>
+        <v>88900</v>
       </c>
       <c r="E33" s="3">
-        <v>118400</v>
+        <v>64500</v>
       </c>
       <c r="F33" s="3">
-        <v>24800</v>
+        <v>187900</v>
       </c>
       <c r="G33" s="3">
+        <v>68200</v>
+      </c>
+      <c r="H33" s="3">
+        <v>24600</v>
+      </c>
+      <c r="I33" s="3">
         <v>200</v>
       </c>
-      <c r="H33" s="3">
-        <v>-10600</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-12700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-2500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-6300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-122900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>14600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-41000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-10400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-9700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-62200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>93300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2305,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>176300</v>
+        <v>88900</v>
       </c>
       <c r="E35" s="3">
-        <v>118400</v>
+        <v>64500</v>
       </c>
       <c r="F35" s="3">
-        <v>24800</v>
+        <v>187900</v>
       </c>
       <c r="G35" s="3">
+        <v>68200</v>
+      </c>
+      <c r="H35" s="3">
+        <v>24600</v>
+      </c>
+      <c r="I35" s="3">
         <v>200</v>
       </c>
-      <c r="H35" s="3">
-        <v>-10600</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-12700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-2500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-6300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-122900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>14600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-41000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-10400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-9700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-62200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>93300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2462,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,50 +2486,52 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>395600</v>
+        <v>385600</v>
       </c>
       <c r="E41" s="3">
-        <v>250300</v>
+        <v>386000</v>
       </c>
       <c r="F41" s="3">
-        <v>179800</v>
+        <v>392000</v>
       </c>
       <c r="G41" s="3">
-        <v>197100</v>
+        <v>248000</v>
       </c>
       <c r="H41" s="3">
-        <v>57700</v>
+        <v>178200</v>
       </c>
       <c r="I41" s="3">
+        <v>195400</v>
+      </c>
+      <c r="J41" s="3">
+        <v>57100</v>
+      </c>
+      <c r="K41" s="3">
         <v>26100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>23100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>41400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>80400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>51200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>42200</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2370,50 +2544,56 @@
       <c r="T41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
+      <c r="E42" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="H42" s="3">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="I42" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J42" s="3">
+        <v>9100</v>
+      </c>
+      <c r="K42" s="3">
         <v>30100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>51200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>27100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>1700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>12500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>17200</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2426,50 +2606,56 @@
       <c r="T42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>40200</v>
+      </c>
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="I43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J43" s="3">
+        <v>14700</v>
+      </c>
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H43" s="3">
-        <v>14800</v>
-      </c>
-      <c r="I43" s="3">
-        <v>100</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>24800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>23700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>26400</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2482,50 +2668,56 @@
       <c r="T43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>119700</v>
+        <v>237500</v>
       </c>
       <c r="E44" s="3">
-        <v>122800</v>
+        <v>174300</v>
       </c>
       <c r="F44" s="3">
-        <v>86500</v>
+        <v>118600</v>
       </c>
       <c r="G44" s="3">
-        <v>55400</v>
+        <v>121700</v>
       </c>
       <c r="H44" s="3">
-        <v>33200</v>
+        <v>85700</v>
       </c>
       <c r="I44" s="3">
+        <v>54900</v>
+      </c>
+      <c r="J44" s="3">
+        <v>32900</v>
+      </c>
+      <c r="K44" s="3">
         <v>7900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>13000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>35500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>30200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>60400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>65500</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q44" s="3" t="s">
         <v>16</v>
       </c>
@@ -2538,50 +2730,56 @@
       <c r="T44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>261800</v>
+        <v>207400</v>
       </c>
       <c r="E45" s="3">
-        <v>193000</v>
+        <v>282900</v>
       </c>
       <c r="F45" s="3">
-        <v>209200</v>
+        <v>219300</v>
       </c>
       <c r="G45" s="3">
-        <v>87600</v>
+        <v>191300</v>
       </c>
       <c r="H45" s="3">
-        <v>33500</v>
+        <v>207300</v>
       </c>
       <c r="I45" s="3">
+        <v>86900</v>
+      </c>
+      <c r="J45" s="3">
+        <v>33200</v>
+      </c>
+      <c r="K45" s="3">
         <v>37000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>26600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>40800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>7700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>74700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>64800</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2594,50 +2792,56 @@
       <c r="T45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>777100</v>
+        <v>830500</v>
       </c>
       <c r="E46" s="3">
-        <v>566200</v>
+        <v>843200</v>
       </c>
       <c r="F46" s="3">
-        <v>475600</v>
+        <v>770100</v>
       </c>
       <c r="G46" s="3">
-        <v>342500</v>
+        <v>561100</v>
       </c>
       <c r="H46" s="3">
-        <v>148400</v>
+        <v>471300</v>
       </c>
       <c r="I46" s="3">
+        <v>339400</v>
+      </c>
+      <c r="J46" s="3">
+        <v>147100</v>
+      </c>
+      <c r="K46" s="3">
         <v>101100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>115400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>145900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>144900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>222500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>216100</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2650,8 +2854,14 @@
       <c r="T46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2662,23 +2872,23 @@
         <v>2900</v>
       </c>
       <c r="F47" s="3">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="G47" s="3">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
       </c>
       <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
         <v>400</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>16</v>
       </c>
@@ -2691,11 +2901,11 @@
       <c r="O47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -2706,50 +2916,56 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>31900</v>
+        <v>52200</v>
       </c>
       <c r="E48" s="3">
+        <v>49700</v>
+      </c>
+      <c r="F48" s="3">
+        <v>31600</v>
+      </c>
+      <c r="G48" s="3">
         <v>8400</v>
       </c>
-      <c r="F48" s="3">
-        <v>6900</v>
-      </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
+        <v>6800</v>
+      </c>
+      <c r="I48" s="3">
         <v>5100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>3900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>4900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>18200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>6300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>7000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>21200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>8200</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2762,31 +2978,37 @@
       <c r="T48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="F49" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>900</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2818,8 +3040,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3102,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,50 +3164,56 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>18000</v>
+        <v>11500</v>
       </c>
       <c r="E52" s="3">
-        <v>1300</v>
+        <v>10300</v>
       </c>
       <c r="F52" s="3">
-        <v>500</v>
+        <v>14900</v>
       </c>
       <c r="G52" s="3">
         <v>400</v>
       </c>
       <c r="H52" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I52" s="3">
         <v>400</v>
       </c>
       <c r="J52" s="3">
+        <v>400</v>
+      </c>
+      <c r="K52" s="3">
+        <v>400</v>
+      </c>
+      <c r="L52" s="3">
         <v>300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>2000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1000</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>16</v>
       </c>
@@ -2986,8 +3226,14 @@
       <c r="T52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,50 +3288,56 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>830000</v>
+        <v>904600</v>
       </c>
       <c r="E54" s="3">
-        <v>578900</v>
+        <v>912800</v>
       </c>
       <c r="F54" s="3">
-        <v>483000</v>
+        <v>822500</v>
       </c>
       <c r="G54" s="3">
-        <v>348000</v>
+        <v>573700</v>
       </c>
       <c r="H54" s="3">
+        <v>478600</v>
+      </c>
+      <c r="I54" s="3">
+        <v>344900</v>
+      </c>
+      <c r="J54" s="3">
+        <v>151300</v>
+      </c>
+      <c r="K54" s="3">
+        <v>106800</v>
+      </c>
+      <c r="L54" s="3">
+        <v>133900</v>
+      </c>
+      <c r="M54" s="3">
+        <v>152500</v>
+      </c>
+      <c r="N54" s="3">
         <v>152700</v>
       </c>
-      <c r="I54" s="3">
-        <v>106800</v>
-      </c>
-      <c r="J54" s="3">
-        <v>133900</v>
-      </c>
-      <c r="K54" s="3">
-        <v>152500</v>
-      </c>
-      <c r="L54" s="3">
-        <v>152700</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>245800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>225300</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>16</v>
       </c>
@@ -3098,8 +3350,14 @@
       <c r="T54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3378,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,50 +3402,52 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>21100</v>
+        <v>14200</v>
       </c>
       <c r="E57" s="3">
-        <v>17700</v>
+        <v>14800</v>
       </c>
       <c r="F57" s="3">
-        <v>15900</v>
+        <v>20900</v>
       </c>
       <c r="G57" s="3">
-        <v>6700</v>
+        <v>17600</v>
       </c>
       <c r="H57" s="3">
+        <v>15700</v>
+      </c>
+      <c r="I57" s="3">
+        <v>6600</v>
+      </c>
+      <c r="J57" s="3">
         <v>5500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>10300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>15300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>11500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>9700</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>16</v>
       </c>
@@ -3198,50 +3460,56 @@
       <c r="T57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>4700</v>
+      </c>
+      <c r="J58" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K58" s="3">
         <v>7200</v>
       </c>
-      <c r="I58" s="3">
-        <v>7200</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>28900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>29700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>19600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>38300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>30800</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>16</v>
       </c>
@@ -3254,50 +3522,56 @@
       <c r="T58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>286100</v>
+        <v>201400</v>
       </c>
       <c r="E59" s="3">
-        <v>195500</v>
+        <v>305700</v>
       </c>
       <c r="F59" s="3">
-        <v>182600</v>
+        <v>283500</v>
       </c>
       <c r="G59" s="3">
-        <v>250200</v>
+        <v>193700</v>
       </c>
       <c r="H59" s="3">
-        <v>74600</v>
+        <v>180900</v>
       </c>
       <c r="I59" s="3">
+        <v>247900</v>
+      </c>
+      <c r="J59" s="3">
+        <v>73900</v>
+      </c>
+      <c r="K59" s="3">
         <v>15800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>5100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>5700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>9100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>53200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>54400</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3310,50 +3584,56 @@
       <c r="T59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>307300</v>
+        <v>215500</v>
       </c>
       <c r="E60" s="3">
-        <v>213200</v>
+        <v>320500</v>
       </c>
       <c r="F60" s="3">
-        <v>198400</v>
+        <v>304500</v>
       </c>
       <c r="G60" s="3">
-        <v>261600</v>
+        <v>211300</v>
       </c>
       <c r="H60" s="3">
-        <v>87300</v>
+        <v>196600</v>
       </c>
       <c r="I60" s="3">
+        <v>259200</v>
+      </c>
+      <c r="J60" s="3">
+        <v>86500</v>
+      </c>
+      <c r="K60" s="3">
         <v>24500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>36300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>45700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>43900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>103000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>94900</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3366,8 +3646,14 @@
       <c r="T60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,50 +3708,56 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>13000</v>
+        <v>2500</v>
       </c>
       <c r="E62" s="3">
-        <v>2800</v>
+        <v>12400</v>
       </c>
       <c r="F62" s="3">
-        <v>10900</v>
+        <v>12900</v>
       </c>
       <c r="G62" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H62" s="3">
+        <v>10800</v>
+      </c>
+      <c r="I62" s="3">
         <v>1200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>2200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>3300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>2100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>2700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>2900</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>16</v>
       </c>
@@ -3478,8 +3770,14 @@
       <c r="T62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3832,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3894,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,50 +3956,56 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>320300</v>
+        <v>218000</v>
       </c>
       <c r="E66" s="3">
-        <v>216000</v>
+        <v>332900</v>
       </c>
       <c r="F66" s="3">
-        <v>209300</v>
+        <v>317400</v>
       </c>
       <c r="G66" s="3">
-        <v>262800</v>
+        <v>214000</v>
       </c>
       <c r="H66" s="3">
-        <v>89000</v>
+        <v>207500</v>
       </c>
       <c r="I66" s="3">
+        <v>260400</v>
+      </c>
+      <c r="J66" s="3">
+        <v>88200</v>
+      </c>
+      <c r="K66" s="3">
         <v>26700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>38900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>49000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>46000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>105700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>97800</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>16</v>
       </c>
@@ -3702,8 +4018,14 @@
       <c r="T66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4046,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4104,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4166,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4228,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,50 +4290,56 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>132900</v>
+        <v>275500</v>
       </c>
       <c r="E72" s="3">
-        <v>-68200</v>
+        <v>186600</v>
       </c>
       <c r="F72" s="3">
-        <v>-125600</v>
+        <v>131500</v>
       </c>
       <c r="G72" s="3">
-        <v>-161700</v>
+        <v>-67600</v>
       </c>
       <c r="H72" s="3">
-        <v>-161900</v>
+        <v>-124400</v>
       </c>
       <c r="I72" s="3">
+        <v>-160200</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-160400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-151300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-138500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-144500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-136000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-13100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-28000</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>16</v>
       </c>
@@ -4004,8 +4352,14 @@
       <c r="T72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4414,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4476,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,50 +4538,56 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>509700</v>
+        <v>686600</v>
       </c>
       <c r="E76" s="3">
-        <v>362900</v>
+        <v>579800</v>
       </c>
       <c r="F76" s="3">
-        <v>273600</v>
+        <v>505100</v>
       </c>
       <c r="G76" s="3">
-        <v>85200</v>
+        <v>359600</v>
       </c>
       <c r="H76" s="3">
-        <v>63700</v>
+        <v>271200</v>
       </c>
       <c r="I76" s="3">
+        <v>84400</v>
+      </c>
+      <c r="J76" s="3">
+        <v>63200</v>
+      </c>
+      <c r="K76" s="3">
         <v>80100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>95000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>103500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>106700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>140100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>127500</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>16</v>
       </c>
@@ -4228,8 +4600,14 @@
       <c r="T76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4662,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>176300</v>
+        <v>88900</v>
       </c>
       <c r="E81" s="3">
-        <v>118400</v>
+        <v>64500</v>
       </c>
       <c r="F81" s="3">
-        <v>24800</v>
+        <v>187900</v>
       </c>
       <c r="G81" s="3">
+        <v>68200</v>
+      </c>
+      <c r="H81" s="3">
+        <v>24600</v>
+      </c>
+      <c r="I81" s="3">
         <v>200</v>
       </c>
-      <c r="H81" s="3">
-        <v>-10600</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-12700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-2500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-6300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-122900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>14600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-41000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-10400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-9700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-62200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>93300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4819,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4458,11 +4856,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>16</v>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>16</v>
@@ -4479,8 +4877,14 @@
       <c r="T83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4939,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5001,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5063,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5125,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +5187,14 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4794,11 +5228,11 @@
       <c r="M89" s="3">
         <v>0</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>16</v>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>16</v>
@@ -4815,8 +5249,14 @@
       <c r="T89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5277,10 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4872,11 +5314,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>16</v>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>16</v>
@@ -4893,8 +5335,14 @@
       <c r="T91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5397,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5459,14 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5040,11 +5500,11 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>16</v>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>16</v>
@@ -5061,8 +5521,14 @@
       <c r="T94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5549,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5607,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5669,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5731,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5793,14 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5342,11 +5834,11 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>16</v>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>16</v>
@@ -5363,8 +5855,14 @@
       <c r="T100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5398,11 +5896,11 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O101" s="3" t="s">
-        <v>16</v>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>16</v>
@@ -5419,8 +5917,14 @@
       <c r="T101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5454,11 +5958,11 @@
       <c r="M102" s="3">
         <v>0</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>16</v>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
       </c>
       <c r="P102" s="3" t="s">
         <v>16</v>
@@ -5473,6 +5977,12 @@
         <v>16</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CAN_QTR_FIN.xlsx
@@ -760,25 +760,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>241300</v>
+        <v>230100</v>
       </c>
       <c r="E8" s="3">
-        <v>198000</v>
+        <v>188800</v>
       </c>
       <c r="F8" s="3">
-        <v>319000</v>
+        <v>304100</v>
       </c>
       <c r="G8" s="3">
-        <v>192400</v>
+        <v>183400</v>
       </c>
       <c r="H8" s="3">
-        <v>158000</v>
+        <v>150600</v>
       </c>
       <c r="I8" s="3">
-        <v>58800</v>
+        <v>56100</v>
       </c>
       <c r="J8" s="3">
-        <v>5600</v>
+        <v>5300</v>
       </c>
       <c r="K8" s="3">
         <v>24000</v>
@@ -822,25 +822,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>105600</v>
+        <v>100600</v>
       </c>
       <c r="E9" s="3">
-        <v>76900</v>
+        <v>73300</v>
       </c>
       <c r="F9" s="3">
-        <v>101800</v>
+        <v>97000</v>
       </c>
       <c r="G9" s="3">
-        <v>84100</v>
+        <v>80200</v>
       </c>
       <c r="H9" s="3">
-        <v>95500</v>
+        <v>91000</v>
       </c>
       <c r="I9" s="3">
-        <v>30500</v>
+        <v>29000</v>
       </c>
       <c r="J9" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="K9" s="3">
         <v>26500</v>
@@ -884,22 +884,22 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>135800</v>
+        <v>129400</v>
       </c>
       <c r="E10" s="3">
-        <v>121200</v>
+        <v>115500</v>
       </c>
       <c r="F10" s="3">
-        <v>217300</v>
+        <v>207100</v>
       </c>
       <c r="G10" s="3">
-        <v>108300</v>
+        <v>103200</v>
       </c>
       <c r="H10" s="3">
-        <v>62500</v>
+        <v>59600</v>
       </c>
       <c r="I10" s="3">
-        <v>28400</v>
+        <v>27000</v>
       </c>
       <c r="J10" s="3">
         <v>1300</v>
@@ -970,25 +970,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>15200</v>
+        <v>14500</v>
       </c>
       <c r="E12" s="3">
-        <v>14800</v>
+        <v>14100</v>
       </c>
       <c r="F12" s="3">
-        <v>17200</v>
+        <v>16400</v>
       </c>
       <c r="G12" s="3">
-        <v>13500</v>
+        <v>12900</v>
       </c>
       <c r="H12" s="3">
-        <v>10200</v>
+        <v>9700</v>
       </c>
       <c r="I12" s="3">
-        <v>8500</v>
+        <v>8100</v>
       </c>
       <c r="J12" s="3">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="K12" s="3">
         <v>4700</v>
@@ -1094,7 +1094,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>16</v>
@@ -1239,25 +1239,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>149500</v>
+        <v>142500</v>
       </c>
       <c r="E17" s="3">
-        <v>113600</v>
+        <v>108300</v>
       </c>
       <c r="F17" s="3">
-        <v>141800</v>
+        <v>135200</v>
       </c>
       <c r="G17" s="3">
-        <v>124800</v>
+        <v>118900</v>
       </c>
       <c r="H17" s="3">
-        <v>133800</v>
+        <v>127500</v>
       </c>
       <c r="I17" s="3">
-        <v>60800</v>
+        <v>58000</v>
       </c>
       <c r="J17" s="3">
-        <v>16000</v>
+        <v>15200</v>
       </c>
       <c r="K17" s="3">
         <v>37700</v>
@@ -1301,25 +1301,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>91900</v>
+        <v>87600</v>
       </c>
       <c r="E18" s="3">
-        <v>84400</v>
+        <v>80500</v>
       </c>
       <c r="F18" s="3">
-        <v>177200</v>
+        <v>168900</v>
       </c>
       <c r="G18" s="3">
-        <v>67700</v>
+        <v>64500</v>
       </c>
       <c r="H18" s="3">
-        <v>24200</v>
+        <v>23000</v>
       </c>
       <c r="I18" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="J18" s="3">
-        <v>-10400</v>
+        <v>-9900</v>
       </c>
       <c r="K18" s="3">
         <v>-13700</v>
@@ -1387,13 +1387,13 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>21500</v>
+        <v>20500</v>
       </c>
       <c r="E20" s="3">
         <v>600</v>
       </c>
       <c r="F20" s="3">
-        <v>18000</v>
+        <v>17200</v>
       </c>
       <c r="G20" s="3">
         <v>600</v>
@@ -1402,7 +1402,7 @@
         <v>400</v>
       </c>
       <c r="I20" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="J20" s="3">
         <v>-100</v>
@@ -1573,25 +1573,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>113400</v>
+        <v>108100</v>
       </c>
       <c r="E23" s="3">
-        <v>85000</v>
+        <v>81100</v>
       </c>
       <c r="F23" s="3">
-        <v>195200</v>
+        <v>186100</v>
       </c>
       <c r="G23" s="3">
-        <v>68200</v>
+        <v>65000</v>
       </c>
       <c r="H23" s="3">
-        <v>24600</v>
+        <v>23500</v>
       </c>
       <c r="I23" s="3">
         <v>200</v>
       </c>
       <c r="J23" s="3">
-        <v>-10500</v>
+        <v>-10000</v>
       </c>
       <c r="K23" s="3">
         <v>-12700</v>
@@ -1635,13 +1635,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>24500</v>
+        <v>23300</v>
       </c>
       <c r="E24" s="3">
-        <v>20600</v>
+        <v>19600</v>
       </c>
       <c r="F24" s="3">
-        <v>7300</v>
+        <v>6900</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1759,25 +1759,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>88900</v>
+        <v>84800</v>
       </c>
       <c r="E26" s="3">
-        <v>64500</v>
+        <v>61500</v>
       </c>
       <c r="F26" s="3">
-        <v>187900</v>
+        <v>179100</v>
       </c>
       <c r="G26" s="3">
-        <v>68200</v>
+        <v>65000</v>
       </c>
       <c r="H26" s="3">
-        <v>24600</v>
+        <v>23400</v>
       </c>
       <c r="I26" s="3">
         <v>200</v>
       </c>
       <c r="J26" s="3">
-        <v>-10500</v>
+        <v>-10000</v>
       </c>
       <c r="K26" s="3">
         <v>-12700</v>
@@ -1821,25 +1821,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>88900</v>
+        <v>84800</v>
       </c>
       <c r="E27" s="3">
-        <v>64500</v>
+        <v>61500</v>
       </c>
       <c r="F27" s="3">
-        <v>187900</v>
+        <v>179100</v>
       </c>
       <c r="G27" s="3">
-        <v>68200</v>
+        <v>65000</v>
       </c>
       <c r="H27" s="3">
-        <v>24600</v>
+        <v>23400</v>
       </c>
       <c r="I27" s="3">
         <v>200</v>
       </c>
       <c r="J27" s="3">
-        <v>-10500</v>
+        <v>-10000</v>
       </c>
       <c r="K27" s="3">
         <v>-12700</v>
@@ -2131,13 +2131,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-21500</v>
+        <v>-20500</v>
       </c>
       <c r="E32" s="3">
         <v>-600</v>
       </c>
       <c r="F32" s="3">
-        <v>-18000</v>
+        <v>-17200</v>
       </c>
       <c r="G32" s="3">
         <v>-600</v>
@@ -2146,7 +2146,7 @@
         <v>-400</v>
       </c>
       <c r="I32" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="J32" s="3">
         <v>100</v>
@@ -2193,25 +2193,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>88900</v>
+        <v>84800</v>
       </c>
       <c r="E33" s="3">
-        <v>64500</v>
+        <v>61500</v>
       </c>
       <c r="F33" s="3">
-        <v>187900</v>
+        <v>179100</v>
       </c>
       <c r="G33" s="3">
-        <v>68200</v>
+        <v>65000</v>
       </c>
       <c r="H33" s="3">
-        <v>24600</v>
+        <v>23400</v>
       </c>
       <c r="I33" s="3">
         <v>200</v>
       </c>
       <c r="J33" s="3">
-        <v>-10500</v>
+        <v>-10000</v>
       </c>
       <c r="K33" s="3">
         <v>-12700</v>
@@ -2317,25 +2317,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>88900</v>
+        <v>84800</v>
       </c>
       <c r="E35" s="3">
-        <v>64500</v>
+        <v>61500</v>
       </c>
       <c r="F35" s="3">
-        <v>187900</v>
+        <v>179100</v>
       </c>
       <c r="G35" s="3">
-        <v>68200</v>
+        <v>65000</v>
       </c>
       <c r="H35" s="3">
-        <v>24600</v>
+        <v>23400</v>
       </c>
       <c r="I35" s="3">
         <v>200</v>
       </c>
       <c r="J35" s="3">
-        <v>-10500</v>
+        <v>-10000</v>
       </c>
       <c r="K35" s="3">
         <v>-12700</v>
@@ -2494,25 +2494,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>385600</v>
+        <v>367600</v>
       </c>
       <c r="E41" s="3">
-        <v>386000</v>
+        <v>367900</v>
       </c>
       <c r="F41" s="3">
-        <v>392000</v>
+        <v>373700</v>
       </c>
       <c r="G41" s="3">
-        <v>248000</v>
+        <v>236400</v>
       </c>
       <c r="H41" s="3">
-        <v>178200</v>
+        <v>169900</v>
       </c>
       <c r="I41" s="3">
-        <v>195400</v>
+        <v>186200</v>
       </c>
       <c r="J41" s="3">
-        <v>57100</v>
+        <v>54500</v>
       </c>
       <c r="K41" s="3">
         <v>26100</v>
@@ -2574,7 +2574,7 @@
         <v>1200</v>
       </c>
       <c r="J42" s="3">
-        <v>9100</v>
+        <v>8700</v>
       </c>
       <c r="K42" s="3">
         <v>30100</v>
@@ -2624,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>40200</v>
+        <v>38300</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
@@ -2636,7 +2636,7 @@
         <v>1000</v>
       </c>
       <c r="J43" s="3">
-        <v>14700</v>
+        <v>14000</v>
       </c>
       <c r="K43" s="3">
         <v>100</v>
@@ -2680,25 +2680,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>237500</v>
+        <v>226400</v>
       </c>
       <c r="E44" s="3">
-        <v>174300</v>
+        <v>166100</v>
       </c>
       <c r="F44" s="3">
-        <v>118600</v>
+        <v>113100</v>
       </c>
       <c r="G44" s="3">
-        <v>121700</v>
+        <v>116000</v>
       </c>
       <c r="H44" s="3">
-        <v>85700</v>
+        <v>81700</v>
       </c>
       <c r="I44" s="3">
-        <v>54900</v>
+        <v>52400</v>
       </c>
       <c r="J44" s="3">
-        <v>32900</v>
+        <v>31400</v>
       </c>
       <c r="K44" s="3">
         <v>7900</v>
@@ -2742,25 +2742,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>207400</v>
+        <v>197700</v>
       </c>
       <c r="E45" s="3">
-        <v>282900</v>
+        <v>269700</v>
       </c>
       <c r="F45" s="3">
-        <v>219300</v>
+        <v>209000</v>
       </c>
       <c r="G45" s="3">
-        <v>191300</v>
+        <v>182300</v>
       </c>
       <c r="H45" s="3">
-        <v>207300</v>
+        <v>197600</v>
       </c>
       <c r="I45" s="3">
-        <v>86900</v>
+        <v>82800</v>
       </c>
       <c r="J45" s="3">
-        <v>33200</v>
+        <v>31700</v>
       </c>
       <c r="K45" s="3">
         <v>37000</v>
@@ -2804,25 +2804,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>830500</v>
+        <v>791700</v>
       </c>
       <c r="E46" s="3">
-        <v>843200</v>
+        <v>803800</v>
       </c>
       <c r="F46" s="3">
-        <v>770100</v>
+        <v>734100</v>
       </c>
       <c r="G46" s="3">
-        <v>561100</v>
+        <v>534900</v>
       </c>
       <c r="H46" s="3">
-        <v>471300</v>
+        <v>449300</v>
       </c>
       <c r="I46" s="3">
-        <v>339400</v>
+        <v>323500</v>
       </c>
       <c r="J46" s="3">
-        <v>147100</v>
+        <v>140200</v>
       </c>
       <c r="K46" s="3">
         <v>101100</v>
@@ -2866,16 +2866,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="E47" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="F47" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="G47" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
@@ -2928,25 +2928,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>52200</v>
+        <v>49700</v>
       </c>
       <c r="E48" s="3">
-        <v>49700</v>
+        <v>47400</v>
       </c>
       <c r="F48" s="3">
-        <v>31600</v>
+        <v>30100</v>
       </c>
       <c r="G48" s="3">
-        <v>8400</v>
+        <v>8000</v>
       </c>
       <c r="H48" s="3">
-        <v>6800</v>
+        <v>6500</v>
       </c>
       <c r="I48" s="3">
-        <v>5100</v>
+        <v>4800</v>
       </c>
       <c r="J48" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="K48" s="3">
         <v>4900</v>
@@ -2990,16 +2990,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7500</v>
+        <v>7100</v>
       </c>
       <c r="E49" s="3">
-        <v>6600</v>
+        <v>6300</v>
       </c>
       <c r="F49" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="G49" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>16</v>
@@ -3176,13 +3176,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="E52" s="3">
-        <v>10300</v>
+        <v>9800</v>
       </c>
       <c r="F52" s="3">
-        <v>14900</v>
+        <v>14200</v>
       </c>
       <c r="G52" s="3">
         <v>400</v>
@@ -3300,25 +3300,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>904600</v>
+        <v>862300</v>
       </c>
       <c r="E54" s="3">
-        <v>912800</v>
+        <v>870100</v>
       </c>
       <c r="F54" s="3">
-        <v>822500</v>
+        <v>784000</v>
       </c>
       <c r="G54" s="3">
-        <v>573700</v>
+        <v>546800</v>
       </c>
       <c r="H54" s="3">
-        <v>478600</v>
+        <v>456200</v>
       </c>
       <c r="I54" s="3">
-        <v>344900</v>
+        <v>328700</v>
       </c>
       <c r="J54" s="3">
-        <v>151300</v>
+        <v>144300</v>
       </c>
       <c r="K54" s="3">
         <v>106800</v>
@@ -3410,25 +3410,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>14200</v>
+        <v>13500</v>
       </c>
       <c r="E57" s="3">
-        <v>14800</v>
+        <v>14100</v>
       </c>
       <c r="F57" s="3">
-        <v>20900</v>
+        <v>20000</v>
       </c>
       <c r="G57" s="3">
-        <v>17600</v>
+        <v>16800</v>
       </c>
       <c r="H57" s="3">
-        <v>15700</v>
+        <v>15000</v>
       </c>
       <c r="I57" s="3">
-        <v>6600</v>
+        <v>6300</v>
       </c>
       <c r="J57" s="3">
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="K57" s="3">
         <v>1600</v>
@@ -3487,10 +3487,10 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="J58" s="3">
-        <v>7100</v>
+        <v>6800</v>
       </c>
       <c r="K58" s="3">
         <v>7200</v>
@@ -3534,25 +3534,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>201400</v>
+        <v>192000</v>
       </c>
       <c r="E59" s="3">
-        <v>305700</v>
+        <v>291400</v>
       </c>
       <c r="F59" s="3">
-        <v>283500</v>
+        <v>270300</v>
       </c>
       <c r="G59" s="3">
-        <v>193700</v>
+        <v>184600</v>
       </c>
       <c r="H59" s="3">
-        <v>180900</v>
+        <v>172400</v>
       </c>
       <c r="I59" s="3">
-        <v>247900</v>
+        <v>236300</v>
       </c>
       <c r="J59" s="3">
-        <v>73900</v>
+        <v>70500</v>
       </c>
       <c r="K59" s="3">
         <v>15800</v>
@@ -3596,25 +3596,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>215500</v>
+        <v>205500</v>
       </c>
       <c r="E60" s="3">
-        <v>320500</v>
+        <v>305500</v>
       </c>
       <c r="F60" s="3">
-        <v>304500</v>
+        <v>290200</v>
       </c>
       <c r="G60" s="3">
-        <v>211300</v>
+        <v>201400</v>
       </c>
       <c r="H60" s="3">
-        <v>196600</v>
+        <v>187500</v>
       </c>
       <c r="I60" s="3">
-        <v>259200</v>
+        <v>247100</v>
       </c>
       <c r="J60" s="3">
-        <v>86500</v>
+        <v>82500</v>
       </c>
       <c r="K60" s="3">
         <v>24500</v>
@@ -3720,25 +3720,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="E62" s="3">
-        <v>12400</v>
+        <v>11900</v>
       </c>
       <c r="F62" s="3">
-        <v>12900</v>
+        <v>12300</v>
       </c>
       <c r="G62" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="H62" s="3">
-        <v>10800</v>
+        <v>10300</v>
       </c>
       <c r="I62" s="3">
         <v>1200</v>
       </c>
       <c r="J62" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="K62" s="3">
         <v>2200</v>
@@ -3968,25 +3968,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>218000</v>
+        <v>207800</v>
       </c>
       <c r="E66" s="3">
-        <v>332900</v>
+        <v>317400</v>
       </c>
       <c r="F66" s="3">
-        <v>317400</v>
+        <v>302600</v>
       </c>
       <c r="G66" s="3">
-        <v>214000</v>
+        <v>204000</v>
       </c>
       <c r="H66" s="3">
-        <v>207500</v>
+        <v>197800</v>
       </c>
       <c r="I66" s="3">
-        <v>260400</v>
+        <v>248300</v>
       </c>
       <c r="J66" s="3">
-        <v>88200</v>
+        <v>84100</v>
       </c>
       <c r="K66" s="3">
         <v>26700</v>
@@ -4302,25 +4302,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>275500</v>
+        <v>262600</v>
       </c>
       <c r="E72" s="3">
-        <v>186600</v>
+        <v>177900</v>
       </c>
       <c r="F72" s="3">
-        <v>131500</v>
+        <v>125400</v>
       </c>
       <c r="G72" s="3">
-        <v>-67600</v>
+        <v>-64400</v>
       </c>
       <c r="H72" s="3">
-        <v>-124400</v>
+        <v>-118600</v>
       </c>
       <c r="I72" s="3">
-        <v>-160200</v>
+        <v>-152700</v>
       </c>
       <c r="J72" s="3">
-        <v>-160400</v>
+        <v>-152900</v>
       </c>
       <c r="K72" s="3">
         <v>-151300</v>
@@ -4550,25 +4550,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>686600</v>
+        <v>654500</v>
       </c>
       <c r="E76" s="3">
-        <v>579800</v>
+        <v>552700</v>
       </c>
       <c r="F76" s="3">
-        <v>505100</v>
+        <v>481400</v>
       </c>
       <c r="G76" s="3">
-        <v>359600</v>
+        <v>342800</v>
       </c>
       <c r="H76" s="3">
-        <v>271200</v>
+        <v>258500</v>
       </c>
       <c r="I76" s="3">
-        <v>84400</v>
+        <v>80500</v>
       </c>
       <c r="J76" s="3">
-        <v>63200</v>
+        <v>60200</v>
       </c>
       <c r="K76" s="3">
         <v>80100</v>
@@ -4741,25 +4741,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>88900</v>
+        <v>84800</v>
       </c>
       <c r="E81" s="3">
-        <v>64500</v>
+        <v>61500</v>
       </c>
       <c r="F81" s="3">
-        <v>187900</v>
+        <v>179100</v>
       </c>
       <c r="G81" s="3">
-        <v>68200</v>
+        <v>65000</v>
       </c>
       <c r="H81" s="3">
-        <v>24600</v>
+        <v>23400</v>
       </c>
       <c r="I81" s="3">
         <v>200</v>
       </c>
       <c r="J81" s="3">
-        <v>-10500</v>
+        <v>-10000</v>
       </c>
       <c r="K81" s="3">
         <v>-12700</v>

--- a/AAII_Financials/Quarterly/CAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="92">
   <si>
     <t>CAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,308 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>230100</v>
+        <v>56300</v>
       </c>
       <c r="E8" s="3">
-        <v>188800</v>
+        <v>572600</v>
       </c>
       <c r="F8" s="3">
-        <v>304100</v>
+        <v>237400</v>
       </c>
       <c r="G8" s="3">
-        <v>183400</v>
+        <v>194800</v>
       </c>
       <c r="H8" s="3">
-        <v>150600</v>
+        <v>313800</v>
       </c>
       <c r="I8" s="3">
+        <v>189200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>155400</v>
+      </c>
+      <c r="K8" s="3">
         <v>56100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>5300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>24000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>26200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>10700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>71300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>103300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>37700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>7200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>40300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>69800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>126000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>153300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>76600</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>100600</v>
+        <v>89500</v>
       </c>
       <c r="E9" s="3">
-        <v>73300</v>
+        <v>395300</v>
       </c>
       <c r="F9" s="3">
-        <v>97000</v>
+        <v>103800</v>
       </c>
       <c r="G9" s="3">
-        <v>80200</v>
+        <v>75600</v>
       </c>
       <c r="H9" s="3">
-        <v>91000</v>
+        <v>100100</v>
       </c>
       <c r="I9" s="3">
+        <v>82700</v>
+      </c>
+      <c r="J9" s="3">
+        <v>93900</v>
+      </c>
+      <c r="K9" s="3">
         <v>29000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>4100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>26500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>19900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>10300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>175000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>80700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>36000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>7100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>38600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>62700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>174600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>40600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>41600</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>129400</v>
+        <v>-33200</v>
       </c>
       <c r="E10" s="3">
-        <v>115500</v>
+        <v>177300</v>
       </c>
       <c r="F10" s="3">
-        <v>207100</v>
+        <v>133500</v>
       </c>
       <c r="G10" s="3">
-        <v>103200</v>
+        <v>119200</v>
       </c>
       <c r="H10" s="3">
-        <v>59600</v>
+        <v>213700</v>
       </c>
       <c r="I10" s="3">
+        <v>106500</v>
+      </c>
+      <c r="J10" s="3">
+        <v>61500</v>
+      </c>
+      <c r="K10" s="3">
         <v>27000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>-2500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>6400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>-103700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>22500</v>
-      </c>
-      <c r="P10" s="3">
-        <v>1700</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>100</v>
       </c>
       <c r="R10" s="3">
         <v>1700</v>
       </c>
       <c r="S10" s="3">
+        <v>100</v>
+      </c>
+      <c r="T10" s="3">
+        <v>1700</v>
+      </c>
+      <c r="U10" s="3">
         <v>7100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>-48500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>112800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,70 +989,78 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>32100</v>
+      </c>
+      <c r="E12" s="3">
+        <v>63400</v>
+      </c>
+      <c r="F12" s="3">
+        <v>14900</v>
+      </c>
+      <c r="G12" s="3">
         <v>14500</v>
       </c>
-      <c r="E12" s="3">
-        <v>14100</v>
-      </c>
-      <c r="F12" s="3">
-        <v>16400</v>
-      </c>
-      <c r="G12" s="3">
-        <v>12900</v>
-      </c>
       <c r="H12" s="3">
-        <v>9700</v>
+        <v>16900</v>
       </c>
       <c r="I12" s="3">
+        <v>13300</v>
+      </c>
+      <c r="J12" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K12" s="3">
         <v>8100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>5600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>4700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>3800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>6500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>9600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>5700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>5600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>4800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>7400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>9800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>5500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>4700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1088,19 +1121,25 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>4200</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>16</v>
+        <v>1600</v>
+      </c>
+      <c r="E14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F14" s="3">
+        <v>4300</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>16</v>
@@ -1108,17 +1147,17 @@
       <c r="H14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>16</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1150,8 +1189,14 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1185,35 +1230,41 @@
       <c r="M15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P15" s="3">
         <v>500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>400</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R15" s="3" t="s">
         <v>16</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
-      <c r="U15" s="3">
-        <v>0</v>
+      <c r="T15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1284,146 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>142500</v>
+        <v>147600</v>
       </c>
       <c r="E17" s="3">
-        <v>108300</v>
+        <v>408800</v>
       </c>
       <c r="F17" s="3">
-        <v>135200</v>
+        <v>147000</v>
       </c>
       <c r="G17" s="3">
-        <v>118900</v>
+        <v>111700</v>
       </c>
       <c r="H17" s="3">
-        <v>127500</v>
+        <v>139500</v>
       </c>
       <c r="I17" s="3">
+        <v>122700</v>
+      </c>
+      <c r="J17" s="3">
+        <v>131600</v>
+      </c>
+      <c r="K17" s="3">
         <v>58000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>15200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>37700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>29000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>21800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>194700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>91900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>79600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>16100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>51200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>79700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>188800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>51000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>58400</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>87600</v>
+        <v>-91300</v>
       </c>
       <c r="E18" s="3">
-        <v>80500</v>
+        <v>163800</v>
       </c>
       <c r="F18" s="3">
-        <v>168900</v>
+        <v>90400</v>
       </c>
       <c r="G18" s="3">
-        <v>64500</v>
+        <v>83000</v>
       </c>
       <c r="H18" s="3">
-        <v>23000</v>
+        <v>174200</v>
       </c>
       <c r="I18" s="3">
+        <v>66500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>23800</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-9900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-13700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-2800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-11100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-123400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>11300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-42000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-8900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-10800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-9900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-62800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>102400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1381,70 +1446,78 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>20500</v>
+        <v>6900</v>
       </c>
       <c r="E20" s="3">
-        <v>600</v>
+        <v>37000</v>
       </c>
       <c r="F20" s="3">
-        <v>17200</v>
+        <v>21200</v>
       </c>
       <c r="G20" s="3">
         <v>600</v>
       </c>
       <c r="H20" s="3">
+        <v>17700</v>
+      </c>
+      <c r="I20" s="3">
+        <v>7100</v>
+      </c>
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>2100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>1100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>5100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>3600</v>
-      </c>
-      <c r="P20" s="3">
-        <v>1500</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>500</v>
       </c>
       <c r="R20" s="3">
         <v>1500</v>
       </c>
       <c r="S20" s="3">
+        <v>500</v>
+      </c>
+      <c r="T20" s="3">
+        <v>1500</v>
+      </c>
+      <c r="U20" s="3">
         <v>1800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>9800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>4300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1481,49 +1554,55 @@
       <c r="N21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q21" s="3">
         <v>16500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-39400</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U21" s="3">
         <v>-7000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-52400</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V21" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>16</v>
+      <c r="D22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="H22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1532,122 +1611,134 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>100</v>
-      </c>
-      <c r="L22" s="3">
-        <v>200</v>
-      </c>
-      <c r="M22" s="3">
-        <v>200</v>
       </c>
       <c r="N22" s="3">
         <v>200</v>
       </c>
       <c r="O22" s="3">
+        <v>200</v>
+      </c>
+      <c r="P22" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q22" s="3">
         <v>300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>2000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>2700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>2400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>2400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>100</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>108100</v>
+        <v>-84400</v>
       </c>
       <c r="E23" s="3">
-        <v>81100</v>
+        <v>200800</v>
       </c>
       <c r="F23" s="3">
-        <v>186100</v>
+        <v>111500</v>
       </c>
       <c r="G23" s="3">
-        <v>65000</v>
+        <v>83600</v>
       </c>
       <c r="H23" s="3">
-        <v>23500</v>
+        <v>192000</v>
       </c>
       <c r="I23" s="3">
+        <v>73600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>24200</v>
+      </c>
+      <c r="K23" s="3">
         <v>200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-10000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-12700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-2500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-6300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-122900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>14600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-41000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-10400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-12100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-10600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-55400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>106600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>23300</v>
+        <v>-21400</v>
       </c>
       <c r="E24" s="3">
-        <v>19600</v>
+        <v>43300</v>
       </c>
       <c r="F24" s="3">
-        <v>6900</v>
+        <v>24100</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>20200</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>7100</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1677,22 +1768,28 @@
         <v>0</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>-8100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>6700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>13300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1850,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>84800</v>
+        <v>-63000</v>
       </c>
       <c r="E26" s="3">
-        <v>61500</v>
+        <v>157500</v>
       </c>
       <c r="F26" s="3">
-        <v>179100</v>
+        <v>87500</v>
       </c>
       <c r="G26" s="3">
-        <v>65000</v>
+        <v>63400</v>
       </c>
       <c r="H26" s="3">
-        <v>23400</v>
+        <v>184800</v>
       </c>
       <c r="I26" s="3">
+        <v>73600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>24100</v>
+      </c>
+      <c r="K26" s="3">
         <v>200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-10000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-12700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-2500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-6300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-122900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>14600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-41000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-10400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-4000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-9700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-62200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>93300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>84800</v>
+        <v>-63000</v>
       </c>
       <c r="E27" s="3">
-        <v>61500</v>
+        <v>157500</v>
       </c>
       <c r="F27" s="3">
-        <v>179100</v>
+        <v>87500</v>
       </c>
       <c r="G27" s="3">
-        <v>65000</v>
+        <v>63400</v>
       </c>
       <c r="H27" s="3">
-        <v>23400</v>
+        <v>184800</v>
       </c>
       <c r="I27" s="3">
+        <v>73600</v>
+      </c>
+      <c r="J27" s="3">
+        <v>24100</v>
+      </c>
+      <c r="K27" s="3">
         <v>200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-10000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-12700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-2500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-6300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-122900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>14600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-41000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-10400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-4000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-9700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-62200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>93300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +2054,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2122,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,132 +2258,150 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-20500</v>
+        <v>-6900</v>
       </c>
       <c r="E32" s="3">
-        <v>-600</v>
+        <v>-37000</v>
       </c>
       <c r="F32" s="3">
-        <v>-17200</v>
+        <v>-21200</v>
       </c>
       <c r="G32" s="3">
         <v>-600</v>
       </c>
       <c r="H32" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-2100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-1100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-5100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-3600</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-500</v>
       </c>
       <c r="R32" s="3">
         <v>-1500</v>
       </c>
       <c r="S32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T32" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="U32" s="3">
         <v>-1800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-9800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-4300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>84800</v>
+        <v>-63000</v>
       </c>
       <c r="E33" s="3">
-        <v>61500</v>
+        <v>157500</v>
       </c>
       <c r="F33" s="3">
-        <v>179100</v>
+        <v>87500</v>
       </c>
       <c r="G33" s="3">
-        <v>65000</v>
+        <v>63400</v>
       </c>
       <c r="H33" s="3">
-        <v>23400</v>
+        <v>184800</v>
       </c>
       <c r="I33" s="3">
+        <v>73600</v>
+      </c>
+      <c r="J33" s="3">
+        <v>24100</v>
+      </c>
+      <c r="K33" s="3">
         <v>200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-10000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-12700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-2500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-6300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-122900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>14600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-41000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-10400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-4000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-9700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-62200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>93300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2462,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>84800</v>
+        <v>-63000</v>
       </c>
       <c r="E35" s="3">
-        <v>61500</v>
+        <v>157500</v>
       </c>
       <c r="F35" s="3">
-        <v>179100</v>
+        <v>87500</v>
       </c>
       <c r="G35" s="3">
-        <v>65000</v>
+        <v>63400</v>
       </c>
       <c r="H35" s="3">
-        <v>23400</v>
+        <v>184800</v>
       </c>
       <c r="I35" s="3">
+        <v>73600</v>
+      </c>
+      <c r="J35" s="3">
+        <v>24100</v>
+      </c>
+      <c r="K35" s="3">
         <v>200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-10000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-12700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-2500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-6300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-122900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>14600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-41000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-10400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-4000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-9700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-62200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>93300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,56 +2659,58 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>367600</v>
+        <v>101600</v>
       </c>
       <c r="E41" s="3">
-        <v>367900</v>
+        <v>287600</v>
       </c>
       <c r="F41" s="3">
-        <v>373700</v>
+        <v>379300</v>
       </c>
       <c r="G41" s="3">
-        <v>236400</v>
+        <v>379600</v>
       </c>
       <c r="H41" s="3">
-        <v>169900</v>
+        <v>385500</v>
       </c>
       <c r="I41" s="3">
+        <v>243900</v>
+      </c>
+      <c r="J41" s="3">
+        <v>175300</v>
+      </c>
+      <c r="K41" s="3">
         <v>186200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>54500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>26100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>23100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>41400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>80400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>51200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>42200</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2550,8 +2723,14 @@
       <c r="V41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2561,45 +2740,45 @@
       <c r="E42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
+      <c r="F42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
       </c>
       <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>1200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>8700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>30100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>51200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>27100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>1700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>12500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>17200</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2612,56 +2791,62 @@
       <c r="V42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>38300</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>39500</v>
+      </c>
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>14000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>24800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>23700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>26400</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2674,56 +2859,62 @@
       <c r="V43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>226400</v>
+        <v>217200</v>
       </c>
       <c r="E44" s="3">
-        <v>166100</v>
+        <v>190900</v>
       </c>
       <c r="F44" s="3">
-        <v>113100</v>
+        <v>233600</v>
       </c>
       <c r="G44" s="3">
-        <v>116000</v>
+        <v>171400</v>
       </c>
       <c r="H44" s="3">
-        <v>81700</v>
+        <v>116700</v>
       </c>
       <c r="I44" s="3">
+        <v>119700</v>
+      </c>
+      <c r="J44" s="3">
+        <v>84300</v>
+      </c>
+      <c r="K44" s="3">
         <v>52400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>31400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>7900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>13000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>35500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>30200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>60400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>65500</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S44" s="3" t="s">
         <v>16</v>
       </c>
@@ -2736,56 +2927,62 @@
       <c r="V44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>197700</v>
+        <v>255000</v>
       </c>
       <c r="E45" s="3">
-        <v>269700</v>
+        <v>243200</v>
       </c>
       <c r="F45" s="3">
-        <v>209000</v>
+        <v>204000</v>
       </c>
       <c r="G45" s="3">
-        <v>182300</v>
+        <v>278300</v>
       </c>
       <c r="H45" s="3">
-        <v>197600</v>
+        <v>215700</v>
       </c>
       <c r="I45" s="3">
+        <v>188100</v>
+      </c>
+      <c r="J45" s="3">
+        <v>203900</v>
+      </c>
+      <c r="K45" s="3">
         <v>82800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>31700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>37000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>26600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>40800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>7700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>74700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>64800</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2798,56 +2995,62 @@
       <c r="V45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>791700</v>
+        <v>573700</v>
       </c>
       <c r="E46" s="3">
-        <v>803800</v>
+        <v>721600</v>
       </c>
       <c r="F46" s="3">
-        <v>734100</v>
+        <v>816800</v>
       </c>
       <c r="G46" s="3">
-        <v>534900</v>
+        <v>829300</v>
       </c>
       <c r="H46" s="3">
-        <v>449300</v>
+        <v>757400</v>
       </c>
       <c r="I46" s="3">
+        <v>551800</v>
+      </c>
+      <c r="J46" s="3">
+        <v>463500</v>
+      </c>
+      <c r="K46" s="3">
         <v>323500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>140200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>101100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>115400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>145900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>144900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>222500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>216100</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2860,41 +3063,47 @@
       <c r="V46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="E47" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="F47" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="G47" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="H47" s="3">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="I47" s="3">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
       </c>
       <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
         <v>400</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>16</v>
       </c>
@@ -2907,11 +3116,11 @@
       <c r="Q47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
-      </c>
-      <c r="S47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
@@ -2922,56 +3131,62 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>49700</v>
+        <v>90100</v>
       </c>
       <c r="E48" s="3">
-        <v>47400</v>
+        <v>46800</v>
       </c>
       <c r="F48" s="3">
-        <v>30100</v>
+        <v>51300</v>
       </c>
       <c r="G48" s="3">
-        <v>8000</v>
+        <v>48900</v>
       </c>
       <c r="H48" s="3">
-        <v>6500</v>
+        <v>31100</v>
       </c>
       <c r="I48" s="3">
+        <v>8200</v>
+      </c>
+      <c r="J48" s="3">
+        <v>6700</v>
+      </c>
+      <c r="K48" s="3">
         <v>4800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>3700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>4900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>18200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>6300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>7000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>21200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>8200</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2984,37 +3199,43 @@
       <c r="V48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7100</v>
+        <v>12500</v>
       </c>
       <c r="E49" s="3">
-        <v>6300</v>
+        <v>10600</v>
       </c>
       <c r="F49" s="3">
-        <v>2800</v>
+        <v>7400</v>
       </c>
       <c r="G49" s="3">
-        <v>800</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>16</v>
+        <v>6500</v>
+      </c>
+      <c r="H49" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I49" s="3">
+        <v>900</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -3046,8 +3267,14 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,56 +3403,62 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>11000</v>
+        <v>20200</v>
       </c>
       <c r="E52" s="3">
-        <v>9800</v>
+        <v>15400</v>
       </c>
       <c r="F52" s="3">
-        <v>14200</v>
+        <v>11300</v>
       </c>
       <c r="G52" s="3">
-        <v>400</v>
+        <v>10100</v>
       </c>
       <c r="H52" s="3">
-        <v>500</v>
+        <v>14600</v>
       </c>
       <c r="I52" s="3">
         <v>400</v>
       </c>
       <c r="J52" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K52" s="3">
         <v>400</v>
       </c>
       <c r="L52" s="3">
+        <v>400</v>
+      </c>
+      <c r="M52" s="3">
+        <v>400</v>
+      </c>
+      <c r="N52" s="3">
         <v>300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>2000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>1000</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>16</v>
       </c>
@@ -3232,8 +3471,14 @@
       <c r="V52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,56 +3539,62 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>862300</v>
+        <v>699400</v>
       </c>
       <c r="E54" s="3">
-        <v>870100</v>
+        <v>797300</v>
       </c>
       <c r="F54" s="3">
-        <v>784000</v>
+        <v>889700</v>
       </c>
       <c r="G54" s="3">
-        <v>546800</v>
+        <v>897700</v>
       </c>
       <c r="H54" s="3">
-        <v>456200</v>
+        <v>808900</v>
       </c>
       <c r="I54" s="3">
+        <v>564200</v>
+      </c>
+      <c r="J54" s="3">
+        <v>470700</v>
+      </c>
+      <c r="K54" s="3">
         <v>328700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>144300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>106800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>133900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>152500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>152700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>245800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>225300</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>16</v>
       </c>
@@ -3356,8 +3607,14 @@
       <c r="V54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,56 +3663,58 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>13500</v>
+        <v>16700</v>
       </c>
       <c r="E57" s="3">
-        <v>14100</v>
+        <v>4700</v>
       </c>
       <c r="F57" s="3">
-        <v>20000</v>
+        <v>13900</v>
       </c>
       <c r="G57" s="3">
-        <v>16800</v>
+        <v>14500</v>
       </c>
       <c r="H57" s="3">
-        <v>15000</v>
+        <v>20600</v>
       </c>
       <c r="I57" s="3">
+        <v>17300</v>
+      </c>
+      <c r="J57" s="3">
+        <v>15500</v>
+      </c>
+      <c r="K57" s="3">
         <v>6300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>5200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>10300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>15300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>11500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>9700</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>16</v>
       </c>
@@ -3466,8 +3727,14 @@
       <c r="V57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3477,45 +3744,45 @@
       <c r="E58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>4500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>6800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>7200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>28900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>29700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>19600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>38300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>30800</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>16</v>
       </c>
@@ -3528,56 +3795,62 @@
       <c r="V58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>192000</v>
+        <v>47700</v>
       </c>
       <c r="E59" s="3">
-        <v>291400</v>
+        <v>88200</v>
       </c>
       <c r="F59" s="3">
-        <v>270300</v>
+        <v>198100</v>
       </c>
       <c r="G59" s="3">
-        <v>184600</v>
+        <v>300700</v>
       </c>
       <c r="H59" s="3">
-        <v>172400</v>
+        <v>278900</v>
       </c>
       <c r="I59" s="3">
+        <v>190500</v>
+      </c>
+      <c r="J59" s="3">
+        <v>177900</v>
+      </c>
+      <c r="K59" s="3">
         <v>236300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>70500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>15800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>5100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>5700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>9100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>53200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>54400</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3590,56 +3863,62 @@
       <c r="V59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>205500</v>
+        <v>64400</v>
       </c>
       <c r="E60" s="3">
-        <v>305500</v>
+        <v>92800</v>
       </c>
       <c r="F60" s="3">
-        <v>290200</v>
+        <v>212000</v>
       </c>
       <c r="G60" s="3">
-        <v>201400</v>
+        <v>315200</v>
       </c>
       <c r="H60" s="3">
-        <v>187500</v>
+        <v>299500</v>
       </c>
       <c r="I60" s="3">
+        <v>207800</v>
+      </c>
+      <c r="J60" s="3">
+        <v>193400</v>
+      </c>
+      <c r="K60" s="3">
         <v>247100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>82500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>24500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>36300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>45700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>43900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>103000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>94900</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3652,8 +3931,14 @@
       <c r="V60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3714,56 +3999,62 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F62" s="3">
         <v>2400</v>
       </c>
-      <c r="E62" s="3">
-        <v>11900</v>
-      </c>
-      <c r="F62" s="3">
-        <v>12300</v>
-      </c>
       <c r="G62" s="3">
+        <v>12200</v>
+      </c>
+      <c r="H62" s="3">
+        <v>12700</v>
+      </c>
+      <c r="I62" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J62" s="3">
+        <v>10600</v>
+      </c>
+      <c r="K62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M62" s="3">
+        <v>2200</v>
+      </c>
+      <c r="N62" s="3">
         <v>2600</v>
       </c>
-      <c r="H62" s="3">
-        <v>10300</v>
-      </c>
-      <c r="I62" s="3">
-        <v>1200</v>
-      </c>
-      <c r="J62" s="3">
-        <v>1600</v>
-      </c>
-      <c r="K62" s="3">
-        <v>2200</v>
-      </c>
-      <c r="L62" s="3">
-        <v>2600</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>3300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>2100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>2700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>2900</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>16</v>
       </c>
@@ -3776,8 +4067,14 @@
       <c r="V62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,56 +4271,62 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>207800</v>
+        <v>66400</v>
       </c>
       <c r="E66" s="3">
-        <v>317400</v>
+        <v>95500</v>
       </c>
       <c r="F66" s="3">
-        <v>302600</v>
+        <v>214400</v>
       </c>
       <c r="G66" s="3">
+        <v>327400</v>
+      </c>
+      <c r="H66" s="3">
+        <v>312200</v>
+      </c>
+      <c r="I66" s="3">
+        <v>210500</v>
+      </c>
+      <c r="J66" s="3">
         <v>204000</v>
       </c>
-      <c r="H66" s="3">
-        <v>197800</v>
-      </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>248300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>84100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>26700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>38900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>49000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>46000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>105700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>97800</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>16</v>
       </c>
@@ -4024,8 +4339,14 @@
       <c r="V66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,56 +4637,62 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>262600</v>
+        <v>214600</v>
       </c>
       <c r="E72" s="3">
-        <v>177900</v>
+        <v>279700</v>
       </c>
       <c r="F72" s="3">
-        <v>125400</v>
+        <v>271000</v>
       </c>
       <c r="G72" s="3">
-        <v>-64400</v>
+        <v>183500</v>
       </c>
       <c r="H72" s="3">
-        <v>-118600</v>
+        <v>129400</v>
       </c>
       <c r="I72" s="3">
+        <v>-66400</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-122400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-152700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-152900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-151300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-138500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-144500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-136000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-13100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-28000</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>16</v>
       </c>
@@ -4358,8 +4705,14 @@
       <c r="V72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,56 +4909,62 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>654500</v>
+        <v>633000</v>
       </c>
       <c r="E76" s="3">
-        <v>552700</v>
+        <v>701800</v>
       </c>
       <c r="F76" s="3">
-        <v>481400</v>
+        <v>675300</v>
       </c>
       <c r="G76" s="3">
-        <v>342800</v>
+        <v>570300</v>
       </c>
       <c r="H76" s="3">
-        <v>258500</v>
+        <v>496700</v>
       </c>
       <c r="I76" s="3">
+        <v>353700</v>
+      </c>
+      <c r="J76" s="3">
+        <v>266700</v>
+      </c>
+      <c r="K76" s="3">
         <v>80500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>60200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>80100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>95000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>103500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>106700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>140100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>127500</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>16</v>
       </c>
@@ -4606,8 +4977,14 @@
       <c r="V76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +5045,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>84800</v>
+        <v>-63000</v>
       </c>
       <c r="E81" s="3">
-        <v>61500</v>
+        <v>157500</v>
       </c>
       <c r="F81" s="3">
-        <v>179100</v>
+        <v>87500</v>
       </c>
       <c r="G81" s="3">
-        <v>65000</v>
+        <v>63400</v>
       </c>
       <c r="H81" s="3">
-        <v>23400</v>
+        <v>184800</v>
       </c>
       <c r="I81" s="3">
+        <v>73600</v>
+      </c>
+      <c r="J81" s="3">
+        <v>24100</v>
+      </c>
+      <c r="K81" s="3">
         <v>200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-10000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-12700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-2500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-6300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-122900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>14600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-41000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-10400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-4000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-9700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-62200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>93300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5216,10 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4862,11 +5259,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>16</v>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>16</v>
@@ -4883,8 +5280,14 @@
       <c r="V83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,8 +5620,14 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5234,11 +5667,11 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q89" s="3" t="s">
-        <v>16</v>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>16</v>
@@ -5255,8 +5688,14 @@
       <c r="V89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,8 +5718,10 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5320,11 +5761,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>16</v>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>16</v>
@@ -5341,8 +5782,14 @@
       <c r="V91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,8 +5918,14 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5506,11 +5965,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>16</v>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>16</v>
@@ -5527,8 +5986,14 @@
       <c r="V94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +6080,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,8 +6284,14 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5840,11 +6331,11 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>16</v>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>16</v>
@@ -5861,8 +6352,14 @@
       <c r="V100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5902,11 +6399,11 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q101" s="3" t="s">
-        <v>16</v>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>16</v>
@@ -5923,8 +6420,14 @@
       <c r="V101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5964,11 +6467,11 @@
       <c r="O102" s="3">
         <v>0</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q102" s="3" t="s">
-        <v>16</v>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
       </c>
       <c r="R102" s="3" t="s">
         <v>16</v>
@@ -5983,6 +6486,12 @@
         <v>16</v>
       </c>
       <c r="V102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="92">
   <si>
     <t>CAN</t>
   </si>
@@ -767,25 +767,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>56300</v>
+        <v>55700</v>
       </c>
       <c r="E8" s="3">
-        <v>572600</v>
+        <v>139100</v>
       </c>
       <c r="F8" s="3">
-        <v>237400</v>
+        <v>427700</v>
       </c>
       <c r="G8" s="3">
-        <v>194800</v>
+        <v>192800</v>
       </c>
       <c r="H8" s="3">
-        <v>313800</v>
+        <v>310500</v>
       </c>
       <c r="I8" s="3">
-        <v>189200</v>
+        <v>187300</v>
       </c>
       <c r="J8" s="3">
-        <v>155400</v>
+        <v>153800</v>
       </c>
       <c r="K8" s="3">
         <v>56100</v>
@@ -835,25 +835,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>89500</v>
+        <v>117000</v>
       </c>
       <c r="E9" s="3">
-        <v>395300</v>
+        <v>105800</v>
       </c>
       <c r="F9" s="3">
-        <v>103800</v>
+        <v>179700</v>
       </c>
       <c r="G9" s="3">
-        <v>75600</v>
+        <v>74800</v>
       </c>
       <c r="H9" s="3">
-        <v>100100</v>
+        <v>99100</v>
       </c>
       <c r="I9" s="3">
-        <v>82700</v>
+        <v>81900</v>
       </c>
       <c r="J9" s="3">
-        <v>93900</v>
+        <v>92900</v>
       </c>
       <c r="K9" s="3">
         <v>29000</v>
@@ -903,25 +903,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-33200</v>
+        <v>-61300</v>
       </c>
       <c r="E10" s="3">
-        <v>177300</v>
+        <v>33300</v>
       </c>
       <c r="F10" s="3">
-        <v>133500</v>
+        <v>248000</v>
       </c>
       <c r="G10" s="3">
-        <v>119200</v>
+        <v>118000</v>
       </c>
       <c r="H10" s="3">
-        <v>213700</v>
+        <v>211500</v>
       </c>
       <c r="I10" s="3">
-        <v>106500</v>
+        <v>105400</v>
       </c>
       <c r="J10" s="3">
-        <v>61500</v>
+        <v>60800</v>
       </c>
       <c r="K10" s="3">
         <v>27000</v>
@@ -997,25 +997,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>32100</v>
+        <v>31800</v>
       </c>
       <c r="E12" s="3">
-        <v>63400</v>
+        <v>16800</v>
       </c>
       <c r="F12" s="3">
-        <v>14900</v>
+        <v>29200</v>
       </c>
       <c r="G12" s="3">
-        <v>14500</v>
+        <v>14400</v>
       </c>
       <c r="H12" s="3">
-        <v>16900</v>
+        <v>16800</v>
       </c>
       <c r="I12" s="3">
-        <v>13300</v>
+        <v>13200</v>
       </c>
       <c r="J12" s="3">
-        <v>10000</v>
+        <v>9900</v>
       </c>
       <c r="K12" s="3">
         <v>8100</v>
@@ -1136,7 +1136,7 @@
         <v>1600</v>
       </c>
       <c r="E14" s="3">
-        <v>6000</v>
+        <v>1600</v>
       </c>
       <c r="F14" s="3">
         <v>4300</v>
@@ -1292,25 +1292,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>147600</v>
+        <v>174500</v>
       </c>
       <c r="E17" s="3">
-        <v>408800</v>
+        <v>146500</v>
       </c>
       <c r="F17" s="3">
-        <v>147000</v>
+        <v>258200</v>
       </c>
       <c r="G17" s="3">
-        <v>111700</v>
+        <v>110600</v>
       </c>
       <c r="H17" s="3">
-        <v>139500</v>
+        <v>138100</v>
       </c>
       <c r="I17" s="3">
-        <v>122700</v>
+        <v>121400</v>
       </c>
       <c r="J17" s="3">
-        <v>131600</v>
+        <v>130200</v>
       </c>
       <c r="K17" s="3">
         <v>58000</v>
@@ -1360,25 +1360,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-91300</v>
+        <v>-118800</v>
       </c>
       <c r="E18" s="3">
-        <v>163800</v>
+        <v>-7400</v>
       </c>
       <c r="F18" s="3">
-        <v>90400</v>
+        <v>169500</v>
       </c>
       <c r="G18" s="3">
-        <v>83000</v>
+        <v>82200</v>
       </c>
       <c r="H18" s="3">
-        <v>174200</v>
+        <v>172500</v>
       </c>
       <c r="I18" s="3">
-        <v>66500</v>
+        <v>65900</v>
       </c>
       <c r="J18" s="3">
-        <v>23800</v>
+        <v>23500</v>
       </c>
       <c r="K18" s="3">
         <v>-1900</v>
@@ -1457,19 +1457,19 @@
         <v>6900</v>
       </c>
       <c r="E20" s="3">
-        <v>37000</v>
+        <v>15700</v>
       </c>
       <c r="F20" s="3">
-        <v>21200</v>
+        <v>20900</v>
       </c>
       <c r="G20" s="3">
         <v>600</v>
       </c>
       <c r="H20" s="3">
-        <v>17700</v>
+        <v>17500</v>
       </c>
       <c r="I20" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="J20" s="3">
         <v>400</v>
@@ -1589,8 +1589,8 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>16</v>
+      <c r="D22" s="3">
+        <v>0</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>16</v>
@@ -1658,25 +1658,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-84400</v>
+        <v>-111900</v>
       </c>
       <c r="E23" s="3">
-        <v>200800</v>
+        <v>8200</v>
       </c>
       <c r="F23" s="3">
-        <v>111500</v>
+        <v>190500</v>
       </c>
       <c r="G23" s="3">
-        <v>83600</v>
+        <v>82800</v>
       </c>
       <c r="H23" s="3">
-        <v>192000</v>
+        <v>190000</v>
       </c>
       <c r="I23" s="3">
-        <v>73600</v>
+        <v>72800</v>
       </c>
       <c r="J23" s="3">
-        <v>24200</v>
+        <v>24000</v>
       </c>
       <c r="K23" s="3">
         <v>200</v>
@@ -1726,16 +1726,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-21400</v>
+        <v>-25200</v>
       </c>
       <c r="E24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F24" s="3">
         <v>43300</v>
       </c>
-      <c r="F24" s="3">
-        <v>24100</v>
-      </c>
       <c r="G24" s="3">
-        <v>20200</v>
+        <v>20000</v>
       </c>
       <c r="H24" s="3">
         <v>7100</v>
@@ -1862,25 +1862,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-63000</v>
+        <v>-86700</v>
       </c>
       <c r="E26" s="3">
-        <v>157500</v>
+        <v>8700</v>
       </c>
       <c r="F26" s="3">
-        <v>87500</v>
+        <v>147200</v>
       </c>
       <c r="G26" s="3">
-        <v>63400</v>
+        <v>62800</v>
       </c>
       <c r="H26" s="3">
-        <v>184800</v>
+        <v>182900</v>
       </c>
       <c r="I26" s="3">
-        <v>73600</v>
+        <v>72800</v>
       </c>
       <c r="J26" s="3">
-        <v>24100</v>
+        <v>23900</v>
       </c>
       <c r="K26" s="3">
         <v>200</v>
@@ -1930,25 +1930,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-63000</v>
+        <v>-86700</v>
       </c>
       <c r="E27" s="3">
-        <v>157500</v>
+        <v>8700</v>
       </c>
       <c r="F27" s="3">
-        <v>87500</v>
+        <v>147200</v>
       </c>
       <c r="G27" s="3">
-        <v>63400</v>
+        <v>62800</v>
       </c>
       <c r="H27" s="3">
-        <v>184800</v>
+        <v>182900</v>
       </c>
       <c r="I27" s="3">
-        <v>73600</v>
+        <v>72800</v>
       </c>
       <c r="J27" s="3">
-        <v>24100</v>
+        <v>23900</v>
       </c>
       <c r="K27" s="3">
         <v>200</v>
@@ -2273,19 +2273,19 @@
         <v>-6900</v>
       </c>
       <c r="E32" s="3">
-        <v>-37000</v>
+        <v>-15700</v>
       </c>
       <c r="F32" s="3">
-        <v>-21200</v>
+        <v>-20900</v>
       </c>
       <c r="G32" s="3">
         <v>-600</v>
       </c>
       <c r="H32" s="3">
-        <v>-17700</v>
+        <v>-17500</v>
       </c>
       <c r="I32" s="3">
-        <v>-7100</v>
+        <v>-7000</v>
       </c>
       <c r="J32" s="3">
         <v>-400</v>
@@ -2338,25 +2338,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-63000</v>
+        <v>-86700</v>
       </c>
       <c r="E33" s="3">
-        <v>157500</v>
+        <v>8700</v>
       </c>
       <c r="F33" s="3">
-        <v>87500</v>
+        <v>147200</v>
       </c>
       <c r="G33" s="3">
-        <v>63400</v>
+        <v>62800</v>
       </c>
       <c r="H33" s="3">
-        <v>184800</v>
+        <v>182900</v>
       </c>
       <c r="I33" s="3">
-        <v>73600</v>
+        <v>72800</v>
       </c>
       <c r="J33" s="3">
-        <v>24100</v>
+        <v>23900</v>
       </c>
       <c r="K33" s="3">
         <v>200</v>
@@ -2474,25 +2474,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-63000</v>
+        <v>-86700</v>
       </c>
       <c r="E35" s="3">
-        <v>157500</v>
+        <v>8700</v>
       </c>
       <c r="F35" s="3">
-        <v>87500</v>
+        <v>147200</v>
       </c>
       <c r="G35" s="3">
-        <v>63400</v>
+        <v>62800</v>
       </c>
       <c r="H35" s="3">
-        <v>184800</v>
+        <v>182900</v>
       </c>
       <c r="I35" s="3">
-        <v>73600</v>
+        <v>72800</v>
       </c>
       <c r="J35" s="3">
-        <v>24100</v>
+        <v>23900</v>
       </c>
       <c r="K35" s="3">
         <v>200</v>
@@ -2667,25 +2667,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>101600</v>
+        <v>100500</v>
       </c>
       <c r="E41" s="3">
-        <v>287600</v>
+        <v>284700</v>
       </c>
       <c r="F41" s="3">
-        <v>379300</v>
+        <v>375400</v>
       </c>
       <c r="G41" s="3">
-        <v>379600</v>
+        <v>375700</v>
       </c>
       <c r="H41" s="3">
-        <v>385500</v>
+        <v>381600</v>
       </c>
       <c r="I41" s="3">
-        <v>243900</v>
+        <v>241400</v>
       </c>
       <c r="J41" s="3">
-        <v>175300</v>
+        <v>173500</v>
       </c>
       <c r="K41" s="3">
         <v>186200</v>
@@ -2802,11 +2802,11 @@
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>16</v>
+      <c r="D43" s="3">
+        <v>71700</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>50900</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -2815,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="H43" s="3">
-        <v>39500</v>
+        <v>39100</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
@@ -2871,25 +2871,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>217200</v>
+        <v>209500</v>
       </c>
       <c r="E44" s="3">
-        <v>190900</v>
+        <v>188900</v>
       </c>
       <c r="F44" s="3">
-        <v>233600</v>
+        <v>231200</v>
       </c>
       <c r="G44" s="3">
-        <v>171400</v>
+        <v>169600</v>
       </c>
       <c r="H44" s="3">
-        <v>116700</v>
+        <v>115500</v>
       </c>
       <c r="I44" s="3">
-        <v>119700</v>
+        <v>118400</v>
       </c>
       <c r="J44" s="3">
-        <v>84300</v>
+        <v>83500</v>
       </c>
       <c r="K44" s="3">
         <v>52400</v>
@@ -2939,25 +2939,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>255000</v>
+        <v>168400</v>
       </c>
       <c r="E45" s="3">
-        <v>243200</v>
+        <v>189800</v>
       </c>
       <c r="F45" s="3">
-        <v>204000</v>
+        <v>201900</v>
       </c>
       <c r="G45" s="3">
-        <v>278300</v>
+        <v>275400</v>
       </c>
       <c r="H45" s="3">
-        <v>215700</v>
+        <v>213500</v>
       </c>
       <c r="I45" s="3">
-        <v>188100</v>
+        <v>186200</v>
       </c>
       <c r="J45" s="3">
-        <v>203900</v>
+        <v>201800</v>
       </c>
       <c r="K45" s="3">
         <v>82800</v>
@@ -3007,25 +3007,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>573700</v>
+        <v>550200</v>
       </c>
       <c r="E46" s="3">
-        <v>721600</v>
+        <v>714300</v>
       </c>
       <c r="F46" s="3">
-        <v>816800</v>
+        <v>808400</v>
       </c>
       <c r="G46" s="3">
-        <v>829300</v>
+        <v>820800</v>
       </c>
       <c r="H46" s="3">
-        <v>757400</v>
+        <v>749600</v>
       </c>
       <c r="I46" s="3">
-        <v>551800</v>
+        <v>546200</v>
       </c>
       <c r="J46" s="3">
-        <v>463500</v>
+        <v>458800</v>
       </c>
       <c r="K46" s="3">
         <v>323500</v>
@@ -3075,22 +3075,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="E47" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="F47" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="G47" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="H47" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="I47" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
@@ -3143,25 +3143,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>90100</v>
+        <v>89200</v>
       </c>
       <c r="E48" s="3">
-        <v>46800</v>
+        <v>50500</v>
       </c>
       <c r="F48" s="3">
-        <v>51300</v>
+        <v>50800</v>
       </c>
       <c r="G48" s="3">
-        <v>48900</v>
+        <v>48400</v>
       </c>
       <c r="H48" s="3">
-        <v>31100</v>
+        <v>30800</v>
       </c>
       <c r="I48" s="3">
-        <v>8200</v>
+        <v>8100</v>
       </c>
       <c r="J48" s="3">
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="K48" s="3">
         <v>4800</v>
@@ -3211,16 +3211,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>12500</v>
+        <v>12400</v>
       </c>
       <c r="E49" s="3">
-        <v>10600</v>
+        <v>10500</v>
       </c>
       <c r="F49" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="G49" s="3">
-        <v>6500</v>
+        <v>6400</v>
       </c>
       <c r="H49" s="3">
         <v>2900</v>
@@ -3415,19 +3415,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>20200</v>
+        <v>24000</v>
       </c>
       <c r="E52" s="3">
-        <v>15400</v>
+        <v>15200</v>
       </c>
       <c r="F52" s="3">
-        <v>11300</v>
+        <v>11200</v>
       </c>
       <c r="G52" s="3">
-        <v>10100</v>
+        <v>10000</v>
       </c>
       <c r="H52" s="3">
-        <v>14600</v>
+        <v>14500</v>
       </c>
       <c r="I52" s="3">
         <v>400</v>
@@ -3551,25 +3551,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>699400</v>
+        <v>678600</v>
       </c>
       <c r="E54" s="3">
-        <v>797300</v>
+        <v>793400</v>
       </c>
       <c r="F54" s="3">
-        <v>889700</v>
+        <v>880600</v>
       </c>
       <c r="G54" s="3">
-        <v>897700</v>
+        <v>888500</v>
       </c>
       <c r="H54" s="3">
-        <v>808900</v>
+        <v>800600</v>
       </c>
       <c r="I54" s="3">
-        <v>564200</v>
+        <v>558400</v>
       </c>
       <c r="J54" s="3">
-        <v>470700</v>
+        <v>465900</v>
       </c>
       <c r="K54" s="3">
         <v>328700</v>
@@ -3671,25 +3671,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>16700</v>
+        <v>16500</v>
       </c>
       <c r="E57" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="F57" s="3">
-        <v>13900</v>
+        <v>13800</v>
       </c>
       <c r="G57" s="3">
-        <v>14500</v>
+        <v>14400</v>
       </c>
       <c r="H57" s="3">
-        <v>20600</v>
+        <v>20400</v>
       </c>
       <c r="I57" s="3">
-        <v>17300</v>
+        <v>17100</v>
       </c>
       <c r="J57" s="3">
-        <v>15500</v>
+        <v>15300</v>
       </c>
       <c r="K57" s="3">
         <v>6300</v>
@@ -3807,25 +3807,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>47700</v>
+        <v>58000</v>
       </c>
       <c r="E59" s="3">
-        <v>88200</v>
+        <v>93600</v>
       </c>
       <c r="F59" s="3">
-        <v>198100</v>
+        <v>196000</v>
       </c>
       <c r="G59" s="3">
-        <v>300700</v>
+        <v>297600</v>
       </c>
       <c r="H59" s="3">
-        <v>278900</v>
+        <v>276000</v>
       </c>
       <c r="I59" s="3">
-        <v>190500</v>
+        <v>188600</v>
       </c>
       <c r="J59" s="3">
-        <v>177900</v>
+        <v>176100</v>
       </c>
       <c r="K59" s="3">
         <v>236300</v>
@@ -3875,25 +3875,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>64400</v>
+        <v>74500</v>
       </c>
       <c r="E60" s="3">
-        <v>92800</v>
+        <v>98300</v>
       </c>
       <c r="F60" s="3">
-        <v>212000</v>
+        <v>209800</v>
       </c>
       <c r="G60" s="3">
-        <v>315200</v>
+        <v>312000</v>
       </c>
       <c r="H60" s="3">
-        <v>299500</v>
+        <v>296400</v>
       </c>
       <c r="I60" s="3">
-        <v>207800</v>
+        <v>205700</v>
       </c>
       <c r="J60" s="3">
-        <v>193400</v>
+        <v>191400</v>
       </c>
       <c r="K60" s="3">
         <v>247100</v>
@@ -4020,16 +4020,16 @@
         <v>2400</v>
       </c>
       <c r="G62" s="3">
-        <v>12200</v>
+        <v>12100</v>
       </c>
       <c r="H62" s="3">
-        <v>12700</v>
+        <v>12600</v>
       </c>
       <c r="I62" s="3">
         <v>2700</v>
       </c>
       <c r="J62" s="3">
-        <v>10600</v>
+        <v>10500</v>
       </c>
       <c r="K62" s="3">
         <v>1200</v>
@@ -4283,25 +4283,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>66400</v>
+        <v>76500</v>
       </c>
       <c r="E66" s="3">
-        <v>95500</v>
+        <v>100900</v>
       </c>
       <c r="F66" s="3">
-        <v>214400</v>
+        <v>212200</v>
       </c>
       <c r="G66" s="3">
-        <v>327400</v>
+        <v>324100</v>
       </c>
       <c r="H66" s="3">
-        <v>312200</v>
+        <v>309000</v>
       </c>
       <c r="I66" s="3">
-        <v>210500</v>
+        <v>208300</v>
       </c>
       <c r="J66" s="3">
-        <v>204000</v>
+        <v>201900</v>
       </c>
       <c r="K66" s="3">
         <v>248300</v>
@@ -4649,25 +4649,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>214600</v>
+        <v>188000</v>
       </c>
       <c r="E72" s="3">
-        <v>279700</v>
+        <v>274700</v>
       </c>
       <c r="F72" s="3">
-        <v>271000</v>
+        <v>268200</v>
       </c>
       <c r="G72" s="3">
-        <v>183500</v>
+        <v>181600</v>
       </c>
       <c r="H72" s="3">
-        <v>129400</v>
+        <v>128000</v>
       </c>
       <c r="I72" s="3">
-        <v>-66400</v>
+        <v>-65800</v>
       </c>
       <c r="J72" s="3">
-        <v>-122400</v>
+        <v>-121100</v>
       </c>
       <c r="K72" s="3">
         <v>-152700</v>
@@ -4921,25 +4921,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>633000</v>
+        <v>602100</v>
       </c>
       <c r="E76" s="3">
-        <v>701800</v>
+        <v>692500</v>
       </c>
       <c r="F76" s="3">
-        <v>675300</v>
+        <v>668400</v>
       </c>
       <c r="G76" s="3">
-        <v>570300</v>
+        <v>564400</v>
       </c>
       <c r="H76" s="3">
-        <v>496700</v>
+        <v>491700</v>
       </c>
       <c r="I76" s="3">
-        <v>353700</v>
+        <v>350100</v>
       </c>
       <c r="J76" s="3">
-        <v>266700</v>
+        <v>264000</v>
       </c>
       <c r="K76" s="3">
         <v>80500</v>
@@ -5130,25 +5130,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-63000</v>
+        <v>-86700</v>
       </c>
       <c r="E81" s="3">
-        <v>157500</v>
+        <v>8700</v>
       </c>
       <c r="F81" s="3">
-        <v>87500</v>
+        <v>147200</v>
       </c>
       <c r="G81" s="3">
-        <v>63400</v>
+        <v>62800</v>
       </c>
       <c r="H81" s="3">
-        <v>184800</v>
+        <v>182900</v>
       </c>
       <c r="I81" s="3">
-        <v>73600</v>
+        <v>72800</v>
       </c>
       <c r="J81" s="3">
-        <v>24100</v>
+        <v>23900</v>
       </c>
       <c r="K81" s="3">
         <v>200</v>
@@ -5631,26 +5631,26 @@
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>0</v>
+      <c r="D89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
+        <v>-82800</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -5929,26 +5929,26 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+        <v>-5700</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -6295,26 +6295,26 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+        <v>-44900</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -6363,26 +6363,26 @@
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
+      <c r="D101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+        <v>29700</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -6431,26 +6431,26 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>0</v>
+      <c r="D102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
+        <v>-103600</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>

--- a/AAII_Financials/Quarterly/CAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="92">
   <si>
     <t>CAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,334 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>55700</v>
+        <v>73900</v>
       </c>
       <c r="E8" s="3">
-        <v>139100</v>
+        <v>55200</v>
       </c>
       <c r="F8" s="3">
-        <v>427700</v>
+        <v>391900</v>
       </c>
       <c r="G8" s="3">
-        <v>192800</v>
+        <v>978200</v>
       </c>
       <c r="H8" s="3">
-        <v>310500</v>
+        <v>3008800</v>
       </c>
       <c r="I8" s="3">
+        <v>201800</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2184600</v>
+      </c>
+      <c r="K8" s="3">
         <v>187300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>153800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>56100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>5300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>24000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>26200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>10700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>71300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>103300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>37700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>7200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>40300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>69800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>126000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>153300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>76600</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>117000</v>
+        <v>143900</v>
       </c>
       <c r="E9" s="3">
-        <v>105800</v>
+        <v>102800</v>
       </c>
       <c r="F9" s="3">
-        <v>179700</v>
+        <v>823000</v>
       </c>
       <c r="G9" s="3">
-        <v>74800</v>
+        <v>744000</v>
       </c>
       <c r="H9" s="3">
-        <v>99100</v>
+        <v>1264100</v>
       </c>
       <c r="I9" s="3">
+        <v>78300</v>
+      </c>
+      <c r="J9" s="3">
+        <v>696800</v>
+      </c>
+      <c r="K9" s="3">
         <v>81900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>92900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>29000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>4100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>26500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>19900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>10300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>175000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>80700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>36000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>7100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>38600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>62700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>174600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>40600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>41600</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-61300</v>
+        <v>-70000</v>
       </c>
       <c r="E10" s="3">
-        <v>33300</v>
+        <v>-47600</v>
       </c>
       <c r="F10" s="3">
-        <v>248000</v>
+        <v>-431100</v>
       </c>
       <c r="G10" s="3">
-        <v>118000</v>
+        <v>234200</v>
       </c>
       <c r="H10" s="3">
-        <v>211500</v>
+        <v>1744700</v>
       </c>
       <c r="I10" s="3">
+        <v>123500</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1487800</v>
+      </c>
+      <c r="K10" s="3">
         <v>105400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>60800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>27000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>-2500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>6400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>-103700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>22500</v>
-      </c>
-      <c r="R10" s="3">
-        <v>1700</v>
-      </c>
-      <c r="S10" s="3">
-        <v>100</v>
       </c>
       <c r="T10" s="3">
         <v>1700</v>
       </c>
       <c r="U10" s="3">
+        <v>100</v>
+      </c>
+      <c r="V10" s="3">
+        <v>1700</v>
+      </c>
+      <c r="W10" s="3">
         <v>7100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>-48500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>112800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,76 +1017,84 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>31800</v>
+        <v>17900</v>
       </c>
       <c r="E12" s="3">
-        <v>16800</v>
+        <v>19100</v>
       </c>
       <c r="F12" s="3">
-        <v>29200</v>
+        <v>223500</v>
       </c>
       <c r="G12" s="3">
-        <v>14400</v>
+        <v>118100</v>
       </c>
       <c r="H12" s="3">
-        <v>16800</v>
+        <v>205100</v>
       </c>
       <c r="I12" s="3">
+        <v>15200</v>
+      </c>
+      <c r="J12" s="3">
+        <v>117900</v>
+      </c>
+      <c r="K12" s="3">
         <v>13200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>9900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>8100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>5600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>4700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>3800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>6500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>9600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>5700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>5600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>4800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>7400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>9800</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>5500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>4700</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,43 +1161,49 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="E14" s="3">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>4300</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>16</v>
+        <v>11300</v>
+      </c>
+      <c r="G14" s="3">
+        <v>11300</v>
+      </c>
+      <c r="H14" s="3">
+        <v>30400</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>16</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1195,31 +1235,37 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>16</v>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>16</v>
@@ -1236,35 +1282,41 @@
       <c r="O15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R15" s="3">
         <v>500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>400</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T15" s="3" t="s">
         <v>16</v>
       </c>
       <c r="U15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
-      </c>
-      <c r="W15" s="3">
-        <v>0</v>
+      <c r="V15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1338,158 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>174500</v>
+        <v>193000</v>
       </c>
       <c r="E17" s="3">
-        <v>146500</v>
+        <v>140900</v>
       </c>
       <c r="F17" s="3">
-        <v>258200</v>
+        <v>1227700</v>
       </c>
       <c r="G17" s="3">
-        <v>110600</v>
+        <v>1030300</v>
       </c>
       <c r="H17" s="3">
-        <v>138100</v>
+        <v>1816100</v>
       </c>
       <c r="I17" s="3">
+        <v>116300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>971300</v>
+      </c>
+      <c r="K17" s="3">
         <v>121400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>130200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>58000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>15200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>37700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>29000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>21800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>194700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>91900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>79600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>16100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>51200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>79700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>188800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>51000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>58400</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-118800</v>
+        <v>-119100</v>
       </c>
       <c r="E18" s="3">
-        <v>-7400</v>
+        <v>-85700</v>
       </c>
       <c r="F18" s="3">
-        <v>169500</v>
+        <v>-835800</v>
       </c>
       <c r="G18" s="3">
-        <v>82200</v>
+        <v>-52100</v>
       </c>
       <c r="H18" s="3">
-        <v>172500</v>
+        <v>1192700</v>
       </c>
       <c r="I18" s="3">
+        <v>85500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1213300</v>
+      </c>
+      <c r="K18" s="3">
         <v>65900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>23500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-9900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-13700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-2800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-11100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-123400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>11300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-42000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-8900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-10800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-9900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-62800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>102400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1448,76 +1514,84 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>6900</v>
+        <v>2900</v>
       </c>
       <c r="E20" s="3">
-        <v>15700</v>
+        <v>-1000</v>
       </c>
       <c r="F20" s="3">
-        <v>20900</v>
+        <v>48300</v>
       </c>
       <c r="G20" s="3">
+        <v>110200</v>
+      </c>
+      <c r="H20" s="3">
+        <v>147200</v>
+      </c>
+      <c r="I20" s="3">
         <v>600</v>
       </c>
-      <c r="H20" s="3">
-        <v>17500</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>123400</v>
+      </c>
+      <c r="K20" s="3">
         <v>7000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>2100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>1100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>5100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>3600</v>
-      </c>
-      <c r="R20" s="3">
-        <v>1500</v>
-      </c>
-      <c r="S20" s="3">
-        <v>500</v>
       </c>
       <c r="T20" s="3">
         <v>1500</v>
       </c>
       <c r="U20" s="3">
+        <v>500</v>
+      </c>
+      <c r="V20" s="3">
+        <v>1500</v>
+      </c>
+      <c r="W20" s="3">
         <v>1800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>9800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>4300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1560,37 +1634,43 @@
       <c r="P21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S21" s="3">
         <v>16500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-39400</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W21" s="3">
         <v>-7000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-52400</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X21" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>16</v>
@@ -1598,17 +1678,17 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>16</v>
+      <c r="G22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="J22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1617,134 +1697,146 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>100</v>
-      </c>
-      <c r="N22" s="3">
-        <v>200</v>
-      </c>
-      <c r="O22" s="3">
-        <v>200</v>
       </c>
       <c r="P22" s="3">
         <v>200</v>
       </c>
       <c r="Q22" s="3">
+        <v>200</v>
+      </c>
+      <c r="R22" s="3">
+        <v>200</v>
+      </c>
+      <c r="S22" s="3">
         <v>300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>2000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>2700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>2400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>2400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>100</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-111900</v>
+        <v>-116100</v>
       </c>
       <c r="E23" s="3">
-        <v>8200</v>
+        <v>-86700</v>
       </c>
       <c r="F23" s="3">
-        <v>190500</v>
+        <v>-787500</v>
       </c>
       <c r="G23" s="3">
-        <v>82800</v>
+        <v>58000</v>
       </c>
       <c r="H23" s="3">
-        <v>190000</v>
+        <v>1339800</v>
       </c>
       <c r="I23" s="3">
+        <v>86000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1336600</v>
+      </c>
+      <c r="K23" s="3">
         <v>72800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>24000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-10000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-12700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-2500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-6300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-122900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>14600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-41000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-10400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-12100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-10600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-55400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>106600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-25200</v>
+        <v>-5500</v>
       </c>
       <c r="E24" s="3">
-        <v>-400</v>
+        <v>-2300</v>
       </c>
       <c r="F24" s="3">
-        <v>43300</v>
+        <v>-177300</v>
       </c>
       <c r="G24" s="3">
-        <v>20000</v>
+        <v>-3000</v>
       </c>
       <c r="H24" s="3">
-        <v>7100</v>
+        <v>304400</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>20900</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>49800</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1774,22 +1866,28 @@
         <v>0</v>
       </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>-8100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>-900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>6700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>13300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1954,162 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-86700</v>
+        <v>-110700</v>
       </c>
       <c r="E26" s="3">
-        <v>8700</v>
+        <v>-84400</v>
       </c>
       <c r="F26" s="3">
-        <v>147200</v>
+        <v>-610200</v>
       </c>
       <c r="G26" s="3">
-        <v>62800</v>
+        <v>61100</v>
       </c>
       <c r="H26" s="3">
-        <v>182900</v>
+        <v>1035500</v>
       </c>
       <c r="I26" s="3">
+        <v>65100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1286900</v>
+      </c>
+      <c r="K26" s="3">
         <v>72800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>23900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-10000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-12700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-2500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-6300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-122900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>14600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-41000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-10400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-4000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-9700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-62200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>93300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-86700</v>
+        <v>-110700</v>
       </c>
       <c r="E27" s="3">
-        <v>8700</v>
+        <v>-84400</v>
       </c>
       <c r="F27" s="3">
-        <v>147200</v>
+        <v>-610200</v>
       </c>
       <c r="G27" s="3">
-        <v>62800</v>
+        <v>61100</v>
       </c>
       <c r="H27" s="3">
-        <v>182900</v>
+        <v>1035500</v>
       </c>
       <c r="I27" s="3">
+        <v>65100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1286900</v>
+      </c>
+      <c r="K27" s="3">
         <v>72800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>23900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-10000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-12700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-2500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-6300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-122900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>14600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-41000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-10400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-4000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-9700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-62200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>93300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2176,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2250,14 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2324,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2398,162 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-6900</v>
+        <v>-2900</v>
       </c>
       <c r="E32" s="3">
-        <v>-15700</v>
+        <v>1000</v>
       </c>
       <c r="F32" s="3">
-        <v>-20900</v>
+        <v>-48300</v>
       </c>
       <c r="G32" s="3">
+        <v>-110200</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-147200</v>
+      </c>
+      <c r="I32" s="3">
         <v>-600</v>
       </c>
-      <c r="H32" s="3">
-        <v>-17500</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>-123400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-7000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-2100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-1100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-5100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-3600</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-500</v>
       </c>
       <c r="T32" s="3">
         <v>-1500</v>
       </c>
       <c r="U32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V32" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="W32" s="3">
         <v>-1800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-9800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-4300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-86700</v>
+        <v>-110700</v>
       </c>
       <c r="E33" s="3">
-        <v>8700</v>
+        <v>-84400</v>
       </c>
       <c r="F33" s="3">
-        <v>147200</v>
+        <v>-610200</v>
       </c>
       <c r="G33" s="3">
-        <v>62800</v>
+        <v>61100</v>
       </c>
       <c r="H33" s="3">
-        <v>182900</v>
+        <v>1035500</v>
       </c>
       <c r="I33" s="3">
+        <v>65100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1286900</v>
+      </c>
+      <c r="K33" s="3">
         <v>72800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>23900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-10000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-12700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-2500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-6300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-122900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>14600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-41000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-10400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-4000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-9700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-62200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>93300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2620,167 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-86700</v>
+        <v>-110700</v>
       </c>
       <c r="E35" s="3">
-        <v>8700</v>
+        <v>-84400</v>
       </c>
       <c r="F35" s="3">
-        <v>147200</v>
+        <v>-610200</v>
       </c>
       <c r="G35" s="3">
-        <v>62800</v>
+        <v>61100</v>
       </c>
       <c r="H35" s="3">
-        <v>182900</v>
+        <v>1035500</v>
       </c>
       <c r="I35" s="3">
+        <v>65100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1286900</v>
+      </c>
+      <c r="K35" s="3">
         <v>72800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>23900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-10000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-12700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-2500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-6300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-122900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>14600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-41000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-10400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-4000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-9700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-62200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>93300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2805,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,62 +2833,64 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100500</v>
+        <v>66100</v>
       </c>
       <c r="E41" s="3">
-        <v>284700</v>
+        <v>72000</v>
       </c>
       <c r="F41" s="3">
-        <v>375400</v>
+        <v>101600</v>
       </c>
       <c r="G41" s="3">
-        <v>375700</v>
+        <v>2002700</v>
       </c>
       <c r="H41" s="3">
-        <v>381600</v>
+        <v>2640700</v>
       </c>
       <c r="I41" s="3">
+        <v>2643200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>2684300</v>
+      </c>
+      <c r="K41" s="3">
         <v>241400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>173500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>186200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>54500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>26100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>23100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>41400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>80400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>51200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>42200</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2729,22 +2903,28 @@
       <c r="X41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>16</v>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -2756,35 +2936,35 @@
         <v>0</v>
       </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>1200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>8700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>30100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>51200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>27100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>1700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>12500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>17200</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2797,62 +2977,68 @@
       <c r="X42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>71700</v>
-      </c>
-      <c r="E43" s="3">
-        <v>50900</v>
+        <v>10100</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>504300</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>357900</v>
       </c>
       <c r="H43" s="3">
-        <v>39100</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>275000</v>
+      </c>
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>14000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>24800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>23700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>26400</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2865,62 +3051,68 @@
       <c r="X43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>209500</v>
+        <v>272100</v>
       </c>
       <c r="E44" s="3">
-        <v>188900</v>
+        <v>310500</v>
       </c>
       <c r="F44" s="3">
-        <v>231200</v>
+        <v>1685600</v>
       </c>
       <c r="G44" s="3">
-        <v>169600</v>
+        <v>1328900</v>
       </c>
       <c r="H44" s="3">
-        <v>115500</v>
+        <v>1626200</v>
       </c>
       <c r="I44" s="3">
+        <v>1193300</v>
+      </c>
+      <c r="J44" s="3">
+        <v>812400</v>
+      </c>
+      <c r="K44" s="3">
         <v>118400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>83500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>52400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>31400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>7900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>13000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>35500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>30200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>60400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>65500</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U44" s="3" t="s">
         <v>16</v>
       </c>
@@ -2933,62 +3125,68 @@
       <c r="X44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>168400</v>
+        <v>83400</v>
       </c>
       <c r="E45" s="3">
-        <v>189800</v>
+        <v>138300</v>
       </c>
       <c r="F45" s="3">
-        <v>201900</v>
+        <v>1427300</v>
       </c>
       <c r="G45" s="3">
-        <v>275400</v>
+        <v>1335300</v>
       </c>
       <c r="H45" s="3">
-        <v>213500</v>
+        <v>1420300</v>
       </c>
       <c r="I45" s="3">
+        <v>1937600</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1501800</v>
+      </c>
+      <c r="K45" s="3">
         <v>186200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>201800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>82800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>31700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>37000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>26600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>40800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>7700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>74700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>64800</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U45" s="3" t="s">
         <v>16</v>
       </c>
@@ -3001,62 +3199,68 @@
       <c r="X45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>550200</v>
+        <v>431800</v>
       </c>
       <c r="E46" s="3">
-        <v>714300</v>
+        <v>520800</v>
       </c>
       <c r="F46" s="3">
-        <v>808400</v>
+        <v>555700</v>
       </c>
       <c r="G46" s="3">
-        <v>820800</v>
+        <v>5024700</v>
       </c>
       <c r="H46" s="3">
-        <v>749600</v>
+        <v>5687200</v>
       </c>
       <c r="I46" s="3">
+        <v>5774100</v>
+      </c>
+      <c r="J46" s="3">
+        <v>5273500</v>
+      </c>
+      <c r="K46" s="3">
         <v>546200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>458800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>323500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>140200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>101100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>115400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>145900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>144900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>222500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>216100</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U46" s="3" t="s">
         <v>16</v>
       </c>
@@ -3069,8 +3273,14 @@
       <c r="X46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3078,38 +3288,38 @@
         <v>2800</v>
       </c>
       <c r="E47" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F47" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G47" s="3">
+        <v>20000</v>
+      </c>
+      <c r="H47" s="3">
+        <v>20000</v>
+      </c>
+      <c r="I47" s="3">
+        <v>20000</v>
+      </c>
+      <c r="J47" s="3">
+        <v>20000</v>
+      </c>
+      <c r="K47" s="3">
         <v>2800</v>
       </c>
-      <c r="F47" s="3">
-        <v>2800</v>
-      </c>
-      <c r="G47" s="3">
-        <v>2800</v>
-      </c>
-      <c r="H47" s="3">
-        <v>2800</v>
-      </c>
-      <c r="I47" s="3">
-        <v>2800</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
-      </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
       <c r="L47" s="3">
         <v>0</v>
       </c>
       <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
         <v>400</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>16</v>
       </c>
@@ -3122,11 +3332,11 @@
       <c r="S47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T47" s="3">
-        <v>0</v>
-      </c>
-      <c r="U47" s="3">
-        <v>0</v>
+      <c r="T47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U47" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="V47" s="3">
         <v>0</v>
@@ -3137,62 +3347,68 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>89200</v>
+        <v>53400</v>
       </c>
       <c r="E48" s="3">
-        <v>50500</v>
+        <v>72400</v>
       </c>
       <c r="F48" s="3">
-        <v>50800</v>
+        <v>717200</v>
       </c>
       <c r="G48" s="3">
-        <v>48400</v>
+        <v>355400</v>
       </c>
       <c r="H48" s="3">
-        <v>30800</v>
+        <v>357200</v>
       </c>
       <c r="I48" s="3">
+        <v>340600</v>
+      </c>
+      <c r="J48" s="3">
+        <v>216500</v>
+      </c>
+      <c r="K48" s="3">
         <v>8100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>6600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>4800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>3700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>4900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>18200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>6300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>7000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>21200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>8200</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>16</v>
       </c>
@@ -3205,43 +3421,49 @@
       <c r="X48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>12400</v>
+        <v>28800</v>
       </c>
       <c r="E49" s="3">
-        <v>10500</v>
+        <v>13400</v>
       </c>
       <c r="F49" s="3">
-        <v>7300</v>
+        <v>12500</v>
       </c>
       <c r="G49" s="3">
-        <v>6400</v>
+        <v>74100</v>
       </c>
       <c r="H49" s="3">
-        <v>2900</v>
+        <v>51300</v>
       </c>
       <c r="I49" s="3">
+        <v>45300</v>
+      </c>
+      <c r="J49" s="3">
+        <v>20300</v>
+      </c>
+      <c r="K49" s="3">
         <v>900</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
-      </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -3273,8 +3495,14 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3569,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,62 +3643,68 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>24000</v>
+        <v>21700</v>
       </c>
       <c r="E52" s="3">
-        <v>15200</v>
+        <v>24200</v>
       </c>
       <c r="F52" s="3">
-        <v>11200</v>
+        <v>24200</v>
       </c>
       <c r="G52" s="3">
-        <v>10000</v>
+        <v>107300</v>
       </c>
       <c r="H52" s="3">
-        <v>14500</v>
+        <v>78900</v>
       </c>
       <c r="I52" s="3">
-        <v>400</v>
+        <v>70600</v>
       </c>
       <c r="J52" s="3">
-        <v>500</v>
+        <v>102000</v>
       </c>
       <c r="K52" s="3">
         <v>400</v>
       </c>
       <c r="L52" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M52" s="3">
         <v>400</v>
       </c>
       <c r="N52" s="3">
+        <v>400</v>
+      </c>
+      <c r="O52" s="3">
+        <v>400</v>
+      </c>
+      <c r="P52" s="3">
         <v>300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>2000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>1000</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>16</v>
       </c>
@@ -3477,8 +3717,14 @@
       <c r="X52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,62 +3791,68 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>678600</v>
+        <v>538400</v>
       </c>
       <c r="E54" s="3">
-        <v>793400</v>
+        <v>633700</v>
       </c>
       <c r="F54" s="3">
-        <v>880600</v>
+        <v>685000</v>
       </c>
       <c r="G54" s="3">
-        <v>888500</v>
+        <v>5581400</v>
       </c>
       <c r="H54" s="3">
-        <v>800600</v>
+        <v>6194700</v>
       </c>
       <c r="I54" s="3">
+        <v>6250500</v>
+      </c>
+      <c r="J54" s="3">
+        <v>5632300</v>
+      </c>
+      <c r="K54" s="3">
         <v>558400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>465900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>328700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>144300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>106800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>133900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>152500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>152700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>245800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>225300</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>16</v>
       </c>
@@ -3613,8 +3865,14 @@
       <c r="X54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3897,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,62 +3925,64 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>16500</v>
+        <v>27300</v>
       </c>
       <c r="E57" s="3">
-        <v>4600</v>
+        <v>26900</v>
       </c>
       <c r="F57" s="3">
-        <v>13800</v>
+        <v>16700</v>
       </c>
       <c r="G57" s="3">
-        <v>14400</v>
+        <v>32700</v>
       </c>
       <c r="H57" s="3">
-        <v>20400</v>
+        <v>97000</v>
       </c>
       <c r="I57" s="3">
+        <v>101200</v>
+      </c>
+      <c r="J57" s="3">
+        <v>143400</v>
+      </c>
+      <c r="K57" s="3">
         <v>17100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>15300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>6300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>5200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>2400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>10300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>15300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>11500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>9700</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U57" s="3" t="s">
         <v>16</v>
       </c>
@@ -3733,22 +3995,28 @@
       <c r="X57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>16</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -3760,35 +4028,35 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>4500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>6800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>7200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>28900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>29700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>19600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>38300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>30800</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U58" s="3" t="s">
         <v>16</v>
       </c>
@@ -3801,62 +4069,68 @@
       <c r="X58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>58000</v>
+        <v>82800</v>
       </c>
       <c r="E59" s="3">
-        <v>93600</v>
+        <v>56000</v>
       </c>
       <c r="F59" s="3">
-        <v>196000</v>
+        <v>395300</v>
       </c>
       <c r="G59" s="3">
-        <v>297600</v>
+        <v>658600</v>
       </c>
       <c r="H59" s="3">
-        <v>276000</v>
+        <v>1379100</v>
       </c>
       <c r="I59" s="3">
+        <v>2093600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1941700</v>
+      </c>
+      <c r="K59" s="3">
         <v>188600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>176100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>236300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>70500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>15800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>5100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>5700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>9100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>53200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>54400</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3869,62 +4143,68 @@
       <c r="X59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>74500</v>
+        <v>110100</v>
       </c>
       <c r="E60" s="3">
-        <v>98300</v>
+        <v>83000</v>
       </c>
       <c r="F60" s="3">
-        <v>209800</v>
+        <v>75300</v>
       </c>
       <c r="G60" s="3">
-        <v>312000</v>
+        <v>691300</v>
       </c>
       <c r="H60" s="3">
-        <v>296400</v>
+        <v>1476100</v>
       </c>
       <c r="I60" s="3">
+        <v>2194800</v>
+      </c>
+      <c r="J60" s="3">
+        <v>2085100</v>
+      </c>
+      <c r="K60" s="3">
         <v>205700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>191400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>247100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>82500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>24500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>36300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>45700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>43900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>103000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>94900</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3937,8 +4217,14 @@
       <c r="X60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,62 +4291,68 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F62" s="3">
         <v>2000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
+        <v>18700</v>
+      </c>
+      <c r="H62" s="3">
+        <v>16900</v>
+      </c>
+      <c r="I62" s="3">
+        <v>85100</v>
+      </c>
+      <c r="J62" s="3">
+        <v>88500</v>
+      </c>
+      <c r="K62" s="3">
         <v>2700</v>
       </c>
-      <c r="F62" s="3">
-        <v>2400</v>
-      </c>
-      <c r="G62" s="3">
-        <v>12100</v>
-      </c>
-      <c r="H62" s="3">
-        <v>12600</v>
-      </c>
-      <c r="I62" s="3">
+      <c r="L62" s="3">
+        <v>10500</v>
+      </c>
+      <c r="M62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O62" s="3">
+        <v>2200</v>
+      </c>
+      <c r="P62" s="3">
+        <v>2600</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>3300</v>
+      </c>
+      <c r="R62" s="3">
+        <v>2100</v>
+      </c>
+      <c r="S62" s="3">
         <v>2700</v>
       </c>
-      <c r="J62" s="3">
-        <v>10500</v>
-      </c>
-      <c r="K62" s="3">
-        <v>1200</v>
-      </c>
-      <c r="L62" s="3">
-        <v>1600</v>
-      </c>
-      <c r="M62" s="3">
-        <v>2200</v>
-      </c>
-      <c r="N62" s="3">
-        <v>2600</v>
-      </c>
-      <c r="O62" s="3">
-        <v>3300</v>
-      </c>
-      <c r="P62" s="3">
-        <v>2100</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>2700</v>
-      </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>2900</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U62" s="3" t="s">
         <v>16</v>
       </c>
@@ -4073,8 +4365,14 @@
       <c r="X62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4439,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4513,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,62 +4587,68 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>76500</v>
+        <v>112300</v>
       </c>
       <c r="E66" s="3">
-        <v>100900</v>
+        <v>85600</v>
       </c>
       <c r="F66" s="3">
-        <v>212200</v>
+        <v>77300</v>
       </c>
       <c r="G66" s="3">
-        <v>324100</v>
+        <v>710000</v>
       </c>
       <c r="H66" s="3">
-        <v>309000</v>
+        <v>1492900</v>
       </c>
       <c r="I66" s="3">
+        <v>2280000</v>
+      </c>
+      <c r="J66" s="3">
+        <v>2173600</v>
+      </c>
+      <c r="K66" s="3">
         <v>208300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>201900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>248300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>84100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>26700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>38900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>49000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>46000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>105700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>97800</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>16</v>
       </c>
@@ -4345,8 +4661,14 @@
       <c r="X66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4693,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4763,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4837,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4911,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,62 +4985,68 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>188000</v>
+        <v>14400</v>
       </c>
       <c r="E72" s="3">
-        <v>274700</v>
+        <v>125100</v>
       </c>
       <c r="F72" s="3">
-        <v>268200</v>
+        <v>209400</v>
       </c>
       <c r="G72" s="3">
-        <v>181600</v>
+        <v>1932800</v>
       </c>
       <c r="H72" s="3">
-        <v>128000</v>
+        <v>1886700</v>
       </c>
       <c r="I72" s="3">
+        <v>1277800</v>
+      </c>
+      <c r="J72" s="3">
+        <v>900800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-65800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-121100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-152700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-152900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-151300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-138500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-144500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-136000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-13100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-28000</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>16</v>
       </c>
@@ -4711,8 +5059,14 @@
       <c r="X72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5133,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5207,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,62 +5281,68 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>602100</v>
+        <v>426100</v>
       </c>
       <c r="E76" s="3">
-        <v>692500</v>
+        <v>548100</v>
       </c>
       <c r="F76" s="3">
-        <v>668400</v>
+        <v>607700</v>
       </c>
       <c r="G76" s="3">
-        <v>564400</v>
+        <v>4871400</v>
       </c>
       <c r="H76" s="3">
-        <v>491700</v>
+        <v>4701800</v>
       </c>
       <c r="I76" s="3">
+        <v>3970600</v>
+      </c>
+      <c r="J76" s="3">
+        <v>3458700</v>
+      </c>
+      <c r="K76" s="3">
         <v>350100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>264000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>80500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>60200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>80100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>95000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>103500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>106700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>140100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>127500</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>16</v>
       </c>
@@ -4983,8 +5355,14 @@
       <c r="X76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5429,167 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-86700</v>
+        <v>-110700</v>
       </c>
       <c r="E81" s="3">
-        <v>8700</v>
+        <v>-84400</v>
       </c>
       <c r="F81" s="3">
-        <v>147200</v>
+        <v>-610200</v>
       </c>
       <c r="G81" s="3">
-        <v>62800</v>
+        <v>61100</v>
       </c>
       <c r="H81" s="3">
-        <v>182900</v>
+        <v>1035500</v>
       </c>
       <c r="I81" s="3">
+        <v>65100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>1286900</v>
+      </c>
+      <c r="K81" s="3">
         <v>72800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>23900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-10000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-12700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-2500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-6300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-122900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>14600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-41000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-10400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-4000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-9700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-62200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>93300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5614,10 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5265,11 +5663,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S83" s="3" t="s">
-        <v>16</v>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>16</v>
@@ -5286,8 +5684,14 @@
       <c r="X83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5758,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5832,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5906,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5980,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,22 +6054,28 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E89" s="3">
-        <v>-82800</v>
+      <c r="E89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>16</v>
+      <c r="G89" s="3">
+        <v>-582200</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>16</v>
@@ -5652,11 +6086,11 @@
       <c r="J89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
-        <v>0</v>
+      <c r="K89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
@@ -5673,11 +6107,11 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S89" s="3" t="s">
-        <v>16</v>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
       </c>
       <c r="T89" s="3" t="s">
         <v>16</v>
@@ -5694,8 +6128,14 @@
       <c r="X89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +6160,10 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5767,11 +6209,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>16</v>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>16</v>
@@ -5788,8 +6230,14 @@
       <c r="X91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6304,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,22 +6378,28 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E94" s="3">
-        <v>-5700</v>
+      <c r="E94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>16</v>
+      <c r="G94" s="3">
+        <v>-40300</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>16</v>
@@ -5950,11 +6410,11 @@
       <c r="J94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -5971,11 +6431,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S94" s="3" t="s">
-        <v>16</v>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>16</v>
@@ -5992,8 +6452,14 @@
       <c r="X94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6484,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6554,14 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6628,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6702,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,22 +6776,28 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E100" s="3">
-        <v>-44900</v>
+      <c r="E100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>16</v>
+      <c r="G100" s="3">
+        <v>-315600</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>16</v>
@@ -6316,11 +6808,11 @@
       <c r="J100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
+      <c r="K100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -6337,11 +6829,11 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S100" s="3" t="s">
-        <v>16</v>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
       </c>
       <c r="T100" s="3" t="s">
         <v>16</v>
@@ -6358,22 +6850,28 @@
       <c r="X100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E101" s="3">
-        <v>29700</v>
+      <c r="E101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>16</v>
+      <c r="G101" s="3">
+        <v>209000</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>16</v>
@@ -6384,11 +6882,11 @@
       <c r="J101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -6405,11 +6903,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S101" s="3" t="s">
-        <v>16</v>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
       </c>
       <c r="T101" s="3" t="s">
         <v>16</v>
@@ -6426,22 +6924,28 @@
       <c r="X101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E102" s="3">
-        <v>-103600</v>
+      <c r="E102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>16</v>
+      <c r="G102" s="3">
+        <v>-729000</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>16</v>
@@ -6452,11 +6956,11 @@
       <c r="J102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
+      <c r="K102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
@@ -6473,11 +6977,11 @@
       <c r="Q102" s="3">
         <v>0</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S102" s="3" t="s">
-        <v>16</v>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
       </c>
       <c r="T102" s="3" t="s">
         <v>16</v>
@@ -6492,6 +6996,12 @@
         <v>16</v>
       </c>
       <c r="X102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z102" s="3" t="s">
         <v>16</v>
       </c>
     </row>
